--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5600" uniqueCount="1867">
   <si>
     <t>HT</t>
   </si>
@@ -5516,6 +5516,9 @@
     <t>1-0</t>
   </si>
   <si>
+    <t>1-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -5549,9 +5552,6 @@
     <t>0-3</t>
   </si>
   <si>
-    <t>1-3</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
@@ -5561,6 +5561,15 @@
     <t>3-4</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
     <t>5-0</t>
   </si>
   <si>
@@ -5573,10 +5582,7 @@
     <t>4-1</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
+    <t>7-1</t>
   </si>
   <si>
     <t>2-4</t>
@@ -5588,16 +5594,13 @@
     <t>0-5</t>
   </si>
   <si>
+    <t>4-3</t>
+  </si>
+  <si>
     <t>1-6</t>
   </si>
   <si>
     <t>5-4</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
   </si>
   <si>
     <t>5-2</t>
@@ -5749,17 +5752,17 @@
       <c r="D4" t="s">
         <v>1086</v>
       </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#N/A</v>
+      <c r="E4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -5782,7 +5785,7 @@
         <v>1017</v>
       </c>
       <c r="G5" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H5" t="n">
         <v>4.0</v>
@@ -5834,7 +5837,7 @@
         <v>996</v>
       </c>
       <c r="G7" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -5860,7 +5863,7 @@
         <v>945</v>
       </c>
       <c r="G8" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -5886,7 +5889,7 @@
         <v>980</v>
       </c>
       <c r="G9" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H9" t="n">
         <v>2.0</v>
@@ -5912,7 +5915,7 @@
         <v>1034</v>
       </c>
       <c r="G10" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>
@@ -5938,7 +5941,7 @@
         <v>1040</v>
       </c>
       <c r="G11" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H11" t="n">
         <v>2.0</v>
@@ -5964,7 +5967,7 @@
         <v>1040</v>
       </c>
       <c r="G12" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H12" t="n">
         <v>1.0</v>
@@ -5990,7 +5993,7 @@
         <v>982</v>
       </c>
       <c r="G13" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H13" t="n">
         <v>5.0</v>
@@ -6016,7 +6019,7 @@
         <v>1053</v>
       </c>
       <c r="G14" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
@@ -6068,7 +6071,7 @@
         <v>1023</v>
       </c>
       <c r="G16" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
@@ -6087,17 +6090,17 @@
       <c r="D17" t="s">
         <v>1097</v>
       </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#N/A</v>
+      <c r="E17" t="s">
+        <v>830</v>
+      </c>
+      <c r="F17" t="s">
+        <v>985</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -6113,17 +6116,17 @@
       <c r="D18" t="s">
         <v>1098</v>
       </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#N/A</v>
+      <c r="E18" t="s">
+        <v>831</v>
+      </c>
+      <c r="F18" t="s">
+        <v>984</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -6139,17 +6142,17 @@
       <c r="D19" t="s">
         <v>1099</v>
       </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#N/A</v>
+      <c r="E19" t="s">
+        <v>832</v>
+      </c>
+      <c r="F19" t="s">
+        <v>983</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -6165,17 +6168,17 @@
       <c r="D20" t="s">
         <v>1100</v>
       </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H20" t="e">
-        <v>#N/A</v>
+      <c r="E20" t="s">
+        <v>833</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -6191,17 +6194,17 @@
       <c r="D21" t="s">
         <v>1101</v>
       </c>
-      <c r="E21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#N/A</v>
+      <c r="E21" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -6224,7 +6227,7 @@
         <v>1005</v>
       </c>
       <c r="G22" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H22" t="n">
         <v>4.0</v>
@@ -6250,7 +6253,7 @@
         <v>1054</v>
       </c>
       <c r="G23" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -6276,7 +6279,7 @@
         <v>1078</v>
       </c>
       <c r="G24" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H24" t="n">
         <v>2.0</v>
@@ -6302,7 +6305,7 @@
         <v>1006</v>
       </c>
       <c r="G25" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H25" t="n">
         <v>6.0</v>
@@ -6328,7 +6331,7 @@
         <v>1009</v>
       </c>
       <c r="G26" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H26" t="n">
         <v>1.0</v>
@@ -6354,7 +6357,7 @@
         <v>990</v>
       </c>
       <c r="G27" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H27" t="n">
         <v>2.0</v>
@@ -6380,7 +6383,7 @@
         <v>1016</v>
       </c>
       <c r="G28" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H28" t="n">
         <v>5.0</v>
@@ -6406,7 +6409,7 @@
         <v>1065</v>
       </c>
       <c r="G29" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H29" t="n">
         <v>1.0</v>
@@ -6432,7 +6435,7 @@
         <v>1046</v>
       </c>
       <c r="G30" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H30" t="n">
         <v>6.0</v>
@@ -6458,7 +6461,7 @@
         <v>962</v>
       </c>
       <c r="G31" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H31" t="n">
         <v>3.0</v>
@@ -6484,7 +6487,7 @@
         <v>941</v>
       </c>
       <c r="G32" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H32" t="n">
         <v>4.0</v>
@@ -6614,7 +6617,7 @@
         <v>1012</v>
       </c>
       <c r="G37" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H37" t="n">
         <v>1.0</v>
@@ -6666,7 +6669,7 @@
         <v>1019</v>
       </c>
       <c r="G39" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H39" t="n">
         <v>4.0</v>
@@ -6692,7 +6695,7 @@
         <v>981</v>
       </c>
       <c r="G40" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H40" t="n">
         <v>4.0</v>
@@ -6744,7 +6747,7 @@
         <v>1062</v>
       </c>
       <c r="G42" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H42" t="n">
         <v>2.0</v>
@@ -6770,7 +6773,7 @@
         <v>999</v>
       </c>
       <c r="G43" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H43" t="n">
         <v>2.0</v>
@@ -6848,7 +6851,7 @@
         <v>1036</v>
       </c>
       <c r="G46" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H46" t="n">
         <v>1.0</v>
@@ -6874,7 +6877,7 @@
         <v>1025</v>
       </c>
       <c r="G47" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H47" t="n">
         <v>0.0</v>
@@ -6952,7 +6955,7 @@
         <v>1007</v>
       </c>
       <c r="G50" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H50" t="n">
         <v>2.0</v>
@@ -7023,17 +7026,17 @@
       <c r="D53" t="s">
         <v>1132</v>
       </c>
-      <c r="E53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="e">
-        <v>#N/A</v>
+      <c r="E53" t="s">
+        <v>865</v>
+      </c>
+      <c r="F53" t="s">
+        <v>929</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -7049,17 +7052,17 @@
       <c r="D54" t="s">
         <v>1133</v>
       </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H54" t="e">
-        <v>#N/A</v>
+      <c r="E54" t="s">
+        <v>866</v>
+      </c>
+      <c r="F54" t="s">
+        <v>927</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -7075,17 +7078,17 @@
       <c r="D55" t="s">
         <v>1134</v>
       </c>
-      <c r="E55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#N/A</v>
+      <c r="E55" t="s">
+        <v>867</v>
+      </c>
+      <c r="F55" t="s">
+        <v>933</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -7101,17 +7104,17 @@
       <c r="D56" t="s">
         <v>1135</v>
       </c>
-      <c r="E56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H56" t="e">
-        <v>#N/A</v>
+      <c r="E56" t="s">
+        <v>868</v>
+      </c>
+      <c r="F56" t="s">
+        <v>986</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
@@ -7127,17 +7130,17 @@
       <c r="D57" t="s">
         <v>1136</v>
       </c>
-      <c r="E57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H57" t="e">
-        <v>#N/A</v>
+      <c r="E57" t="s">
+        <v>869</v>
+      </c>
+      <c r="F57" t="s">
+        <v>931</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -7153,17 +7156,17 @@
       <c r="D58" t="s">
         <v>1137</v>
       </c>
-      <c r="E58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H58" t="e">
-        <v>#N/A</v>
+      <c r="E58" t="s">
+        <v>870</v>
+      </c>
+      <c r="F58" t="s">
+        <v>930</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -7179,17 +7182,17 @@
       <c r="D59" t="s">
         <v>1138</v>
       </c>
-      <c r="E59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="e">
-        <v>#N/A</v>
+      <c r="E59" t="s">
+        <v>871</v>
+      </c>
+      <c r="F59" t="s">
+        <v>957</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -7212,7 +7215,7 @@
         <v>987</v>
       </c>
       <c r="G60" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H60" t="n">
         <v>4.0</v>
@@ -7264,7 +7267,7 @@
         <v>1079</v>
       </c>
       <c r="G62" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H62" t="n">
         <v>5.0</v>
@@ -7290,7 +7293,7 @@
         <v>1008</v>
       </c>
       <c r="G63" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H63" t="n">
         <v>6.0</v>
@@ -7316,7 +7319,7 @@
         <v>935</v>
       </c>
       <c r="G64" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
@@ -7368,7 +7371,7 @@
         <v>936</v>
       </c>
       <c r="G66" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H66" t="n">
         <v>0.0</v>
@@ -7498,7 +7501,7 @@
         <v>940</v>
       </c>
       <c r="G71" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
@@ -7524,7 +7527,7 @@
         <v>1080</v>
       </c>
       <c r="G72" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H72" t="n">
         <v>5.0</v>
@@ -7550,7 +7553,7 @@
         <v>942</v>
       </c>
       <c r="G73" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H73" t="n">
         <v>4.0</v>
@@ -7576,7 +7579,7 @@
         <v>978</v>
       </c>
       <c r="G74" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H74" t="n">
         <v>2.0</v>
@@ -7602,7 +7605,7 @@
         <v>979</v>
       </c>
       <c r="G75" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H75" t="n">
         <v>2.0</v>
@@ -7628,7 +7631,7 @@
         <v>944</v>
       </c>
       <c r="G76" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H76" t="n">
         <v>5.0</v>
@@ -7654,7 +7657,7 @@
         <v>946</v>
       </c>
       <c r="G77" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H77" t="n">
         <v>3.0</v>
@@ -7732,7 +7735,7 @@
         <v>947</v>
       </c>
       <c r="G80" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H80" t="n">
         <v>1.0</v>
@@ -7784,7 +7787,7 @@
         <v>1052</v>
       </c>
       <c r="G82" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H82" t="n">
         <v>3.0</v>
@@ -7810,7 +7813,7 @@
         <v>1000</v>
       </c>
       <c r="G83" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H83" t="n">
         <v>2.0</v>
@@ -7836,7 +7839,7 @@
         <v>949</v>
       </c>
       <c r="G84" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H84" t="n">
         <v>2.0</v>
@@ -7914,7 +7917,7 @@
         <v>1038</v>
       </c>
       <c r="G87" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H87" t="n">
         <v>3.0</v>
@@ -7966,7 +7969,7 @@
         <v>951</v>
       </c>
       <c r="G89" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H89" t="n">
         <v>4.0</v>
@@ -7992,7 +7995,7 @@
         <v>951</v>
       </c>
       <c r="G90" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H90" t="n">
         <v>3.0</v>
@@ -8018,7 +8021,7 @@
         <v>1037</v>
       </c>
       <c r="G91" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H91" t="n">
         <v>3.0</v>
@@ -8070,7 +8073,7 @@
         <v>955</v>
       </c>
       <c r="G93" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H93" t="n">
         <v>4.0</v>
@@ -8096,7 +8099,7 @@
         <v>1070</v>
       </c>
       <c r="G94" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H94" t="n">
         <v>3.0</v>
@@ -8122,7 +8125,7 @@
         <v>1002</v>
       </c>
       <c r="G95" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H95" t="n">
         <v>5.0</v>
@@ -8148,7 +8151,7 @@
         <v>1039</v>
       </c>
       <c r="G96" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H96" t="n">
         <v>0.0</v>
@@ -8174,7 +8177,7 @@
         <v>1039</v>
       </c>
       <c r="G97" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H97" t="n">
         <v>1.0</v>
@@ -8200,7 +8203,7 @@
         <v>1041</v>
       </c>
       <c r="G98" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H98" t="n">
         <v>2.0</v>
@@ -8219,17 +8222,17 @@
       <c r="D99" t="s">
         <v>1176</v>
       </c>
-      <c r="E99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H99" t="e">
-        <v>#N/A</v>
+      <c r="E99" t="s">
+        <v>909</v>
+      </c>
+      <c r="F99" t="s">
+        <v>958</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -8245,17 +8248,17 @@
       <c r="D100" t="s">
         <v>1177</v>
       </c>
-      <c r="E100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H100" t="e">
-        <v>#N/A</v>
+      <c r="E100" t="s">
+        <v>910</v>
+      </c>
+      <c r="F100" t="s">
+        <v>934</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
@@ -8356,7 +8359,7 @@
         <v>977</v>
       </c>
       <c r="G104" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H104" t="n">
         <v>3.0</v>
@@ -8486,7 +8489,7 @@
         <v>1021</v>
       </c>
       <c r="G109" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H109" t="n">
         <v>1.0</v>
@@ -8512,7 +8515,7 @@
         <v>968</v>
       </c>
       <c r="G110" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H110" t="n">
         <v>2.0</v>
@@ -8590,7 +8593,7 @@
         <v>953</v>
       </c>
       <c r="G113" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H113" t="n">
         <v>4.0</v>
@@ -8635,17 +8638,17 @@
       <c r="D115" t="s">
         <v>1192</v>
       </c>
-      <c r="E115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H115" t="e">
-        <v>#N/A</v>
+      <c r="E115" t="s">
+        <v>925</v>
+      </c>
+      <c r="F115" t="s">
+        <v>932</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -8668,7 +8671,7 @@
         <v>1047</v>
       </c>
       <c r="G116" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H116" t="n">
         <v>3.0</v>
@@ -8694,7 +8697,7 @@
         <v>992</v>
       </c>
       <c r="G117" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H117" t="n">
         <v>2.0</v>
@@ -8765,17 +8768,17 @@
       <c r="D120" t="s">
         <v>1197</v>
       </c>
-      <c r="E120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="e">
-        <v>#N/A</v>
+      <c r="E120" t="s">
+        <v>927</v>
+      </c>
+      <c r="F120" t="s">
+        <v>832</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
@@ -8791,17 +8794,17 @@
       <c r="D121" t="s">
         <v>1198</v>
       </c>
-      <c r="E121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H121" t="e">
-        <v>#N/A</v>
+      <c r="E121" t="s">
+        <v>928</v>
+      </c>
+      <c r="F121" t="s">
+        <v>866</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="122">
@@ -8817,17 +8820,17 @@
       <c r="D122" t="s">
         <v>1199</v>
       </c>
-      <c r="E122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H122" t="e">
-        <v>#N/A</v>
+      <c r="E122" t="s">
+        <v>929</v>
+      </c>
+      <c r="F122" t="s">
+        <v>819</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="123">
@@ -8843,17 +8846,17 @@
       <c r="D123" t="s">
         <v>1200</v>
       </c>
-      <c r="E123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H123" t="e">
-        <v>#N/A</v>
+      <c r="E123" t="s">
+        <v>930</v>
+      </c>
+      <c r="F123" t="s">
+        <v>925</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -8869,17 +8872,17 @@
       <c r="D124" t="s">
         <v>1201</v>
       </c>
-      <c r="E124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H124" t="e">
-        <v>#N/A</v>
+      <c r="E124" t="s">
+        <v>931</v>
+      </c>
+      <c r="F124" t="s">
+        <v>833</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -8895,17 +8898,17 @@
       <c r="D125" t="s">
         <v>1202</v>
       </c>
-      <c r="E125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
-        <v>#N/A</v>
+      <c r="E125" t="s">
+        <v>867</v>
+      </c>
+      <c r="F125" t="s">
+        <v>870</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
@@ -8921,17 +8924,17 @@
       <c r="D126" t="s">
         <v>1203</v>
       </c>
-      <c r="E126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H126" t="e">
-        <v>#N/A</v>
+      <c r="E126" t="s">
+        <v>932</v>
+      </c>
+      <c r="F126" t="s">
+        <v>868</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="127">
@@ -8947,17 +8950,17 @@
       <c r="D127" t="s">
         <v>1204</v>
       </c>
-      <c r="E127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
-        <v>#N/A</v>
+      <c r="E127" t="s">
+        <v>933</v>
+      </c>
+      <c r="F127" t="s">
+        <v>909</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -8973,17 +8976,17 @@
       <c r="D128" t="s">
         <v>1205</v>
       </c>
-      <c r="E128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H128" t="e">
-        <v>#N/A</v>
+      <c r="E128" t="s">
+        <v>934</v>
+      </c>
+      <c r="F128" t="s">
+        <v>871</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
@@ -9032,7 +9035,7 @@
         <v>839</v>
       </c>
       <c r="G130" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H130" t="n">
         <v>0.0</v>
@@ -9058,7 +9061,7 @@
         <v>879</v>
       </c>
       <c r="G131" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H131" t="n">
         <v>4.0</v>
@@ -9084,7 +9087,7 @@
         <v>878</v>
       </c>
       <c r="G132" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H132" t="n">
         <v>2.0</v>
@@ -9110,7 +9113,7 @@
         <v>844</v>
       </c>
       <c r="G133" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H133" t="n">
         <v>3.0</v>
@@ -9136,7 +9139,7 @@
         <v>883</v>
       </c>
       <c r="G134" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H134" t="n">
         <v>2.0</v>
@@ -9162,7 +9165,7 @@
         <v>845</v>
       </c>
       <c r="G135" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H135" t="n">
         <v>2.0</v>
@@ -9188,7 +9191,7 @@
         <v>1028</v>
       </c>
       <c r="G136" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H136" t="n">
         <v>4.0</v>
@@ -9266,7 +9269,7 @@
         <v>1080</v>
       </c>
       <c r="G139" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H139" t="n">
         <v>3.0</v>
@@ -9370,7 +9373,7 @@
         <v>1019</v>
       </c>
       <c r="G143" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="H143" t="n">
         <v>6.0</v>
@@ -9396,7 +9399,7 @@
         <v>852</v>
       </c>
       <c r="G144" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H144" t="n">
         <v>1.0</v>
@@ -9422,7 +9425,7 @@
         <v>893</v>
       </c>
       <c r="G145" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H145" t="n">
         <v>3.0</v>
@@ -9500,7 +9503,7 @@
         <v>857</v>
       </c>
       <c r="G148" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H148" t="n">
         <v>4.0</v>
@@ -9526,7 +9529,7 @@
         <v>897</v>
       </c>
       <c r="G149" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="H149" t="n">
         <v>7.0</v>
@@ -9552,7 +9555,7 @@
         <v>895</v>
       </c>
       <c r="G150" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H150" t="n">
         <v>2.0</v>
@@ -9578,7 +9581,7 @@
         <v>922</v>
       </c>
       <c r="G151" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H151" t="n">
         <v>0.0</v>
@@ -9604,7 +9607,7 @@
         <v>1070</v>
       </c>
       <c r="G152" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H152" t="n">
         <v>2.0</v>
@@ -9630,7 +9633,7 @@
         <v>1070</v>
       </c>
       <c r="G153" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H153" t="n">
         <v>3.0</v>
@@ -9656,7 +9659,7 @@
         <v>902</v>
       </c>
       <c r="G154" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H154" t="n">
         <v>0.0</v>
@@ -9708,7 +9711,7 @@
         <v>1037</v>
       </c>
       <c r="G156" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H156" t="n">
         <v>1.0</v>
@@ -9734,7 +9737,7 @@
         <v>899</v>
       </c>
       <c r="G157" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H157" t="n">
         <v>4.0</v>
@@ -9805,17 +9808,17 @@
       <c r="D160" t="s">
         <v>1236</v>
       </c>
-      <c r="E160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H160" t="e">
-        <v>#N/A</v>
+      <c r="E160" t="s">
+        <v>957</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
@@ -9831,17 +9834,17 @@
       <c r="D161" t="s">
         <v>1237</v>
       </c>
-      <c r="E161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H161" t="e">
-        <v>#N/A</v>
+      <c r="E161" t="s">
+        <v>958</v>
+      </c>
+      <c r="F161" t="s">
+        <v>869</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="162">
@@ -9864,7 +9867,7 @@
         <v>876</v>
       </c>
       <c r="G162" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H162" t="n">
         <v>2.0</v>
@@ -9890,7 +9893,7 @@
         <v>880</v>
       </c>
       <c r="G163" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H163" t="n">
         <v>4.0</v>
@@ -10046,7 +10049,7 @@
         <v>851</v>
       </c>
       <c r="G169" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H169" t="n">
         <v>4.0</v>
@@ -10202,7 +10205,7 @@
         <v>1024</v>
       </c>
       <c r="G175" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H175" t="n">
         <v>2.0</v>
@@ -10228,7 +10231,7 @@
         <v>1024</v>
       </c>
       <c r="G176" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H176" t="n">
         <v>0.0</v>
@@ -10254,7 +10257,7 @@
         <v>842</v>
       </c>
       <c r="G177" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H177" t="n">
         <v>1.0</v>
@@ -10306,7 +10309,7 @@
         <v>1078</v>
       </c>
       <c r="G179" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H179" t="n">
         <v>6.0</v>
@@ -10332,7 +10335,7 @@
         <v>1054</v>
       </c>
       <c r="G180" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H180" t="n">
         <v>2.0</v>
@@ -10384,7 +10387,7 @@
         <v>1006</v>
       </c>
       <c r="G182" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H182" t="n">
         <v>3.0</v>
@@ -10436,7 +10439,7 @@
         <v>1017</v>
       </c>
       <c r="G184" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H184" t="n">
         <v>3.0</v>
@@ -10540,7 +10543,7 @@
         <v>1056</v>
       </c>
       <c r="G188" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H188" t="n">
         <v>4.0</v>
@@ -10566,7 +10569,7 @@
         <v>842</v>
       </c>
       <c r="G189" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H189" t="n">
         <v>2.0</v>
@@ -10592,7 +10595,7 @@
         <v>847</v>
       </c>
       <c r="G190" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H190" t="n">
         <v>4.0</v>
@@ -10618,7 +10621,7 @@
         <v>822</v>
       </c>
       <c r="G191" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H191" t="n">
         <v>4.0</v>
@@ -10644,7 +10647,7 @@
         <v>823</v>
       </c>
       <c r="G192" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H192" t="n">
         <v>4.0</v>
@@ -10670,7 +10673,7 @@
         <v>887</v>
       </c>
       <c r="G193" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H193" t="n">
         <v>0.0</v>
@@ -10696,7 +10699,7 @@
         <v>854</v>
       </c>
       <c r="G194" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H194" t="n">
         <v>3.0</v>
@@ -10722,7 +10725,7 @@
         <v>1020</v>
       </c>
       <c r="G195" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H195" t="n">
         <v>1.0</v>
@@ -10748,7 +10751,7 @@
         <v>1022</v>
       </c>
       <c r="G196" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H196" t="n">
         <v>4.0</v>
@@ -10845,17 +10848,17 @@
       <c r="D200" t="s">
         <v>1272</v>
       </c>
-      <c r="E200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G200" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H200" t="e">
-        <v>#N/A</v>
+      <c r="E200" t="s">
+        <v>983</v>
+      </c>
+      <c r="F200" t="s">
+        <v>865</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="201">
@@ -10871,17 +10874,17 @@
       <c r="D201" t="s">
         <v>1273</v>
       </c>
-      <c r="E201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G201" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H201" t="e">
-        <v>#N/A</v>
+      <c r="E201" t="s">
+        <v>984</v>
+      </c>
+      <c r="F201" t="s">
+        <v>830</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="202">
@@ -10897,17 +10900,17 @@
       <c r="D202" t="s">
         <v>1274</v>
       </c>
-      <c r="E202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G202" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H202" t="e">
-        <v>#N/A</v>
+      <c r="E202" t="s">
+        <v>985</v>
+      </c>
+      <c r="F202" t="s">
+        <v>831</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="203">
@@ -10923,17 +10926,17 @@
       <c r="D203" t="s">
         <v>1275</v>
       </c>
-      <c r="E203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G203" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H203" t="e">
-        <v>#N/A</v>
+      <c r="E203" t="s">
+        <v>986</v>
+      </c>
+      <c r="F203" t="s">
+        <v>834</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -10956,7 +10959,7 @@
         <v>872</v>
       </c>
       <c r="G204" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H204" t="n">
         <v>4.0</v>
@@ -10982,7 +10985,7 @@
         <v>875</v>
       </c>
       <c r="G205" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H205" t="n">
         <v>1.0</v>
@@ -11008,7 +11011,7 @@
         <v>1079</v>
       </c>
       <c r="G206" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H206" t="n">
         <v>3.0</v>
@@ -11060,7 +11063,7 @@
         <v>1009</v>
       </c>
       <c r="G208" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H208" t="n">
         <v>2.0</v>
@@ -11112,7 +11115,7 @@
         <v>841</v>
       </c>
       <c r="G210" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H210" t="n">
         <v>0.0</v>
@@ -11138,7 +11141,7 @@
         <v>1010</v>
       </c>
       <c r="G211" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H211" t="n">
         <v>2.0</v>
@@ -11164,7 +11167,7 @@
         <v>1010</v>
       </c>
       <c r="G212" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H212" t="n">
         <v>2.0</v>
@@ -11190,7 +11193,7 @@
         <v>846</v>
       </c>
       <c r="G213" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H213" t="n">
         <v>3.0</v>
@@ -11216,7 +11219,7 @@
         <v>882</v>
       </c>
       <c r="G214" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H214" t="n">
         <v>2.0</v>
@@ -11242,7 +11245,7 @@
         <v>913</v>
       </c>
       <c r="G215" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H215" t="n">
         <v>3.0</v>
@@ -11268,7 +11271,7 @@
         <v>884</v>
       </c>
       <c r="G216" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H216" t="n">
         <v>2.0</v>
@@ -11294,7 +11297,7 @@
         <v>914</v>
       </c>
       <c r="G217" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H217" t="n">
         <v>4.0</v>
@@ -11320,7 +11323,7 @@
         <v>849</v>
       </c>
       <c r="G218" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H218" t="n">
         <v>4.0</v>
@@ -11346,7 +11349,7 @@
         <v>916</v>
       </c>
       <c r="G219" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H219" t="n">
         <v>3.0</v>
@@ -11398,7 +11401,7 @@
         <v>1034</v>
       </c>
       <c r="G221" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H221" t="n">
         <v>5.0</v>
@@ -11476,7 +11479,7 @@
         <v>858</v>
       </c>
       <c r="G224" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H224" t="n">
         <v>4.0</v>
@@ -11502,7 +11505,7 @@
         <v>896</v>
       </c>
       <c r="G225" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H225" t="n">
         <v>0.0</v>
@@ -11554,7 +11557,7 @@
         <v>1036</v>
       </c>
       <c r="G227" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H227" t="n">
         <v>5.0</v>
@@ -11580,7 +11583,7 @@
         <v>859</v>
       </c>
       <c r="G228" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H228" t="n">
         <v>0.0</v>
@@ -11606,7 +11609,7 @@
         <v>859</v>
       </c>
       <c r="G229" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H229" t="n">
         <v>5.0</v>
@@ -11632,7 +11635,7 @@
         <v>1038</v>
       </c>
       <c r="G230" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H230" t="n">
         <v>5.0</v>
@@ -11658,7 +11661,7 @@
         <v>903</v>
       </c>
       <c r="G231" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H231" t="n">
         <v>1.0</v>
@@ -11684,7 +11687,7 @@
         <v>905</v>
       </c>
       <c r="G232" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H232" t="n">
         <v>5.0</v>
@@ -11710,7 +11713,7 @@
         <v>838</v>
       </c>
       <c r="G233" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H233" t="n">
         <v>2.0</v>
@@ -11736,7 +11739,7 @@
         <v>836</v>
       </c>
       <c r="G234" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H234" t="n">
         <v>6.0</v>
@@ -11788,7 +11791,7 @@
         <v>1054</v>
       </c>
       <c r="G236" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H236" t="n">
         <v>2.0</v>
@@ -11833,17 +11836,17 @@
       <c r="D238" t="s">
         <v>1307</v>
       </c>
-      <c r="E238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G238" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H238" t="e">
-        <v>#N/A</v>
+      <c r="E238" t="s">
+        <v>909</v>
+      </c>
+      <c r="F238" t="s">
+        <v>931</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
@@ -11918,7 +11921,7 @@
         <v>874</v>
       </c>
       <c r="G241" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="H241" t="n">
         <v>5.0</v>
@@ -11944,7 +11947,7 @@
         <v>875</v>
       </c>
       <c r="G242" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H242" t="n">
         <v>0.0</v>
@@ -11970,7 +11973,7 @@
         <v>989</v>
       </c>
       <c r="G243" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H243" t="n">
         <v>5.0</v>
@@ -11996,7 +11999,7 @@
         <v>937</v>
       </c>
       <c r="G244" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H244" t="n">
         <v>5.0</v>
@@ -12048,7 +12051,7 @@
         <v>974</v>
       </c>
       <c r="G246" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H246" t="n">
         <v>3.0</v>
@@ -12074,7 +12077,7 @@
         <v>1055</v>
       </c>
       <c r="G247" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H247" t="n">
         <v>5.0</v>
@@ -12100,7 +12103,7 @@
         <v>994</v>
       </c>
       <c r="G248" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H248" t="n">
         <v>1.0</v>
@@ -12126,7 +12129,7 @@
         <v>942</v>
       </c>
       <c r="G249" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H249" t="n">
         <v>4.0</v>
@@ -12152,7 +12155,7 @@
         <v>943</v>
       </c>
       <c r="G250" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H250" t="n">
         <v>2.0</v>
@@ -12178,7 +12181,7 @@
         <v>945</v>
       </c>
       <c r="G251" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H251" t="n">
         <v>3.0</v>
@@ -12204,7 +12207,7 @@
         <v>997</v>
       </c>
       <c r="G252" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H252" t="n">
         <v>1.0</v>
@@ -12282,7 +12285,7 @@
         <v>908</v>
       </c>
       <c r="G255" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H255" t="n">
         <v>1.0</v>
@@ -12334,7 +12337,7 @@
         <v>982</v>
       </c>
       <c r="G257" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H257" t="n">
         <v>0.0</v>
@@ -12360,7 +12363,7 @@
         <v>982</v>
       </c>
       <c r="G258" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H258" t="n">
         <v>1.0</v>
@@ -12379,17 +12382,17 @@
       <c r="D259" t="s">
         <v>1326</v>
       </c>
-      <c r="E259" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F259" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G259" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H259" t="e">
-        <v>#N/A</v>
+      <c r="E259" t="s">
+        <v>865</v>
+      </c>
+      <c r="F259" t="s">
+        <v>984</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H259" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="260">
@@ -12405,17 +12408,17 @@
       <c r="D260" t="s">
         <v>1327</v>
       </c>
-      <c r="E260" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F260" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G260" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H260" t="e">
-        <v>#N/A</v>
+      <c r="E260" t="s">
+        <v>866</v>
+      </c>
+      <c r="F260" t="s">
+        <v>983</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H260" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="261">
@@ -12431,17 +12434,17 @@
       <c r="D261" t="s">
         <v>1328</v>
       </c>
-      <c r="E261" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F261" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G261" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H261" t="e">
-        <v>#N/A</v>
+      <c r="E261" t="s">
+        <v>819</v>
+      </c>
+      <c r="F261" t="s">
+        <v>830</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H261" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="262">
@@ -12457,17 +12460,17 @@
       <c r="D262" t="s">
         <v>1329</v>
       </c>
-      <c r="E262" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F262" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G262" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H262" t="e">
-        <v>#N/A</v>
+      <c r="E262" t="s">
+        <v>870</v>
+      </c>
+      <c r="F262" t="s">
+        <v>986</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H262" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="263">
@@ -12516,7 +12519,7 @@
         <v>840</v>
       </c>
       <c r="G264" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H264" t="n">
         <v>1.0</v>
@@ -12594,7 +12597,7 @@
         <v>960</v>
       </c>
       <c r="G267" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H267" t="n">
         <v>1.0</v>
@@ -12672,7 +12675,7 @@
         <v>941</v>
       </c>
       <c r="G270" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H270" t="n">
         <v>2.0</v>
@@ -12698,7 +12701,7 @@
         <v>845</v>
       </c>
       <c r="G271" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H271" t="n">
         <v>4.0</v>
@@ -12802,7 +12805,7 @@
         <v>980</v>
       </c>
       <c r="G275" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H275" t="n">
         <v>1.0</v>
@@ -12828,7 +12831,7 @@
         <v>946</v>
       </c>
       <c r="G276" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H276" t="n">
         <v>5.0</v>
@@ -12854,7 +12857,7 @@
         <v>890</v>
       </c>
       <c r="G277" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H277" t="n">
         <v>3.0</v>
@@ -12906,7 +12909,7 @@
         <v>1062</v>
       </c>
       <c r="G279" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H279" t="n">
         <v>0.0</v>
@@ -12932,7 +12935,7 @@
         <v>855</v>
       </c>
       <c r="G280" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H280" t="n">
         <v>4.0</v>
@@ -12984,7 +12987,7 @@
         <v>858</v>
       </c>
       <c r="G282" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H282" t="n">
         <v>4.0</v>
@@ -13010,7 +13013,7 @@
         <v>864</v>
       </c>
       <c r="G283" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="H283" t="n">
         <v>7.0</v>
@@ -13036,7 +13039,7 @@
         <v>864</v>
       </c>
       <c r="G284" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H284" t="n">
         <v>3.0</v>
@@ -13062,7 +13065,7 @@
         <v>818</v>
       </c>
       <c r="G285" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H285" t="n">
         <v>2.0</v>
@@ -13114,7 +13117,7 @@
         <v>827</v>
       </c>
       <c r="G287" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H287" t="n">
         <v>1.0</v>
@@ -13159,17 +13162,17 @@
       <c r="D289" t="s">
         <v>1353</v>
       </c>
-      <c r="E289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H289" t="e">
-        <v>#N/A</v>
+      <c r="E289" t="s">
+        <v>831</v>
+      </c>
+      <c r="F289" t="s">
+        <v>929</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H289" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="290">
@@ -13185,17 +13188,17 @@
       <c r="D290" t="s">
         <v>1354</v>
       </c>
-      <c r="E290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H290" t="e">
-        <v>#N/A</v>
+      <c r="E290" t="s">
+        <v>928</v>
+      </c>
+      <c r="F290" t="s">
+        <v>927</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="291">
@@ -13211,17 +13214,17 @@
       <c r="D291" t="s">
         <v>1355</v>
       </c>
-      <c r="E291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H291" t="e">
-        <v>#N/A</v>
+      <c r="E291" t="s">
+        <v>832</v>
+      </c>
+      <c r="F291" t="s">
+        <v>985</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="292">
@@ -13237,17 +13240,17 @@
       <c r="D292" t="s">
         <v>1356</v>
       </c>
-      <c r="E292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H292" t="e">
-        <v>#N/A</v>
+      <c r="E292" t="s">
+        <v>925</v>
+      </c>
+      <c r="F292" t="s">
+        <v>933</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="293">
@@ -13263,17 +13266,17 @@
       <c r="D293" t="s">
         <v>1357</v>
       </c>
-      <c r="E293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H293" t="e">
-        <v>#N/A</v>
+      <c r="E293" t="s">
+        <v>834</v>
+      </c>
+      <c r="F293" t="s">
+        <v>869</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H293" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="294">
@@ -13289,17 +13292,17 @@
       <c r="D294" t="s">
         <v>1358</v>
       </c>
-      <c r="E294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H294" t="e">
-        <v>#N/A</v>
+      <c r="E294" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="295">
@@ -13315,17 +13318,17 @@
       <c r="D295" t="s">
         <v>1359</v>
       </c>
-      <c r="E295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H295" t="e">
-        <v>#N/A</v>
+      <c r="E295" t="s">
+        <v>910</v>
+      </c>
+      <c r="F295" t="s">
+        <v>867</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H295" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="296">
@@ -13341,17 +13344,17 @@
       <c r="D296" t="s">
         <v>1360</v>
       </c>
-      <c r="E296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H296" t="e">
-        <v>#N/A</v>
+      <c r="E296" t="s">
+        <v>871</v>
+      </c>
+      <c r="F296" t="s">
+        <v>932</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
@@ -13367,17 +13370,17 @@
       <c r="D297" t="s">
         <v>1361</v>
       </c>
-      <c r="E297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H297" t="e">
-        <v>#N/A</v>
+      <c r="E297" t="s">
+        <v>958</v>
+      </c>
+      <c r="F297" t="s">
+        <v>957</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
@@ -13393,17 +13396,17 @@
       <c r="D298" t="s">
         <v>1362</v>
       </c>
-      <c r="E298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H298" t="e">
-        <v>#N/A</v>
+      <c r="E298" t="s">
+        <v>868</v>
+      </c>
+      <c r="F298" t="s">
+        <v>930</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H298" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="299">
@@ -13452,7 +13455,7 @@
         <v>879</v>
       </c>
       <c r="G300" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H300" t="n">
         <v>6.0</v>
@@ -13478,7 +13481,7 @@
         <v>935</v>
       </c>
       <c r="G301" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H301" t="n">
         <v>2.0</v>
@@ -13530,7 +13533,7 @@
         <v>972</v>
       </c>
       <c r="G303" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H303" t="n">
         <v>5.0</v>
@@ -13556,7 +13559,7 @@
         <v>973</v>
       </c>
       <c r="G304" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H304" t="n">
         <v>4.0</v>
@@ -13608,7 +13611,7 @@
         <v>1056</v>
       </c>
       <c r="G306" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H306" t="n">
         <v>5.0</v>
@@ -13634,7 +13637,7 @@
         <v>991</v>
       </c>
       <c r="G307" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H307" t="n">
         <v>3.0</v>
@@ -13686,7 +13689,7 @@
         <v>993</v>
       </c>
       <c r="G309" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H309" t="n">
         <v>2.0</v>
@@ -13738,7 +13741,7 @@
         <v>971</v>
       </c>
       <c r="G311" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H311" t="n">
         <v>4.0</v>
@@ -13764,7 +13767,7 @@
         <v>1068</v>
       </c>
       <c r="G312" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H312" t="n">
         <v>5.0</v>
@@ -13790,7 +13793,7 @@
         <v>1074</v>
       </c>
       <c r="G313" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="H313" t="n">
         <v>9.0</v>
@@ -13842,7 +13845,7 @@
         <v>1060</v>
       </c>
       <c r="G315" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H315" t="n">
         <v>5.0</v>
@@ -13868,7 +13871,7 @@
         <v>1061</v>
       </c>
       <c r="G316" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H316" t="n">
         <v>4.0</v>
@@ -13998,7 +14001,7 @@
         <v>979</v>
       </c>
       <c r="G321" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H321" t="n">
         <v>3.0</v>
@@ -14050,7 +14053,7 @@
         <v>891</v>
       </c>
       <c r="G323" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H323" t="n">
         <v>3.0</v>
@@ -14076,7 +14079,7 @@
         <v>966</v>
       </c>
       <c r="G324" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H324" t="n">
         <v>3.0</v>
@@ -14102,7 +14105,7 @@
         <v>967</v>
       </c>
       <c r="G325" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H325" t="n">
         <v>5.0</v>
@@ -14128,7 +14131,7 @@
         <v>919</v>
       </c>
       <c r="G326" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H326" t="n">
         <v>5.0</v>
@@ -14154,7 +14157,7 @@
         <v>999</v>
       </c>
       <c r="G327" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H327" t="n">
         <v>3.0</v>
@@ -14180,7 +14183,7 @@
         <v>894</v>
       </c>
       <c r="G328" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H328" t="n">
         <v>0.0</v>
@@ -14206,7 +14209,7 @@
         <v>948</v>
       </c>
       <c r="G329" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H329" t="n">
         <v>3.0</v>
@@ -14232,7 +14235,7 @@
         <v>950</v>
       </c>
       <c r="G330" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="H330" t="n">
         <v>6.0</v>
@@ -14258,7 +14261,7 @@
         <v>1000</v>
       </c>
       <c r="G331" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H331" t="n">
         <v>4.0</v>
@@ -14284,7 +14287,7 @@
         <v>859</v>
       </c>
       <c r="G332" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H332" t="n">
         <v>5.0</v>
@@ -14336,7 +14339,7 @@
         <v>952</v>
       </c>
       <c r="G334" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H334" t="n">
         <v>2.0</v>
@@ -14362,7 +14365,7 @@
         <v>906</v>
       </c>
       <c r="G335" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H335" t="n">
         <v>4.0</v>
@@ -14388,7 +14391,7 @@
         <v>954</v>
       </c>
       <c r="G336" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H336" t="n">
         <v>2.0</v>
@@ -14414,7 +14417,7 @@
         <v>953</v>
       </c>
       <c r="G337" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H337" t="n">
         <v>0.0</v>
@@ -14440,7 +14443,7 @@
         <v>902</v>
       </c>
       <c r="G338" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H338" t="n">
         <v>5.0</v>
@@ -14466,7 +14469,7 @@
         <v>1004</v>
       </c>
       <c r="G339" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H339" t="n">
         <v>3.0</v>
@@ -14492,7 +14495,7 @@
         <v>901</v>
       </c>
       <c r="G340" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H340" t="n">
         <v>3.0</v>
@@ -14518,7 +14521,7 @@
         <v>956</v>
       </c>
       <c r="G341" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H341" t="n">
         <v>3.0</v>
@@ -14596,7 +14599,7 @@
         <v>862</v>
       </c>
       <c r="G344" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H344" t="n">
         <v>4.0</v>
@@ -14622,7 +14625,7 @@
         <v>938</v>
       </c>
       <c r="G345" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H345" t="n">
         <v>4.0</v>
@@ -14648,7 +14651,7 @@
         <v>1059</v>
       </c>
       <c r="G346" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H346" t="n">
         <v>3.0</v>
@@ -14674,7 +14677,7 @@
         <v>1055</v>
       </c>
       <c r="G347" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H347" t="n">
         <v>4.0</v>
@@ -14726,7 +14729,7 @@
         <v>1064</v>
       </c>
       <c r="G349" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H349" t="n">
         <v>2.0</v>
@@ -14778,7 +14781,7 @@
         <v>970</v>
       </c>
       <c r="G351" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H351" t="n">
         <v>0.0</v>
@@ -14804,7 +14807,7 @@
         <v>1083</v>
       </c>
       <c r="G352" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H352" t="n">
         <v>2.0</v>
@@ -14882,7 +14885,7 @@
         <v>842</v>
       </c>
       <c r="G355" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H355" t="n">
         <v>3.0</v>
@@ -14960,7 +14963,7 @@
         <v>850</v>
       </c>
       <c r="G358" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H358" t="n">
         <v>3.0</v>
@@ -14986,7 +14989,7 @@
         <v>889</v>
       </c>
       <c r="G359" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H359" t="n">
         <v>2.0</v>
@@ -15038,7 +15041,7 @@
         <v>856</v>
       </c>
       <c r="G361" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H361" t="n">
         <v>0.0</v>
@@ -15064,7 +15067,7 @@
         <v>904</v>
       </c>
       <c r="G362" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H362" t="n">
         <v>3.0</v>
@@ -15090,7 +15093,7 @@
         <v>1070</v>
       </c>
       <c r="G363" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H363" t="n">
         <v>3.0</v>
@@ -15187,17 +15190,17 @@
       <c r="D367" t="s">
         <v>1428</v>
       </c>
-      <c r="E367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H367" t="e">
-        <v>#N/A</v>
+      <c r="E367" t="s">
+        <v>833</v>
+      </c>
+      <c r="F367" t="s">
+        <v>934</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H367" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="368">
@@ -15220,7 +15223,7 @@
         <v>940</v>
       </c>
       <c r="G368" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H368" t="n">
         <v>1.0</v>
@@ -15246,7 +15249,7 @@
         <v>1005</v>
       </c>
       <c r="G369" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H369" t="n">
         <v>3.0</v>
@@ -15272,7 +15275,7 @@
         <v>837</v>
       </c>
       <c r="G370" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H370" t="n">
         <v>3.0</v>
@@ -15324,7 +15327,7 @@
         <v>1078</v>
       </c>
       <c r="G372" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H372" t="n">
         <v>5.0</v>
@@ -15350,7 +15353,7 @@
         <v>1064</v>
       </c>
       <c r="G373" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H373" t="n">
         <v>2.0</v>
@@ -15376,7 +15379,7 @@
         <v>844</v>
       </c>
       <c r="G374" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H374" t="n">
         <v>2.0</v>
@@ -15428,7 +15431,7 @@
         <v>1009</v>
       </c>
       <c r="G376" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H376" t="n">
         <v>2.0</v>
@@ -15480,7 +15483,7 @@
         <v>876</v>
       </c>
       <c r="G378" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H378" t="n">
         <v>1.0</v>
@@ -15506,7 +15509,7 @@
         <v>990</v>
       </c>
       <c r="G379" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H379" t="n">
         <v>2.0</v>
@@ -15558,7 +15561,7 @@
         <v>1018</v>
       </c>
       <c r="G381" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H381" t="n">
         <v>3.0</v>
@@ -15584,7 +15587,7 @@
         <v>842</v>
       </c>
       <c r="G382" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H382" t="n">
         <v>1.0</v>
@@ -15610,7 +15613,7 @@
         <v>822</v>
       </c>
       <c r="G383" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H383" t="n">
         <v>4.0</v>
@@ -15636,7 +15639,7 @@
         <v>914</v>
       </c>
       <c r="G384" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H384" t="n">
         <v>3.0</v>
@@ -15740,7 +15743,7 @@
         <v>1014</v>
       </c>
       <c r="G388" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H388" t="n">
         <v>0.0</v>
@@ -15766,7 +15769,7 @@
         <v>1040</v>
       </c>
       <c r="G389" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H389" t="n">
         <v>4.0</v>
@@ -15818,7 +15821,7 @@
         <v>860</v>
       </c>
       <c r="G391" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H391" t="n">
         <v>2.0</v>
@@ -15844,7 +15847,7 @@
         <v>1024</v>
       </c>
       <c r="G392" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H392" t="n">
         <v>2.0</v>
@@ -15863,17 +15866,17 @@
       <c r="D393" t="s">
         <v>1451</v>
       </c>
-      <c r="E393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H393" t="e">
-        <v>#N/A</v>
+      <c r="E393" t="s">
+        <v>983</v>
+      </c>
+      <c r="F393" t="s">
+        <v>928</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H393" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="394">
@@ -15889,17 +15892,17 @@
       <c r="D394" t="s">
         <v>1452</v>
       </c>
-      <c r="E394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H394" t="e">
-        <v>#N/A</v>
+      <c r="E394" t="s">
+        <v>984</v>
+      </c>
+      <c r="F394" t="s">
+        <v>866</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H394" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="395">
@@ -15915,17 +15918,17 @@
       <c r="D395" t="s">
         <v>1453</v>
       </c>
-      <c r="E395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H395" t="e">
-        <v>#N/A</v>
+      <c r="E395" t="s">
+        <v>929</v>
+      </c>
+      <c r="F395" t="s">
+        <v>832</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H395" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="396">
@@ -15941,17 +15944,17 @@
       <c r="D396" t="s">
         <v>1454</v>
       </c>
-      <c r="E396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H396" t="e">
-        <v>#N/A</v>
+      <c r="E396" t="s">
+        <v>931</v>
+      </c>
+      <c r="F396" t="s">
+        <v>910</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H396" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="397">
@@ -15967,17 +15970,17 @@
       <c r="D397" t="s">
         <v>1455</v>
       </c>
-      <c r="E397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H397" t="e">
-        <v>#N/A</v>
+      <c r="E397" t="s">
+        <v>867</v>
+      </c>
+      <c r="F397" t="s">
+        <v>834</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H397" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="398">
@@ -16000,7 +16003,7 @@
         <v>959</v>
       </c>
       <c r="G398" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H398" t="n">
         <v>2.0</v>
@@ -16052,7 +16055,7 @@
         <v>960</v>
       </c>
       <c r="G400" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H400" t="n">
         <v>0.0</v>
@@ -16078,7 +16081,7 @@
         <v>960</v>
       </c>
       <c r="G401" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H401" t="n">
         <v>3.0</v>
@@ -16104,7 +16107,7 @@
         <v>1084</v>
       </c>
       <c r="G402" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H402" t="n">
         <v>5.0</v>
@@ -16130,7 +16133,7 @@
         <v>1083</v>
       </c>
       <c r="G403" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H403" t="n">
         <v>0.0</v>
@@ -16182,7 +16185,7 @@
         <v>843</v>
       </c>
       <c r="G405" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H405" t="n">
         <v>3.0</v>
@@ -16208,7 +16211,7 @@
         <v>1044</v>
       </c>
       <c r="G406" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H406" t="n">
         <v>0.0</v>
@@ -16286,7 +16289,7 @@
         <v>1011</v>
       </c>
       <c r="G409" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H409" t="n">
         <v>0.0</v>
@@ -16312,7 +16315,7 @@
         <v>1033</v>
       </c>
       <c r="G410" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="H410" t="n">
         <v>6.0</v>
@@ -16364,7 +16367,7 @@
         <v>1050</v>
       </c>
       <c r="G412" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H412" t="n">
         <v>7.0</v>
@@ -16390,7 +16393,7 @@
         <v>943</v>
       </c>
       <c r="G413" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H413" t="n">
         <v>3.0</v>
@@ -16416,7 +16419,7 @@
         <v>849</v>
       </c>
       <c r="G414" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H414" t="n">
         <v>2.0</v>
@@ -16442,7 +16445,7 @@
         <v>915</v>
       </c>
       <c r="G415" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H415" t="n">
         <v>0.0</v>
@@ -16546,7 +16549,7 @@
         <v>1034</v>
       </c>
       <c r="G419" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H419" t="n">
         <v>3.0</v>
@@ -16572,7 +16575,7 @@
         <v>891</v>
       </c>
       <c r="G420" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H420" t="n">
         <v>4.0</v>
@@ -16598,7 +16601,7 @@
         <v>968</v>
       </c>
       <c r="G421" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H421" t="n">
         <v>5.0</v>
@@ -16650,7 +16653,7 @@
         <v>955</v>
       </c>
       <c r="G423" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H423" t="n">
         <v>0.0</v>
@@ -16676,7 +16679,7 @@
         <v>1003</v>
       </c>
       <c r="G424" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H424" t="n">
         <v>1.0</v>
@@ -16754,7 +16757,7 @@
         <v>1041</v>
       </c>
       <c r="G427" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H427" t="n">
         <v>3.0</v>
@@ -16799,17 +16802,17 @@
       <c r="D429" t="s">
         <v>1486</v>
       </c>
-      <c r="E429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H429" t="e">
-        <v>#N/A</v>
+      <c r="E429" t="s">
+        <v>830</v>
+      </c>
+      <c r="F429" t="s">
+        <v>831</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H429" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="430">
@@ -16825,17 +16828,17 @@
       <c r="D430" t="s">
         <v>1487</v>
       </c>
-      <c r="E430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G430" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H430" t="e">
-        <v>#N/A</v>
+      <c r="E430" t="s">
+        <v>927</v>
+      </c>
+      <c r="F430" t="s">
+        <v>865</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H430" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="431">
@@ -16851,17 +16854,17 @@
       <c r="D431" t="s">
         <v>1488</v>
       </c>
-      <c r="E431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G431" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H431" t="e">
-        <v>#N/A</v>
+      <c r="E431" t="s">
+        <v>985</v>
+      </c>
+      <c r="F431" t="s">
+        <v>819</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H431" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="432">
@@ -16877,17 +16880,17 @@
       <c r="D432" t="s">
         <v>1489</v>
       </c>
-      <c r="E432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G432" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H432" t="e">
-        <v>#N/A</v>
+      <c r="E432" t="s">
+        <v>986</v>
+      </c>
+      <c r="F432" t="s">
+        <v>833</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H432" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="433">
@@ -16903,17 +16906,17 @@
       <c r="D433" t="s">
         <v>1490</v>
       </c>
-      <c r="E433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G433" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H433" t="e">
-        <v>#N/A</v>
+      <c r="E433" t="s">
+        <v>932</v>
+      </c>
+      <c r="F433" t="s">
+        <v>958</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H433" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="434">
@@ -16929,17 +16932,17 @@
       <c r="D434" t="s">
         <v>1491</v>
       </c>
-      <c r="E434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G434" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H434" t="e">
-        <v>#N/A</v>
+      <c r="E434" t="s">
+        <v>868</v>
+      </c>
+      <c r="F434" t="s">
+        <v>909</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H434" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="435">
@@ -16955,17 +16958,17 @@
       <c r="D435" t="s">
         <v>1492</v>
       </c>
-      <c r="E435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G435" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H435" t="e">
-        <v>#N/A</v>
+      <c r="E435" t="s">
+        <v>933</v>
+      </c>
+      <c r="F435" t="s">
+        <v>957</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H435" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="436">
@@ -16981,17 +16984,17 @@
       <c r="D436" t="s">
         <v>1493</v>
       </c>
-      <c r="E436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G436" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H436" t="e">
-        <v>#N/A</v>
+      <c r="E436" t="s">
+        <v>925</v>
+      </c>
+      <c r="F436" t="s">
+        <v>870</v>
+      </c>
+      <c r="G436" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="437">
@@ -17007,17 +17010,17 @@
       <c r="D437" t="s">
         <v>1494</v>
       </c>
-      <c r="E437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G437" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H437" t="e">
-        <v>#N/A</v>
+      <c r="E437" t="s">
+        <v>869</v>
+      </c>
+      <c r="F437" t="s">
+        <v>871</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H437" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="438">
@@ -17040,7 +17043,7 @@
         <v>987</v>
       </c>
       <c r="G438" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H438" t="n">
         <v>4.0</v>
@@ -17092,7 +17095,7 @@
         <v>1079</v>
       </c>
       <c r="G440" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H440" t="n">
         <v>5.0</v>
@@ -17144,7 +17147,7 @@
         <v>878</v>
       </c>
       <c r="G442" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H442" t="n">
         <v>4.0</v>
@@ -17222,7 +17225,7 @@
         <v>961</v>
       </c>
       <c r="G445" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H445" t="n">
         <v>4.0</v>
@@ -17326,7 +17329,7 @@
         <v>975</v>
       </c>
       <c r="G449" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H449" t="n">
         <v>1.0</v>
@@ -17352,7 +17355,7 @@
         <v>975</v>
       </c>
       <c r="G450" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H450" t="n">
         <v>1.0</v>
@@ -17404,7 +17407,7 @@
         <v>1047</v>
       </c>
       <c r="G452" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="H452" t="n">
         <v>6.0</v>
@@ -17430,7 +17433,7 @@
         <v>1049</v>
       </c>
       <c r="G453" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H453" t="n">
         <v>3.0</v>
@@ -17456,7 +17459,7 @@
         <v>1046</v>
       </c>
       <c r="G454" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H454" t="n">
         <v>3.0</v>
@@ -17482,7 +17485,7 @@
         <v>992</v>
       </c>
       <c r="G455" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H455" t="n">
         <v>3.0</v>
@@ -17534,7 +17537,7 @@
         <v>846</v>
       </c>
       <c r="G457" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H457" t="n">
         <v>4.0</v>
@@ -17560,7 +17563,7 @@
         <v>939</v>
       </c>
       <c r="G458" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H458" t="n">
         <v>1.0</v>
@@ -17586,7 +17589,7 @@
         <v>1073</v>
       </c>
       <c r="G459" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H459" t="n">
         <v>1.0</v>
@@ -17638,7 +17641,7 @@
         <v>1074</v>
       </c>
       <c r="G461" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H461" t="n">
         <v>6.0</v>
@@ -17690,7 +17693,7 @@
         <v>1030</v>
       </c>
       <c r="G463" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H463" t="n">
         <v>5.0</v>
@@ -17716,7 +17719,7 @@
         <v>1031</v>
       </c>
       <c r="G464" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H464" t="n">
         <v>5.0</v>
@@ -17742,7 +17745,7 @@
         <v>847</v>
       </c>
       <c r="G465" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H465" t="n">
         <v>0.0</v>
@@ -17768,7 +17771,7 @@
         <v>886</v>
       </c>
       <c r="G466" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H466" t="n">
         <v>2.0</v>
@@ -17794,7 +17797,7 @@
         <v>823</v>
       </c>
       <c r="G467" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H467" t="n">
         <v>2.0</v>
@@ -17872,7 +17875,7 @@
         <v>981</v>
       </c>
       <c r="G470" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H470" t="n">
         <v>5.0</v>
@@ -17924,7 +17927,7 @@
         <v>893</v>
       </c>
       <c r="G472" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H472" t="n">
         <v>3.0</v>
@@ -17950,7 +17953,7 @@
         <v>947</v>
       </c>
       <c r="G473" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H473" t="n">
         <v>1.0</v>
@@ -17976,7 +17979,7 @@
         <v>1035</v>
       </c>
       <c r="G474" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H474" t="n">
         <v>2.0</v>
@@ -18028,7 +18031,7 @@
         <v>1004</v>
       </c>
       <c r="G476" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H476" t="n">
         <v>3.0</v>
@@ -18054,7 +18057,7 @@
         <v>921</v>
       </c>
       <c r="G477" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H477" t="n">
         <v>2.0</v>
@@ -18106,7 +18109,7 @@
         <v>953</v>
       </c>
       <c r="G479" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H479" t="n">
         <v>2.0</v>
@@ -18132,7 +18135,7 @@
         <v>1037</v>
       </c>
       <c r="G480" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H480" t="n">
         <v>4.0</v>
@@ -18236,7 +18239,7 @@
         <v>1013</v>
       </c>
       <c r="G484" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H484" t="n">
         <v>2.0</v>
@@ -18262,7 +18265,7 @@
         <v>828</v>
       </c>
       <c r="G485" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H485" t="n">
         <v>2.0</v>
@@ -18281,17 +18284,17 @@
       <c r="D486" t="s">
         <v>1537</v>
       </c>
-      <c r="E486" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F486" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G486" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H486" t="e">
-        <v>#N/A</v>
+      <c r="E486" t="s">
+        <v>930</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H486" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="487">
@@ -18314,7 +18317,7 @@
         <v>839</v>
       </c>
       <c r="G487" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H487" t="n">
         <v>1.0</v>
@@ -18340,7 +18343,7 @@
         <v>882</v>
       </c>
       <c r="G488" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H488" t="n">
         <v>0.0</v>
@@ -18366,7 +18369,7 @@
         <v>978</v>
       </c>
       <c r="G489" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H489" t="n">
         <v>4.0</v>
@@ -18392,7 +18395,7 @@
         <v>1012</v>
       </c>
       <c r="G490" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H490" t="n">
         <v>1.0</v>
@@ -18418,7 +18421,7 @@
         <v>824</v>
       </c>
       <c r="G491" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H491" t="n">
         <v>1.0</v>
@@ -18444,7 +18447,7 @@
         <v>852</v>
       </c>
       <c r="G492" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H492" t="n">
         <v>3.0</v>
@@ -18470,7 +18473,7 @@
         <v>967</v>
       </c>
       <c r="G493" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H493" t="n">
         <v>1.0</v>
@@ -18522,7 +18525,7 @@
         <v>922</v>
       </c>
       <c r="G495" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="H495" t="n">
         <v>7.0</v>
@@ -18574,7 +18577,7 @@
         <v>923</v>
       </c>
       <c r="G497" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H497" t="n">
         <v>8.0</v>
@@ -18600,7 +18603,7 @@
         <v>1007</v>
       </c>
       <c r="G498" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H498" t="n">
         <v>6.0</v>
@@ -18626,7 +18629,7 @@
         <v>1022</v>
       </c>
       <c r="G499" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H499" t="n">
         <v>4.0</v>
@@ -18645,17 +18648,17 @@
       <c r="D500" t="s">
         <v>1550</v>
       </c>
-      <c r="E500" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F500" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G500" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H500" t="e">
-        <v>#N/A</v>
+      <c r="E500" t="s">
+        <v>934</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H500" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="501">
@@ -18678,7 +18681,7 @@
         <v>992</v>
       </c>
       <c r="G501" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H501" t="n">
         <v>4.0</v>
@@ -18697,17 +18700,17 @@
       <c r="D502" t="s">
         <v>1552</v>
       </c>
-      <c r="E502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G502" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H502" t="e">
-        <v>#N/A</v>
+      <c r="E502" t="s">
+        <v>925</v>
+      </c>
+      <c r="F502" t="s">
+        <v>833</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="503">
@@ -18730,7 +18733,7 @@
         <v>1011</v>
       </c>
       <c r="G503" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H503" t="n">
         <v>3.0</v>
@@ -18756,7 +18759,7 @@
         <v>883</v>
       </c>
       <c r="G504" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H504" t="n">
         <v>3.0</v>
@@ -18912,7 +18915,7 @@
         <v>994</v>
       </c>
       <c r="G510" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H510" t="n">
         <v>3.0</v>
@@ -19016,7 +19019,7 @@
         <v>922</v>
       </c>
       <c r="G514" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H514" t="n">
         <v>5.0</v>
@@ -19042,7 +19045,7 @@
         <v>1070</v>
       </c>
       <c r="G515" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H515" t="n">
         <v>0.0</v>
@@ -19068,7 +19071,7 @@
         <v>898</v>
       </c>
       <c r="G516" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H516" t="n">
         <v>5.0</v>
@@ -19094,7 +19097,7 @@
         <v>906</v>
       </c>
       <c r="G517" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H517" t="n">
         <v>2.0</v>
@@ -19172,7 +19175,7 @@
         <v>923</v>
       </c>
       <c r="G520" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H520" t="n">
         <v>1.0</v>
@@ -19302,7 +19305,7 @@
         <v>952</v>
       </c>
       <c r="G525" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H525" t="n">
         <v>3.0</v>
@@ -19328,7 +19331,7 @@
         <v>827</v>
       </c>
       <c r="G526" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H526" t="n">
         <v>3.0</v>
@@ -19354,7 +19357,7 @@
         <v>907</v>
       </c>
       <c r="G527" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H527" t="n">
         <v>4.0</v>
@@ -19432,7 +19435,7 @@
         <v>818</v>
       </c>
       <c r="G530" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H530" t="n">
         <v>3.0</v>
@@ -19458,7 +19461,7 @@
         <v>936</v>
       </c>
       <c r="G531" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H531" t="n">
         <v>3.0</v>
@@ -19484,7 +19487,7 @@
         <v>1016</v>
       </c>
       <c r="G532" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H532" t="n">
         <v>1.0</v>
@@ -19510,7 +19513,7 @@
         <v>974</v>
       </c>
       <c r="G533" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H533" t="n">
         <v>3.0</v>
@@ -19588,7 +19591,7 @@
         <v>991</v>
       </c>
       <c r="G536" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H536" t="n">
         <v>5.0</v>
@@ -19614,7 +19617,7 @@
         <v>1056</v>
       </c>
       <c r="G537" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H537" t="n">
         <v>2.0</v>
@@ -19640,7 +19643,7 @@
         <v>1056</v>
       </c>
       <c r="G538" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H538" t="n">
         <v>4.0</v>
@@ -19718,7 +19721,7 @@
         <v>851</v>
       </c>
       <c r="G541" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H541" t="n">
         <v>4.0</v>
@@ -19744,7 +19747,7 @@
         <v>965</v>
       </c>
       <c r="G542" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H542" t="n">
         <v>3.0</v>
@@ -19796,7 +19799,7 @@
         <v>861</v>
       </c>
       <c r="G544" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H544" t="n">
         <v>0.0</v>
@@ -19822,7 +19825,7 @@
         <v>826</v>
       </c>
       <c r="G545" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H545" t="n">
         <v>1.0</v>
@@ -19848,7 +19851,7 @@
         <v>826</v>
       </c>
       <c r="G546" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H546" t="n">
         <v>4.0</v>
@@ -19900,7 +19903,7 @@
         <v>982</v>
       </c>
       <c r="G548" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="H548" t="n">
         <v>6.0</v>
@@ -19926,7 +19929,7 @@
         <v>829</v>
       </c>
       <c r="G549" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H549" t="n">
         <v>3.0</v>
@@ -19952,7 +19955,7 @@
         <v>829</v>
       </c>
       <c r="G550" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H550" t="n">
         <v>3.0</v>
@@ -19971,17 +19974,17 @@
       <c r="D551" t="s">
         <v>1590</v>
       </c>
-      <c r="E551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H551" t="e">
-        <v>#N/A</v>
+      <c r="E551" t="s">
+        <v>928</v>
+      </c>
+      <c r="F551" t="s">
+        <v>865</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H551" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="552">
@@ -19997,17 +20000,17 @@
       <c r="D552" t="s">
         <v>1591</v>
       </c>
-      <c r="E552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H552" t="e">
-        <v>#N/A</v>
+      <c r="E552" t="s">
+        <v>832</v>
+      </c>
+      <c r="F552" t="s">
+        <v>830</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="553">
@@ -20023,17 +20026,17 @@
       <c r="D553" t="s">
         <v>1592</v>
       </c>
-      <c r="E553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H553" t="e">
-        <v>#N/A</v>
+      <c r="E553" t="s">
+        <v>929</v>
+      </c>
+      <c r="F553" t="s">
+        <v>983</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H553" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="554">
@@ -20049,17 +20052,17 @@
       <c r="D554" t="s">
         <v>1593</v>
       </c>
-      <c r="E554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H554" t="e">
-        <v>#N/A</v>
+      <c r="E554" t="s">
+        <v>957</v>
+      </c>
+      <c r="F554" t="s">
+        <v>934</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="555">
@@ -20075,17 +20078,17 @@
       <c r="D555" t="s">
         <v>1594</v>
       </c>
-      <c r="E555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H555" t="e">
-        <v>#N/A</v>
+      <c r="E555" t="s">
+        <v>833</v>
+      </c>
+      <c r="F555" t="s">
+        <v>933</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="556">
@@ -20108,7 +20111,7 @@
         <v>879</v>
       </c>
       <c r="G556" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H556" t="n">
         <v>4.0</v>
@@ -20134,7 +20137,7 @@
         <v>972</v>
       </c>
       <c r="G557" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H557" t="n">
         <v>2.0</v>
@@ -20160,7 +20163,7 @@
         <v>1010</v>
       </c>
       <c r="G558" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H558" t="n">
         <v>1.0</v>
@@ -20238,7 +20241,7 @@
         <v>970</v>
       </c>
       <c r="G561" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H561" t="n">
         <v>5.0</v>
@@ -20264,7 +20267,7 @@
         <v>1044</v>
       </c>
       <c r="G562" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H562" t="n">
         <v>4.0</v>
@@ -20290,7 +20293,7 @@
         <v>1084</v>
       </c>
       <c r="G563" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H563" t="n">
         <v>0.0</v>
@@ -20316,7 +20319,7 @@
         <v>843</v>
       </c>
       <c r="G564" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H564" t="n">
         <v>4.0</v>
@@ -20420,7 +20423,7 @@
         <v>1059</v>
       </c>
       <c r="G568" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H568" t="n">
         <v>1.0</v>
@@ -20446,7 +20449,7 @@
         <v>1028</v>
       </c>
       <c r="G569" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H569" t="n">
         <v>3.0</v>
@@ -20472,7 +20475,7 @@
         <v>941</v>
       </c>
       <c r="G570" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H570" t="n">
         <v>0.0</v>
@@ -20524,7 +20527,7 @@
         <v>1069</v>
       </c>
       <c r="G572" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H572" t="n">
         <v>4.0</v>
@@ -20550,7 +20553,7 @@
         <v>995</v>
       </c>
       <c r="G573" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H573" t="n">
         <v>5.0</v>
@@ -20576,7 +20579,7 @@
         <v>848</v>
       </c>
       <c r="G574" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H574" t="n">
         <v>3.0</v>
@@ -20602,7 +20605,7 @@
         <v>914</v>
       </c>
       <c r="G575" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H575" t="n">
         <v>4.0</v>
@@ -20654,7 +20657,7 @@
         <v>997</v>
       </c>
       <c r="G577" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H577" t="n">
         <v>1.0</v>
@@ -20706,7 +20709,7 @@
         <v>966</v>
       </c>
       <c r="G579" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H579" t="n">
         <v>2.0</v>
@@ -20758,7 +20761,7 @@
         <v>1034</v>
       </c>
       <c r="G581" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H581" t="n">
         <v>1.0</v>
@@ -20810,7 +20813,7 @@
         <v>999</v>
       </c>
       <c r="G583" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H583" t="n">
         <v>3.0</v>
@@ -20836,7 +20839,7 @@
         <v>896</v>
       </c>
       <c r="G584" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H584" t="n">
         <v>3.0</v>
@@ -20940,7 +20943,7 @@
         <v>953</v>
       </c>
       <c r="G588" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H588" t="n">
         <v>0.0</v>
@@ -21096,7 +21099,7 @@
         <v>924</v>
       </c>
       <c r="G594" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H594" t="n">
         <v>1.0</v>
@@ -21115,17 +21118,17 @@
       <c r="D595" t="s">
         <v>1631</v>
       </c>
-      <c r="E595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H595" t="e">
-        <v>#N/A</v>
+      <c r="E595" t="s">
+        <v>985</v>
+      </c>
+      <c r="F595" t="s">
+        <v>984</v>
+      </c>
+      <c r="G595" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H595" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="596">
@@ -21141,17 +21144,17 @@
       <c r="D596" t="s">
         <v>1632</v>
       </c>
-      <c r="E596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H596" t="e">
-        <v>#N/A</v>
+      <c r="E596" t="s">
+        <v>831</v>
+      </c>
+      <c r="F596" t="s">
+        <v>866</v>
+      </c>
+      <c r="G596" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H596" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="597">
@@ -21167,17 +21170,17 @@
       <c r="D597" t="s">
         <v>1633</v>
       </c>
-      <c r="E597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H597" t="e">
-        <v>#N/A</v>
+      <c r="E597" t="s">
+        <v>819</v>
+      </c>
+      <c r="F597" t="s">
+        <v>927</v>
+      </c>
+      <c r="G597" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H597" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="598">
@@ -21193,17 +21196,17 @@
       <c r="D598" t="s">
         <v>1634</v>
       </c>
-      <c r="E598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H598" t="e">
-        <v>#N/A</v>
+      <c r="E598" t="s">
+        <v>910</v>
+      </c>
+      <c r="F598" t="s">
+        <v>869</v>
+      </c>
+      <c r="G598" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="599">
@@ -21219,17 +21222,17 @@
       <c r="D599" t="s">
         <v>1635</v>
       </c>
-      <c r="E599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H599" t="e">
-        <v>#N/A</v>
+      <c r="E599" t="s">
+        <v>834</v>
+      </c>
+      <c r="F599" t="s">
+        <v>925</v>
+      </c>
+      <c r="G599" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H599" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="600">
@@ -21245,17 +21248,17 @@
       <c r="D600" t="s">
         <v>1636</v>
       </c>
-      <c r="E600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H600" t="e">
-        <v>#N/A</v>
+      <c r="E600" t="s">
+        <v>870</v>
+      </c>
+      <c r="F600" t="s">
+        <v>932</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H600" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="601">
@@ -21271,17 +21274,17 @@
       <c r="D601" t="s">
         <v>1637</v>
       </c>
-      <c r="E601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H601" t="e">
-        <v>#N/A</v>
+      <c r="E601" t="s">
+        <v>958</v>
+      </c>
+      <c r="F601" t="s">
+        <v>868</v>
+      </c>
+      <c r="G601" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H601" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="602">
@@ -21297,17 +21300,17 @@
       <c r="D602" t="s">
         <v>1638</v>
       </c>
-      <c r="E602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H602" t="e">
-        <v>#N/A</v>
+      <c r="E602" t="s">
+        <v>871</v>
+      </c>
+      <c r="F602" t="s">
+        <v>930</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H602" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="603">
@@ -21356,7 +21359,7 @@
         <v>911</v>
       </c>
       <c r="G604" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H604" t="n">
         <v>2.0</v>
@@ -21382,7 +21385,7 @@
         <v>935</v>
       </c>
       <c r="G605" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H605" t="n">
         <v>2.0</v>
@@ -21408,7 +21411,7 @@
         <v>881</v>
       </c>
       <c r="G606" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H606" t="n">
         <v>6.0</v>
@@ -21434,7 +21437,7 @@
         <v>880</v>
       </c>
       <c r="G607" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H607" t="n">
         <v>4.0</v>
@@ -21512,7 +21515,7 @@
         <v>926</v>
       </c>
       <c r="G610" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H610" t="n">
         <v>0.0</v>
@@ -21538,7 +21541,7 @@
         <v>882</v>
       </c>
       <c r="G611" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H611" t="n">
         <v>0.0</v>
@@ -21564,7 +21567,7 @@
         <v>993</v>
       </c>
       <c r="G612" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H612" t="n">
         <v>2.0</v>
@@ -21590,7 +21593,7 @@
         <v>913</v>
       </c>
       <c r="G613" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H613" t="n">
         <v>2.0</v>
@@ -21616,7 +21619,7 @@
         <v>1060</v>
       </c>
       <c r="G614" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H614" t="n">
         <v>3.0</v>
@@ -21642,7 +21645,7 @@
         <v>1066</v>
       </c>
       <c r="G615" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H615" t="n">
         <v>3.0</v>
@@ -21720,7 +21723,7 @@
         <v>1067</v>
       </c>
       <c r="G618" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H618" t="n">
         <v>5.0</v>
@@ -21772,7 +21775,7 @@
         <v>963</v>
       </c>
       <c r="G620" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H620" t="n">
         <v>2.0</v>
@@ -21798,7 +21801,7 @@
         <v>850</v>
       </c>
       <c r="G621" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H621" t="n">
         <v>2.0</v>
@@ -21824,7 +21827,7 @@
         <v>980</v>
       </c>
       <c r="G622" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H622" t="n">
         <v>2.0</v>
@@ -21850,7 +21853,7 @@
         <v>946</v>
       </c>
       <c r="G623" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H623" t="n">
         <v>3.0</v>
@@ -21928,7 +21931,7 @@
         <v>894</v>
       </c>
       <c r="G626" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H626" t="n">
         <v>4.0</v>
@@ -21954,7 +21957,7 @@
         <v>1052</v>
       </c>
       <c r="G627" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H627" t="n">
         <v>3.0</v>
@@ -21980,7 +21983,7 @@
         <v>893</v>
       </c>
       <c r="G628" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H628" t="n">
         <v>3.0</v>
@@ -22032,7 +22035,7 @@
         <v>949</v>
       </c>
       <c r="G630" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H630" t="n">
         <v>4.0</v>
@@ -22058,7 +22061,7 @@
         <v>857</v>
       </c>
       <c r="G631" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H631" t="n">
         <v>5.0</v>
@@ -22110,7 +22113,7 @@
         <v>969</v>
       </c>
       <c r="G633" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H633" t="n">
         <v>4.0</v>
@@ -22136,7 +22139,7 @@
         <v>951</v>
       </c>
       <c r="G634" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H634" t="n">
         <v>5.0</v>
@@ -22240,7 +22243,7 @@
         <v>900</v>
       </c>
       <c r="G638" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H638" t="n">
         <v>4.0</v>
@@ -22266,7 +22269,7 @@
         <v>1038</v>
       </c>
       <c r="G639" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H639" t="n">
         <v>5.0</v>
@@ -22292,7 +22295,7 @@
         <v>1038</v>
       </c>
       <c r="G640" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H640" t="n">
         <v>4.0</v>
@@ -22318,7 +22321,7 @@
         <v>902</v>
       </c>
       <c r="G641" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H641" t="n">
         <v>3.0</v>
@@ -22344,7 +22347,7 @@
         <v>904</v>
       </c>
       <c r="G642" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H642" t="n">
         <v>3.0</v>
@@ -22389,17 +22392,17 @@
       <c r="D644" t="s">
         <v>1679</v>
       </c>
-      <c r="E644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H644" t="e">
-        <v>#N/A</v>
+      <c r="E644" t="s">
+        <v>909</v>
+      </c>
+      <c r="F644" t="s">
+        <v>986</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H644" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="645">
@@ -22422,7 +22425,7 @@
         <v>937</v>
       </c>
       <c r="G645" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H645" t="n">
         <v>4.0</v>
@@ -22448,7 +22451,7 @@
         <v>840</v>
       </c>
       <c r="G646" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H646" t="n">
         <v>1.0</v>
@@ -22500,7 +22503,7 @@
         <v>846</v>
       </c>
       <c r="G648" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H648" t="n">
         <v>2.0</v>
@@ -22578,7 +22581,7 @@
         <v>855</v>
       </c>
       <c r="G651" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H651" t="n">
         <v>0.0</v>
@@ -22630,7 +22633,7 @@
         <v>892</v>
       </c>
       <c r="G653" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H653" t="n">
         <v>1.0</v>
@@ -22649,17 +22652,17 @@
       <c r="D654" t="s">
         <v>1689</v>
       </c>
-      <c r="E654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H654" t="e">
-        <v>#N/A</v>
+      <c r="E654" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F654" t="s">
+        <v>931</v>
+      </c>
+      <c r="G654" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="655">
@@ -22675,17 +22678,17 @@
       <c r="D655" t="s">
         <v>1690</v>
       </c>
-      <c r="E655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H655" t="e">
-        <v>#N/A</v>
+      <c r="E655" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F655" t="s">
+        <v>867</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H655" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="656">
@@ -22760,7 +22763,7 @@
         <v>1039</v>
       </c>
       <c r="G658" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H658" t="n">
         <v>2.0</v>
@@ -22786,7 +22789,7 @@
         <v>1053</v>
       </c>
       <c r="G659" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H659" t="n">
         <v>0.0</v>
@@ -22812,7 +22815,7 @@
         <v>1041</v>
       </c>
       <c r="G660" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H660" t="n">
         <v>3.0</v>
@@ -22890,7 +22893,7 @@
         <v>1013</v>
       </c>
       <c r="G663" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H663" t="n">
         <v>2.0</v>
@@ -22916,7 +22919,7 @@
         <v>1023</v>
       </c>
       <c r="G664" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H664" t="n">
         <v>2.0</v>
@@ -22994,7 +22997,7 @@
         <v>1048</v>
       </c>
       <c r="G667" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H667" t="n">
         <v>6.0</v>
@@ -23020,7 +23023,7 @@
         <v>1064</v>
       </c>
       <c r="G668" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H668" t="n">
         <v>2.0</v>
@@ -23046,7 +23049,7 @@
         <v>1043</v>
       </c>
       <c r="G669" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H669" t="n">
         <v>4.0</v>
@@ -23072,7 +23075,7 @@
         <v>1055</v>
       </c>
       <c r="G670" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H670" t="n">
         <v>4.0</v>
@@ -23098,7 +23101,7 @@
         <v>1065</v>
       </c>
       <c r="G671" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H671" t="n">
         <v>4.0</v>
@@ -23124,7 +23127,7 @@
         <v>1057</v>
       </c>
       <c r="G672" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H672" t="n">
         <v>1.0</v>
@@ -23202,7 +23205,7 @@
         <v>842</v>
       </c>
       <c r="G675" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H675" t="n">
         <v>4.0</v>
@@ -23228,7 +23231,7 @@
         <v>1025</v>
       </c>
       <c r="G676" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H676" t="n">
         <v>4.0</v>
@@ -23306,7 +23309,7 @@
         <v>828</v>
       </c>
       <c r="G679" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H679" t="n">
         <v>2.0</v>
@@ -23332,7 +23335,7 @@
         <v>828</v>
       </c>
       <c r="G680" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H680" t="n">
         <v>2.0</v>
@@ -23410,7 +23413,7 @@
         <v>981</v>
       </c>
       <c r="G683" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H683" t="n">
         <v>3.0</v>
@@ -23462,7 +23465,7 @@
         <v>1040</v>
       </c>
       <c r="G685" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H685" t="n">
         <v>5.0</v>
@@ -23488,7 +23491,7 @@
         <v>1040</v>
       </c>
       <c r="G686" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H686" t="n">
         <v>2.0</v>
@@ -23592,7 +23595,7 @@
         <v>854</v>
       </c>
       <c r="G690" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H690" t="n">
         <v>2.0</v>
@@ -23618,7 +23621,7 @@
         <v>876</v>
       </c>
       <c r="G691" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H691" t="n">
         <v>3.0</v>
@@ -23670,7 +23673,7 @@
         <v>847</v>
       </c>
       <c r="G693" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H693" t="n">
         <v>2.0</v>
@@ -23722,7 +23725,7 @@
         <v>915</v>
       </c>
       <c r="G695" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H695" t="n">
         <v>3.0</v>
@@ -23852,7 +23855,7 @@
         <v>854</v>
       </c>
       <c r="G700" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H700" t="n">
         <v>2.0</v>
@@ -23878,7 +23881,7 @@
         <v>951</v>
       </c>
       <c r="G701" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H701" t="n">
         <v>5.0</v>
@@ -23930,7 +23933,7 @@
         <v>826</v>
       </c>
       <c r="G703" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H703" t="n">
         <v>1.0</v>
@@ -23949,17 +23952,17 @@
       <c r="D704" t="s">
         <v>1731</v>
       </c>
-      <c r="E704" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F704" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G704" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H704" t="e">
-        <v>#N/A</v>
+      <c r="E704" t="s">
+        <v>865</v>
+      </c>
+      <c r="F704" t="s">
+        <v>832</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H704" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="705">
@@ -23975,17 +23978,17 @@
       <c r="D705" t="s">
         <v>1732</v>
       </c>
-      <c r="E705" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F705" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G705" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H705" t="e">
-        <v>#N/A</v>
+      <c r="E705" t="s">
+        <v>830</v>
+      </c>
+      <c r="F705" t="s">
+        <v>929</v>
+      </c>
+      <c r="G705" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H705" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="706">
@@ -24001,17 +24004,17 @@
       <c r="D706" t="s">
         <v>1733</v>
       </c>
-      <c r="E706" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F706" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G706" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H706" t="e">
-        <v>#N/A</v>
+      <c r="E706" t="s">
+        <v>984</v>
+      </c>
+      <c r="F706" t="s">
+        <v>928</v>
+      </c>
+      <c r="G706" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H706" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="707">
@@ -24086,7 +24089,7 @@
         <v>820</v>
       </c>
       <c r="G709" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H709" t="n">
         <v>3.0</v>
@@ -24138,7 +24141,7 @@
         <v>1083</v>
       </c>
       <c r="G711" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H711" t="n">
         <v>2.0</v>
@@ -24164,7 +24167,7 @@
         <v>1084</v>
       </c>
       <c r="G712" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H712" t="n">
         <v>1.0</v>
@@ -24190,7 +24193,7 @@
         <v>1046</v>
       </c>
       <c r="G713" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H713" t="n">
         <v>1.0</v>
@@ -24216,7 +24219,7 @@
         <v>1047</v>
       </c>
       <c r="G714" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H714" t="n">
         <v>5.0</v>
@@ -24242,7 +24245,7 @@
         <v>1065</v>
       </c>
       <c r="G715" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H715" t="n">
         <v>2.0</v>
@@ -24268,7 +24271,7 @@
         <v>971</v>
       </c>
       <c r="G716" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H716" t="n">
         <v>4.0</v>
@@ -24320,7 +24323,7 @@
         <v>912</v>
       </c>
       <c r="G718" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H718" t="n">
         <v>4.0</v>
@@ -24346,7 +24349,7 @@
         <v>844</v>
       </c>
       <c r="G719" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H719" t="n">
         <v>3.0</v>
@@ -24398,7 +24401,7 @@
         <v>1074</v>
       </c>
       <c r="G721" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H721" t="n">
         <v>4.0</v>
@@ -24450,7 +24453,7 @@
         <v>996</v>
       </c>
       <c r="G723" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H723" t="n">
         <v>4.0</v>
@@ -24502,7 +24505,7 @@
         <v>884</v>
       </c>
       <c r="G725" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H725" t="n">
         <v>1.0</v>
@@ -24528,7 +24531,7 @@
         <v>823</v>
       </c>
       <c r="G726" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H726" t="n">
         <v>2.0</v>
@@ -24580,7 +24583,7 @@
         <v>918</v>
       </c>
       <c r="G728" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H728" t="n">
         <v>2.0</v>
@@ -24606,7 +24609,7 @@
         <v>855</v>
       </c>
       <c r="G729" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H729" t="n">
         <v>2.0</v>
@@ -24658,7 +24661,7 @@
         <v>1000</v>
       </c>
       <c r="G731" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H731" t="n">
         <v>6.0</v>
@@ -24684,7 +24687,7 @@
         <v>895</v>
       </c>
       <c r="G732" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H732" t="n">
         <v>5.0</v>
@@ -24710,7 +24713,7 @@
         <v>969</v>
       </c>
       <c r="G733" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="H733" t="n">
         <v>6.0</v>
@@ -24736,7 +24739,7 @@
         <v>969</v>
       </c>
       <c r="G734" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H734" t="n">
         <v>4.0</v>
@@ -24788,7 +24791,7 @@
         <v>921</v>
       </c>
       <c r="G736" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H736" t="n">
         <v>0.0</v>
@@ -24814,7 +24817,7 @@
         <v>901</v>
       </c>
       <c r="G737" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H737" t="n">
         <v>4.0</v>
@@ -24840,7 +24843,7 @@
         <v>901</v>
       </c>
       <c r="G738" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H738" t="n">
         <v>2.0</v>
@@ -24866,7 +24869,7 @@
         <v>898</v>
       </c>
       <c r="G739" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H739" t="n">
         <v>2.0</v>
@@ -24892,7 +24895,7 @@
         <v>898</v>
       </c>
       <c r="G740" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H740" t="n">
         <v>1.0</v>
@@ -24918,7 +24921,7 @@
         <v>827</v>
       </c>
       <c r="G741" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H741" t="n">
         <v>2.0</v>
@@ -25041,17 +25044,17 @@
       <c r="D746" t="s">
         <v>1769</v>
       </c>
-      <c r="E746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H746" t="e">
-        <v>#N/A</v>
+      <c r="E746" t="s">
+        <v>983</v>
+      </c>
+      <c r="F746" t="s">
+        <v>819</v>
+      </c>
+      <c r="G746" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="747">
@@ -25067,17 +25070,17 @@
       <c r="D747" t="s">
         <v>1770</v>
       </c>
-      <c r="E747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G747" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H747" t="e">
-        <v>#N/A</v>
+      <c r="E747" t="s">
+        <v>927</v>
+      </c>
+      <c r="F747" t="s">
+        <v>831</v>
+      </c>
+      <c r="G747" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="748">
@@ -25093,17 +25096,17 @@
       <c r="D748" t="s">
         <v>1771</v>
       </c>
-      <c r="E748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G748" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H748" t="e">
-        <v>#N/A</v>
+      <c r="E748" t="s">
+        <v>866</v>
+      </c>
+      <c r="F748" t="s">
+        <v>985</v>
+      </c>
+      <c r="G748" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H748" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="749">
@@ -25256,7 +25259,7 @@
         <v>877</v>
       </c>
       <c r="G754" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H754" t="n">
         <v>3.0</v>
@@ -25282,7 +25285,7 @@
         <v>989</v>
       </c>
       <c r="G755" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H755" t="n">
         <v>4.0</v>
@@ -25308,7 +25311,7 @@
         <v>878</v>
       </c>
       <c r="G756" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H756" t="n">
         <v>4.0</v>
@@ -25334,7 +25337,7 @@
         <v>938</v>
       </c>
       <c r="G757" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H757" t="n">
         <v>4.0</v>
@@ -25360,7 +25363,7 @@
         <v>1009</v>
       </c>
       <c r="G758" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H758" t="n">
         <v>2.0</v>
@@ -25464,7 +25467,7 @@
         <v>1049</v>
       </c>
       <c r="G762" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H762" t="n">
         <v>3.0</v>
@@ -25490,7 +25493,7 @@
         <v>1044</v>
       </c>
       <c r="G763" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H763" t="n">
         <v>3.0</v>
@@ -25516,7 +25519,7 @@
         <v>1059</v>
       </c>
       <c r="G764" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H764" t="n">
         <v>0.0</v>
@@ -25542,7 +25545,7 @@
         <v>843</v>
       </c>
       <c r="G765" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H765" t="n">
         <v>1.0</v>
@@ -25620,7 +25623,7 @@
         <v>883</v>
       </c>
       <c r="G768" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H768" t="n">
         <v>3.0</v>
@@ -25646,7 +25649,7 @@
         <v>1030</v>
       </c>
       <c r="G769" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H769" t="n">
         <v>2.0</v>
@@ -25672,7 +25675,7 @@
         <v>1071</v>
       </c>
       <c r="G770" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H770" t="n">
         <v>1.0</v>
@@ -25698,7 +25701,7 @@
         <v>1031</v>
       </c>
       <c r="G771" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="H771" t="n">
         <v>5.0</v>
@@ -25724,7 +25727,7 @@
         <v>1073</v>
       </c>
       <c r="G772" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H772" t="n">
         <v>5.0</v>
@@ -25750,7 +25753,7 @@
         <v>1076</v>
       </c>
       <c r="G773" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H773" t="n">
         <v>3.0</v>
@@ -25776,7 +25779,7 @@
         <v>1033</v>
       </c>
       <c r="G774" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H774" t="n">
         <v>4.0</v>
@@ -25828,7 +25831,7 @@
         <v>885</v>
       </c>
       <c r="G776" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="H776" t="n">
         <v>4.0</v>
@@ -25906,7 +25909,7 @@
         <v>888</v>
       </c>
       <c r="G779" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H779" t="n">
         <v>5.0</v>
@@ -25932,7 +25935,7 @@
         <v>968</v>
       </c>
       <c r="G780" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H780" t="n">
         <v>5.0</v>
@@ -25958,7 +25961,7 @@
         <v>919</v>
       </c>
       <c r="G781" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="H781" t="n">
         <v>3.0</v>
@@ -26010,7 +26013,7 @@
         <v>1062</v>
       </c>
       <c r="G783" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="H783" t="n">
         <v>3.0</v>
@@ -26036,7 +26039,7 @@
         <v>1035</v>
       </c>
       <c r="G784" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H784" t="n">
         <v>3.0</v>
@@ -26140,7 +26143,7 @@
         <v>1003</v>
       </c>
       <c r="G788" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H788" t="n">
         <v>6.0</v>
@@ -26166,7 +26169,7 @@
         <v>905</v>
       </c>
       <c r="G789" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="H789" t="n">
         <v>5.0</v>
@@ -26192,7 +26195,7 @@
         <v>905</v>
       </c>
       <c r="G790" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H790" t="n">
         <v>2.0</v>
@@ -26218,7 +26221,7 @@
         <v>956</v>
       </c>
       <c r="G791" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H791" t="n">
         <v>1.0</v>
@@ -26244,7 +26247,7 @@
         <v>956</v>
       </c>
       <c r="G792" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H792" t="n">
         <v>4.0</v>
@@ -26296,7 +26299,7 @@
         <v>1037</v>
       </c>
       <c r="G794" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H794" t="n">
         <v>4.0</v>
@@ -26530,7 +26533,7 @@
         <v>845</v>
       </c>
       <c r="G803" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H803" t="n">
         <v>2.0</v>
@@ -26608,7 +26611,7 @@
         <v>945</v>
       </c>
       <c r="G806" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H806" t="n">
         <v>1.0</v>
@@ -26634,7 +26637,7 @@
         <v>900</v>
       </c>
       <c r="G807" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="H807" t="n">
         <v>8.0</v>
@@ -26660,7 +26663,7 @@
         <v>902</v>
       </c>
       <c r="G808" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H808" t="n">
         <v>4.0</v>
@@ -26686,7 +26689,7 @@
         <v>902</v>
       </c>
       <c r="G809" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="H809" t="n">
         <v>5.0</v>
@@ -26712,7 +26715,7 @@
         <v>1038</v>
       </c>
       <c r="G810" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H810" t="n">
         <v>2.0</v>

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222" uniqueCount="1900">
   <si>
     <t>HT</t>
   </si>
@@ -26647,17 +26647,17 @@
       <c r="F653" t="n" s="2">
         <v>44436.0</v>
       </c>
-      <c r="G653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J653" t="e">
-        <v>#N/A</v>
+      <c r="G653" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H653" t="s">
+        <v>995</v>
+      </c>
+      <c r="I653" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J653" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="654">
@@ -26679,17 +26679,17 @@
       <c r="F654" t="n" s="2">
         <v>44436.0</v>
       </c>
-      <c r="G654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J654" t="e">
-        <v>#N/A</v>
+      <c r="G654" t="s">
+        <v>840</v>
+      </c>
+      <c r="H654" t="s">
+        <v>806</v>
+      </c>
+      <c r="I654" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J654" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="655">
@@ -26807,17 +26807,17 @@
       <c r="F658" t="n" s="2">
         <v>44436.0</v>
       </c>
-      <c r="G658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J658" t="e">
-        <v>#N/A</v>
+      <c r="G658" t="s">
+        <v>889</v>
+      </c>
+      <c r="H658" t="s">
+        <v>914</v>
+      </c>
+      <c r="I658" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="659">
@@ -26839,17 +26839,17 @@
       <c r="F659" t="n" s="2">
         <v>44436.0</v>
       </c>
-      <c r="G659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J659" t="e">
-        <v>#N/A</v>
+      <c r="G659" t="s">
+        <v>851</v>
+      </c>
+      <c r="H659" t="s">
+        <v>848</v>
+      </c>
+      <c r="I659" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J659" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="660">
@@ -27767,17 +27767,17 @@
       <c r="F688" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G688" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H688" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I688" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J688" t="e">
-        <v>#N/A</v>
+      <c r="G688" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H688" t="s">
+        <v>807</v>
+      </c>
+      <c r="I688" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J688" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="689">
@@ -27799,17 +27799,17 @@
       <c r="F689" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J689" t="e">
-        <v>#N/A</v>
+      <c r="G689" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H689" t="s">
+        <v>841</v>
+      </c>
+      <c r="I689" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="690">
@@ -27831,17 +27831,17 @@
       <c r="F690" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G690" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H690" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I690" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J690" t="e">
-        <v>#N/A</v>
+      <c r="G690" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H690" t="s">
+        <v>962</v>
+      </c>
+      <c r="I690" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J690" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="691">
@@ -27863,17 +27863,17 @@
       <c r="F691" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G691" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H691" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I691" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J691" t="e">
-        <v>#N/A</v>
+      <c r="G691" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H691" t="s">
+        <v>843</v>
+      </c>
+      <c r="I691" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J691" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="692">
@@ -27895,17 +27895,17 @@
       <c r="F692" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G692" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H692" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I692" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J692" t="e">
-        <v>#N/A</v>
+      <c r="G692" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H692" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I692" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J692" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="693">
@@ -28023,17 +28023,17 @@
       <c r="F696" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G696" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H696" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I696" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J696" t="e">
-        <v>#N/A</v>
+      <c r="G696" t="s">
+        <v>813</v>
+      </c>
+      <c r="H696" t="s">
+        <v>912</v>
+      </c>
+      <c r="I696" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J696" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="697">
@@ -28055,17 +28055,17 @@
       <c r="F697" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G697" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H697" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I697" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J697" t="e">
-        <v>#N/A</v>
+      <c r="G697" t="s">
+        <v>814</v>
+      </c>
+      <c r="H697" t="s">
+        <v>850</v>
+      </c>
+      <c r="I697" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J697" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="698">
@@ -28087,17 +28087,17 @@
       <c r="F698" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G698" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H698" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I698" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J698" t="e">
-        <v>#N/A</v>
+      <c r="G698" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H698" t="s">
+        <v>938</v>
+      </c>
+      <c r="I698" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J698" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="699">
@@ -28119,17 +28119,17 @@
       <c r="F699" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G699" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H699" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I699" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J699" t="e">
-        <v>#N/A</v>
+      <c r="G699" t="s">
+        <v>890</v>
+      </c>
+      <c r="H699" t="s">
+        <v>966</v>
+      </c>
+      <c r="I699" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J699" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="700">
@@ -28151,17 +28151,17 @@
       <c r="F700" t="n" s="2">
         <v>44437.0</v>
       </c>
-      <c r="G700" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H700" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I700" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J700" t="e">
-        <v>#N/A</v>
+      <c r="G700" t="s">
+        <v>937</v>
+      </c>
+      <c r="H700" t="s">
+        <v>910</v>
+      </c>
+      <c r="I700" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="701">
@@ -29431,17 +29431,17 @@
       <c r="F740" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G740" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H740" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I740" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J740" t="e">
-        <v>#N/A</v>
+      <c r="G740" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H740" t="s">
+        <v>809</v>
+      </c>
+      <c r="I740" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J740" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="741">
@@ -29463,17 +29463,17 @@
       <c r="F741" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G741" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H741" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I741" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J741" t="e">
-        <v>#N/A</v>
+      <c r="G741" t="s">
+        <v>993</v>
+      </c>
+      <c r="H741" t="s">
+        <v>798</v>
+      </c>
+      <c r="I741" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J741" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="742">
@@ -29495,17 +29495,17 @@
       <c r="F742" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I742" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J742" t="e">
-        <v>#N/A</v>
+      <c r="G742" t="s">
+        <v>994</v>
+      </c>
+      <c r="H742" t="s">
+        <v>904</v>
+      </c>
+      <c r="I742" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J742" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="743">
@@ -29527,17 +29527,17 @@
       <c r="F743" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I743" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J743" t="e">
-        <v>#N/A</v>
+      <c r="G743" t="s">
+        <v>808</v>
+      </c>
+      <c r="H743" t="s">
+        <v>842</v>
+      </c>
+      <c r="I743" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J743" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="744">
@@ -29559,17 +29559,17 @@
       <c r="F744" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I744" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J744" t="e">
-        <v>#N/A</v>
+      <c r="G744" t="s">
+        <v>987</v>
+      </c>
+      <c r="H744" t="s">
+        <v>844</v>
+      </c>
+      <c r="I744" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J744" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="745">
@@ -29591,17 +29591,17 @@
       <c r="F745" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I745" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J745" t="e">
-        <v>#N/A</v>
+      <c r="G745" t="s">
+        <v>911</v>
+      </c>
+      <c r="H745" t="s">
+        <v>847</v>
+      </c>
+      <c r="I745" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J745" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="746">
@@ -29623,17 +29623,17 @@
       <c r="F746" t="n" s="2">
         <v>44438.0</v>
       </c>
-      <c r="G746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I746" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J746" t="e">
-        <v>#N/A</v>
+      <c r="G746" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H746" t="s">
+        <v>913</v>
+      </c>
+      <c r="I746" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J746" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="747">
@@ -29879,17 +29879,17 @@
       <c r="F754" t="n" s="2">
         <v>44439.0</v>
       </c>
-      <c r="G754" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H754" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I754" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J754" t="e">
-        <v>#N/A</v>
+      <c r="G754" t="s">
+        <v>888</v>
+      </c>
+      <c r="H754" t="s">
+        <v>887</v>
+      </c>
+      <c r="I754" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J754" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="755">
@@ -29911,17 +29911,17 @@
       <c r="F755" t="n" s="2">
         <v>44439.0</v>
       </c>
-      <c r="G755" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H755" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I755" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J755" t="e">
-        <v>#N/A</v>
+      <c r="G755" t="s">
+        <v>849</v>
+      </c>
+      <c r="H755" t="s">
+        <v>905</v>
+      </c>
+      <c r="I755" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J755" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="756">
@@ -29943,17 +29943,17 @@
       <c r="F756" t="n" s="2">
         <v>44441.0</v>
       </c>
-      <c r="G756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I756" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J756" t="e">
-        <v>#N/A</v>
+      <c r="G756" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H756" t="s">
+        <v>890</v>
+      </c>
+      <c r="I756" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J756" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="757">
@@ -29975,17 +29975,17 @@
       <c r="F757" t="n" s="2">
         <v>44442.0</v>
       </c>
-      <c r="G757" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H757" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I757" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J757" t="e">
-        <v>#N/A</v>
+      <c r="G757" t="s">
+        <v>841</v>
+      </c>
+      <c r="H757" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I757" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J757" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="758">
@@ -30039,17 +30039,17 @@
       <c r="F759" t="n" s="2">
         <v>44442.0</v>
       </c>
-      <c r="G759" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H759" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I759" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J759" t="e">
-        <v>#N/A</v>
+      <c r="G759" t="s">
+        <v>954</v>
+      </c>
+      <c r="H759" t="s">
+        <v>941</v>
+      </c>
+      <c r="I759" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J759" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="760">
@@ -30071,17 +30071,17 @@
       <c r="F760" t="n" s="2">
         <v>44442.0</v>
       </c>
-      <c r="G760" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H760" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I760" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J760" t="e">
-        <v>#N/A</v>
+      <c r="G760" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H760" t="s">
+        <v>971</v>
+      </c>
+      <c r="I760" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J760" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="761">
@@ -30103,17 +30103,17 @@
       <c r="F761" t="n" s="2">
         <v>44442.0</v>
       </c>
-      <c r="G761" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H761" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I761" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J761" t="e">
-        <v>#N/A</v>
+      <c r="G761" t="s">
+        <v>998</v>
+      </c>
+      <c r="H761" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I761" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J761" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="762">
@@ -30135,17 +30135,17 @@
       <c r="F762" t="n" s="2">
         <v>44442.0</v>
       </c>
-      <c r="G762" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H762" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I762" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J762" t="e">
-        <v>#N/A</v>
+      <c r="G762" t="s">
+        <v>940</v>
+      </c>
+      <c r="H762" t="s">
+        <v>955</v>
+      </c>
+      <c r="I762" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="763">
@@ -30167,17 +30167,17 @@
       <c r="F763" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G763" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H763" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I763" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J763" t="e">
-        <v>#N/A</v>
+      <c r="G763" t="s">
+        <v>995</v>
+      </c>
+      <c r="H763" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I763" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J763" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="764">
@@ -30199,17 +30199,17 @@
       <c r="F764" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G764" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H764" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I764" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J764" t="e">
-        <v>#N/A</v>
+      <c r="G764" t="s">
+        <v>798</v>
+      </c>
+      <c r="H764" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I764" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J764" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="765">
@@ -30231,17 +30231,17 @@
       <c r="F765" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G765" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H765" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I765" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J765" t="e">
-        <v>#N/A</v>
+      <c r="G765" t="s">
+        <v>807</v>
+      </c>
+      <c r="H765" t="s">
+        <v>993</v>
+      </c>
+      <c r="I765" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J765" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="766">
@@ -30263,17 +30263,17 @@
       <c r="F766" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G766" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H766" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I766" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J766" t="e">
-        <v>#N/A</v>
+      <c r="G766" t="s">
+        <v>962</v>
+      </c>
+      <c r="H766" t="s">
+        <v>987</v>
+      </c>
+      <c r="I766" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J766" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="767">
@@ -30295,17 +30295,17 @@
       <c r="F767" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G767" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H767" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I767" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J767" t="e">
-        <v>#N/A</v>
+      <c r="G767" t="s">
+        <v>806</v>
+      </c>
+      <c r="H767" t="s">
+        <v>808</v>
+      </c>
+      <c r="I767" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J767" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="768">
@@ -30327,17 +30327,17 @@
       <c r="F768" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G768" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H768" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I768" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J768" t="e">
-        <v>#N/A</v>
+      <c r="G768" t="s">
+        <v>881</v>
+      </c>
+      <c r="H768" t="s">
+        <v>886</v>
+      </c>
+      <c r="I768" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J768" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="769">
@@ -30359,17 +30359,17 @@
       <c r="F769" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G769" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H769" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I769" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J769" t="e">
-        <v>#N/A</v>
+      <c r="G769" t="s">
+        <v>936</v>
+      </c>
+      <c r="H769" t="s">
+        <v>885</v>
+      </c>
+      <c r="I769" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J769" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="770">
@@ -30391,17 +30391,17 @@
       <c r="F770" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G770" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H770" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I770" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J770" t="e">
-        <v>#N/A</v>
+      <c r="G770" t="s">
+        <v>932</v>
+      </c>
+      <c r="H770" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I770" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J770" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="771">
@@ -30423,17 +30423,17 @@
       <c r="F771" t="n" s="2">
         <v>44443.0</v>
       </c>
-      <c r="G771" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H771" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I771" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J771" t="e">
-        <v>#N/A</v>
+      <c r="G771" t="s">
+        <v>884</v>
+      </c>
+      <c r="H771" t="s">
+        <v>933</v>
+      </c>
+      <c r="I771" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J771" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="772">
@@ -30455,17 +30455,17 @@
       <c r="F772" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G772" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H772" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I772" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J772" t="e">
-        <v>#N/A</v>
+      <c r="G772" t="s">
+        <v>843</v>
+      </c>
+      <c r="H772" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I772" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="773">
@@ -30487,17 +30487,17 @@
       <c r="F773" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G773" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H773" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I773" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J773" t="e">
-        <v>#N/A</v>
+      <c r="G773" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H773" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I773" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J773" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="774">
@@ -30519,17 +30519,17 @@
       <c r="F774" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G774" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H774" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I774" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J774" t="e">
-        <v>#N/A</v>
+      <c r="G774" t="s">
+        <v>842</v>
+      </c>
+      <c r="H774" t="s">
+        <v>888</v>
+      </c>
+      <c r="I774" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J774" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="775">
@@ -30551,17 +30551,17 @@
       <c r="F775" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G775" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H775" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I775" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J775" t="e">
-        <v>#N/A</v>
+      <c r="G775" t="s">
+        <v>809</v>
+      </c>
+      <c r="H775" t="s">
+        <v>840</v>
+      </c>
+      <c r="I775" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J775" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="776">
@@ -30583,17 +30583,17 @@
       <c r="F776" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G776" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H776" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I776" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J776" t="e">
-        <v>#N/A</v>
+      <c r="G776" t="s">
+        <v>913</v>
+      </c>
+      <c r="H776" t="s">
+        <v>849</v>
+      </c>
+      <c r="I776" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J776" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="777">
@@ -30615,17 +30615,17 @@
       <c r="F777" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G777" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H777" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I777" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J777" t="e">
-        <v>#N/A</v>
+      <c r="G777" t="s">
+        <v>905</v>
+      </c>
+      <c r="H777" t="s">
+        <v>851</v>
+      </c>
+      <c r="I777" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="778">
@@ -30647,17 +30647,17 @@
       <c r="F778" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G778" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H778" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I778" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J778" t="e">
-        <v>#N/A</v>
+      <c r="G778" t="s">
+        <v>850</v>
+      </c>
+      <c r="H778" t="s">
+        <v>889</v>
+      </c>
+      <c r="I778" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J778" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="779">
@@ -30679,17 +30679,17 @@
       <c r="F779" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G779" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H779" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I779" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J779" t="e">
-        <v>#N/A</v>
+      <c r="G779" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H779" t="s">
+        <v>861</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J779" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="780">
@@ -30711,17 +30711,17 @@
       <c r="F780" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G780" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H780" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I780" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J780" t="e">
-        <v>#N/A</v>
+      <c r="G780" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H780" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I780" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J780" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="781">
@@ -30743,17 +30743,17 @@
       <c r="F781" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G781" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H781" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I781" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J781" t="e">
-        <v>#N/A</v>
+      <c r="G781" t="s">
+        <v>935</v>
+      </c>
+      <c r="H781" t="s">
+        <v>934</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J781" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="782">
@@ -30775,17 +30775,17 @@
       <c r="F782" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G782" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H782" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I782" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J782" t="e">
-        <v>#N/A</v>
+      <c r="G782" t="s">
+        <v>982</v>
+      </c>
+      <c r="H782" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I782" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J782" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="783">
@@ -30807,17 +30807,17 @@
       <c r="F783" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G783" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H783" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I783" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J783" t="e">
-        <v>#N/A</v>
+      <c r="G783" t="s">
+        <v>931</v>
+      </c>
+      <c r="H783" t="s">
+        <v>901</v>
+      </c>
+      <c r="I783" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J783" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="784">
@@ -30839,17 +30839,17 @@
       <c r="F784" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G784" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H784" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I784" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J784" t="e">
-        <v>#N/A</v>
+      <c r="G784" t="s">
+        <v>882</v>
+      </c>
+      <c r="H784" t="s">
+        <v>880</v>
+      </c>
+      <c r="I784" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J784" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="785">
@@ -30871,17 +30871,17 @@
       <c r="F785" t="n" s="2">
         <v>44444.0</v>
       </c>
-      <c r="G785" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H785" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I785" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J785" t="e">
-        <v>#N/A</v>
+      <c r="G785" t="s">
+        <v>883</v>
+      </c>
+      <c r="H785" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I785" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J785" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="786">
@@ -30903,17 +30903,17 @@
       <c r="F786" t="n" s="2">
         <v>44445.0</v>
       </c>
-      <c r="G786" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H786" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I786" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J786" t="e">
-        <v>#N/A</v>
+      <c r="G786" t="s">
+        <v>844</v>
+      </c>
+      <c r="H786" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J786" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="787">
@@ -30935,17 +30935,17 @@
       <c r="F787" t="n" s="2">
         <v>44445.0</v>
       </c>
-      <c r="G787" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H787" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I787" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J787" t="e">
-        <v>#N/A</v>
+      <c r="G787" t="s">
+        <v>887</v>
+      </c>
+      <c r="H787" t="s">
+        <v>904</v>
+      </c>
+      <c r="I787" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J787" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="788">

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9099" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9468" uniqueCount="2711">
   <si>
     <t>HT</t>
   </si>
@@ -42520,17 +42520,17 @@
       <c r="F1073" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1073" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1073" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1073" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1073" t="e">
-        <v>#N/A</v>
+      <c r="G1073" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I1073" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1074">
@@ -42552,17 +42552,17 @@
       <c r="F1074" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1074" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1074" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1074" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1074" t="e">
-        <v>#N/A</v>
+      <c r="G1074" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1075">
@@ -42584,17 +42584,17 @@
       <c r="F1075" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1075" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1075" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1075" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1075" t="e">
-        <v>#N/A</v>
+      <c r="G1075" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I1075" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1076">
@@ -42616,17 +42616,17 @@
       <c r="F1076" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1076" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1076" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1076" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1076" t="e">
-        <v>#N/A</v>
+      <c r="G1076" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I1076" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1077">
@@ -42648,17 +42648,17 @@
       <c r="F1077" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1077" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1077" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1077" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1077" t="e">
-        <v>#N/A</v>
+      <c r="G1077" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1077" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1078">
@@ -42680,17 +42680,17 @@
       <c r="F1078" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1078" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1078" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1078" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1078" t="e">
-        <v>#N/A</v>
+      <c r="G1078" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1079">
@@ -42712,17 +42712,17 @@
       <c r="F1079" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1079" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1079" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1079" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1079" t="e">
-        <v>#N/A</v>
+      <c r="G1079" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1080">
@@ -42744,17 +42744,17 @@
       <c r="F1080" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1080" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1080" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1080" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1080" t="e">
-        <v>#N/A</v>
+      <c r="G1080" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I1080" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1081">
@@ -42776,17 +42776,17 @@
       <c r="F1081" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1081" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1081" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1081" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1081" t="e">
-        <v>#N/A</v>
+      <c r="G1081" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I1081" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1082">
@@ -42808,17 +42808,17 @@
       <c r="F1082" t="n" s="2">
         <v>44463.0</v>
       </c>
-      <c r="G1082" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1082" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1082" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1082" t="e">
-        <v>#N/A</v>
+      <c r="G1082" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1083">
@@ -42840,17 +42840,17 @@
       <c r="F1083" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1083" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1083" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1083" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1083" t="e">
-        <v>#N/A</v>
+      <c r="G1083" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1084">
@@ -42872,17 +42872,17 @@
       <c r="F1084" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1084" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1084" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1084" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1084" t="e">
-        <v>#N/A</v>
+      <c r="G1084" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1085">
@@ -42904,17 +42904,17 @@
       <c r="F1085" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1085" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1085" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1085" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1085" t="e">
-        <v>#N/A</v>
+      <c r="G1085" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1086">
@@ -42936,17 +42936,17 @@
       <c r="F1086" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1086" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1086" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1086" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1086" t="e">
-        <v>#N/A</v>
+      <c r="G1086" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I1086" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1087">
@@ -42968,17 +42968,17 @@
       <c r="F1087" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1087" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1087" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1087" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1087" t="e">
-        <v>#N/A</v>
+      <c r="G1087" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I1087" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1088">
@@ -43000,17 +43000,17 @@
       <c r="F1088" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1088" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1088" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1088" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1088" t="e">
-        <v>#N/A</v>
+      <c r="G1088" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I1088" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1089">
@@ -43032,17 +43032,17 @@
       <c r="F1089" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1089" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1089" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1089" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1089" t="e">
-        <v>#N/A</v>
+      <c r="G1089" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1090">
@@ -43064,17 +43064,17 @@
       <c r="F1090" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1090" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1090" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1090" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1090" t="e">
-        <v>#N/A</v>
+      <c r="G1090" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1091">
@@ -43096,17 +43096,17 @@
       <c r="F1091" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1091" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1091" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1091" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1091" t="e">
-        <v>#N/A</v>
+      <c r="G1091" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1092">
@@ -43128,17 +43128,17 @@
       <c r="F1092" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1092" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1092" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1092" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1092" t="e">
-        <v>#N/A</v>
+      <c r="G1092" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1093">
@@ -43160,17 +43160,17 @@
       <c r="F1093" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1093" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1093" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1093" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1093" t="e">
-        <v>#N/A</v>
+      <c r="G1093" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1094">
@@ -43192,17 +43192,17 @@
       <c r="F1094" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1094" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1094" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1094" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1094" t="e">
-        <v>#N/A</v>
+      <c r="G1094" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1095">
@@ -43224,17 +43224,17 @@
       <c r="F1095" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1095" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1095" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1095" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1095" t="e">
-        <v>#N/A</v>
+      <c r="G1095" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>2677</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1096">
@@ -43256,17 +43256,17 @@
       <c r="F1096" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1096" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1096" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1096" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1096" t="e">
-        <v>#N/A</v>
+      <c r="G1096" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1097">
@@ -43288,17 +43288,17 @@
       <c r="F1097" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1097" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1097" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1097" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1097" t="e">
-        <v>#N/A</v>
+      <c r="G1097" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1098">
@@ -43320,17 +43320,17 @@
       <c r="F1098" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1098" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1098" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1098" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1098" t="e">
-        <v>#N/A</v>
+      <c r="G1098" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1099">
@@ -43352,17 +43352,17 @@
       <c r="F1099" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1099" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1099" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1099" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1099" t="e">
-        <v>#N/A</v>
+      <c r="G1099" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1100">
@@ -43384,17 +43384,17 @@
       <c r="F1100" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1100" t="e">
-        <v>#N/A</v>
+      <c r="G1100" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I1100" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1101">
@@ -43416,17 +43416,17 @@
       <c r="F1101" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1101" t="e">
-        <v>#N/A</v>
+      <c r="G1101" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1102">
@@ -43448,17 +43448,17 @@
       <c r="F1102" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1102" t="e">
-        <v>#N/A</v>
+      <c r="G1102" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1103">
@@ -43480,17 +43480,17 @@
       <c r="F1103" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1103" t="e">
-        <v>#N/A</v>
+      <c r="G1103" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1104">
@@ -43512,17 +43512,17 @@
       <c r="F1104" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1104" t="e">
-        <v>#N/A</v>
+      <c r="G1104" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1105">
@@ -43544,17 +43544,17 @@
       <c r="F1105" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1105" t="e">
-        <v>#N/A</v>
+      <c r="G1105" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I1105" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1106">
@@ -43576,17 +43576,17 @@
       <c r="F1106" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1106" t="e">
-        <v>#N/A</v>
+      <c r="G1106" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>2686</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1107">
@@ -43608,17 +43608,17 @@
       <c r="F1107" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1107" t="e">
-        <v>#N/A</v>
+      <c r="G1107" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1108">
@@ -43640,17 +43640,17 @@
       <c r="F1108" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1108" t="e">
-        <v>#N/A</v>
+      <c r="G1108" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I1108" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1109">
@@ -43672,17 +43672,17 @@
       <c r="F1109" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1109" t="e">
-        <v>#N/A</v>
+      <c r="G1109" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I1109" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1110">
@@ -43704,17 +43704,17 @@
       <c r="F1110" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1110" t="e">
-        <v>#N/A</v>
+      <c r="G1110" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I1110" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1111">
@@ -43736,17 +43736,17 @@
       <c r="F1111" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1111" t="e">
-        <v>#N/A</v>
+      <c r="G1111" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I1111" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1112">
@@ -43768,17 +43768,17 @@
       <c r="F1112" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1112" t="e">
-        <v>#N/A</v>
+      <c r="G1112" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I1112" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1113">
@@ -43800,17 +43800,17 @@
       <c r="F1113" t="n" s="2">
         <v>44464.0</v>
       </c>
-      <c r="G1113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1113" t="e">
-        <v>#N/A</v>
+      <c r="G1113" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I1113" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1114">
@@ -43832,17 +43832,17 @@
       <c r="F1114" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1114" t="e">
-        <v>#N/A</v>
+      <c r="G1114" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1114" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1115">
@@ -43864,17 +43864,17 @@
       <c r="F1115" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1115" t="e">
-        <v>#N/A</v>
+      <c r="G1115" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I1115" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1116">
@@ -43896,17 +43896,17 @@
       <c r="F1116" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1116" t="e">
-        <v>#N/A</v>
+      <c r="G1116" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I1116" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1117">
@@ -43928,17 +43928,17 @@
       <c r="F1117" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1117" t="e">
-        <v>#N/A</v>
+      <c r="G1117" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I1117" t="s">
+        <v>2682</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1118">
@@ -43960,17 +43960,17 @@
       <c r="F1118" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1118" t="e">
-        <v>#N/A</v>
+      <c r="G1118" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I1118" t="s">
+        <v>2690</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="1119">
@@ -43992,17 +43992,17 @@
       <c r="F1119" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1119" t="e">
-        <v>#N/A</v>
+      <c r="G1119" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1120">
@@ -44024,17 +44024,17 @@
       <c r="F1120" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1120" t="e">
-        <v>#N/A</v>
+      <c r="G1120" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>2687</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1121">
@@ -44056,17 +44056,17 @@
       <c r="F1121" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1121" t="e">
-        <v>#N/A</v>
+      <c r="G1121" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1122">
@@ -44088,17 +44088,17 @@
       <c r="F1122" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1122" t="e">
-        <v>#N/A</v>
+      <c r="G1122" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I1122" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1123">
@@ -44120,17 +44120,17 @@
       <c r="F1123" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1123" t="e">
-        <v>#N/A</v>
+      <c r="G1123" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I1123" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1124">
@@ -44152,17 +44152,17 @@
       <c r="F1124" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1124" t="e">
-        <v>#N/A</v>
+      <c r="G1124" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I1124" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1125">
@@ -44184,17 +44184,17 @@
       <c r="F1125" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1125" t="e">
-        <v>#N/A</v>
+      <c r="G1125" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I1125" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1126">
@@ -44216,17 +44216,17 @@
       <c r="F1126" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1126" t="e">
-        <v>#N/A</v>
+      <c r="G1126" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I1126" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1127">
@@ -44248,17 +44248,17 @@
       <c r="F1127" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1127" t="e">
-        <v>#N/A</v>
+      <c r="G1127" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I1127" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1128">
@@ -44280,17 +44280,17 @@
       <c r="F1128" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1128" t="e">
-        <v>#N/A</v>
+      <c r="G1128" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I1128" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1129">
@@ -44312,17 +44312,17 @@
       <c r="F1129" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1129" t="e">
-        <v>#N/A</v>
+      <c r="G1129" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I1129" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1130">
@@ -44344,17 +44344,17 @@
       <c r="F1130" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1130" t="e">
-        <v>#N/A</v>
+      <c r="G1130" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I1130" t="s">
+        <v>2707</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1131">
@@ -44376,17 +44376,17 @@
       <c r="F1131" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1131" t="e">
-        <v>#N/A</v>
+      <c r="G1131" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1132">
@@ -44408,17 +44408,17 @@
       <c r="F1132" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1132" t="e">
-        <v>#N/A</v>
+      <c r="G1132" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I1132" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1133">
@@ -44440,17 +44440,17 @@
       <c r="F1133" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1133" t="e">
-        <v>#N/A</v>
+      <c r="G1133" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I1133" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1134">
@@ -44472,17 +44472,17 @@
       <c r="F1134" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1134" t="e">
-        <v>#N/A</v>
+      <c r="G1134" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I1134" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1135">
@@ -44504,17 +44504,17 @@
       <c r="F1135" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1135" t="e">
-        <v>#N/A</v>
+      <c r="G1135" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1136">
@@ -44536,17 +44536,17 @@
       <c r="F1136" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1136" t="e">
-        <v>#N/A</v>
+      <c r="G1136" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1137">
@@ -44568,17 +44568,17 @@
       <c r="F1137" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1137" t="e">
-        <v>#N/A</v>
+      <c r="G1137" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1138">
@@ -44600,17 +44600,17 @@
       <c r="F1138" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1138" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1138" t="e">
-        <v>#N/A</v>
+      <c r="G1138" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I1138" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1139">
@@ -44632,17 +44632,17 @@
       <c r="F1139" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1139" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1139" t="e">
-        <v>#N/A</v>
+      <c r="G1139" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1139" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1140">
@@ -44664,17 +44664,17 @@
       <c r="F1140" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1140" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1140" t="e">
-        <v>#N/A</v>
+      <c r="G1140" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I1140" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1141">
@@ -44696,17 +44696,17 @@
       <c r="F1141" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1141" t="e">
-        <v>#N/A</v>
+      <c r="G1141" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I1141" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1142">
@@ -44728,17 +44728,17 @@
       <c r="F1142" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1142" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1142" t="e">
-        <v>#N/A</v>
+      <c r="G1142" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I1142" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1143">
@@ -44760,17 +44760,17 @@
       <c r="F1143" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1143" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1143" t="e">
-        <v>#N/A</v>
+      <c r="G1143" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I1143" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1144">
@@ -44792,17 +44792,17 @@
       <c r="F1144" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1144" t="e">
-        <v>#N/A</v>
+      <c r="G1144" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1145">
@@ -44824,17 +44824,17 @@
       <c r="F1145" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1145" t="e">
-        <v>#N/A</v>
+      <c r="G1145" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1146">
@@ -44856,17 +44856,17 @@
       <c r="F1146" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1146" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1146" t="e">
-        <v>#N/A</v>
+      <c r="G1146" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I1146" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1147">
@@ -44888,17 +44888,17 @@
       <c r="F1147" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1147" t="e">
-        <v>#N/A</v>
+      <c r="G1147" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I1147" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1148">
@@ -44920,17 +44920,17 @@
       <c r="F1148" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1148" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1148" t="e">
-        <v>#N/A</v>
+      <c r="G1148" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I1148" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1149">
@@ -44952,17 +44952,17 @@
       <c r="F1149" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1149" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1149" t="e">
-        <v>#N/A</v>
+      <c r="G1149" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>2677</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1150">
@@ -44984,17 +44984,17 @@
       <c r="F1150" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1150" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1150" t="e">
-        <v>#N/A</v>
+      <c r="G1150" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I1150" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1151">
@@ -45016,17 +45016,17 @@
       <c r="F1151" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1151" t="e">
-        <v>#N/A</v>
+      <c r="G1151" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>2687</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1152">
@@ -45048,17 +45048,17 @@
       <c r="F1152" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1152" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1152" t="e">
-        <v>#N/A</v>
+      <c r="G1152" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1153">
@@ -45080,17 +45080,17 @@
       <c r="F1153" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1153" t="e">
-        <v>#N/A</v>
+      <c r="G1153" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1154">
@@ -45112,17 +45112,17 @@
       <c r="F1154" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1154" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1154" t="e">
-        <v>#N/A</v>
+      <c r="G1154" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1155">
@@ -45144,17 +45144,17 @@
       <c r="F1155" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1155" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1155" t="e">
-        <v>#N/A</v>
+      <c r="G1155" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I1155" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1156">
@@ -45176,17 +45176,17 @@
       <c r="F1156" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1156" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1156" t="e">
-        <v>#N/A</v>
+      <c r="G1156" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1157">
@@ -45208,17 +45208,17 @@
       <c r="F1157" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1157" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1157" t="e">
-        <v>#N/A</v>
+      <c r="G1157" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I1157" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1158">
@@ -45240,17 +45240,17 @@
       <c r="F1158" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1158" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1158" t="e">
-        <v>#N/A</v>
+      <c r="G1158" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I1158" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1159">
@@ -45272,17 +45272,17 @@
       <c r="F1159" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1159" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1159" t="e">
-        <v>#N/A</v>
+      <c r="G1159" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I1159" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1160">
@@ -45304,17 +45304,17 @@
       <c r="F1160" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1160" t="e">
-        <v>#N/A</v>
+      <c r="G1160" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1161">
@@ -45336,17 +45336,17 @@
       <c r="F1161" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1161" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1161" t="e">
-        <v>#N/A</v>
+      <c r="G1161" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I1161" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1162">
@@ -45368,17 +45368,17 @@
       <c r="F1162" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1162" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1162" t="e">
-        <v>#N/A</v>
+      <c r="G1162" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1163">
@@ -45400,17 +45400,17 @@
       <c r="F1163" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1163" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1163" t="e">
-        <v>#N/A</v>
+      <c r="G1163" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>2687</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1164">
@@ -45432,17 +45432,17 @@
       <c r="F1164" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1164" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1164" t="e">
-        <v>#N/A</v>
+      <c r="G1164" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I1164" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1165">
@@ -45464,17 +45464,17 @@
       <c r="F1165" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1165" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1165" t="e">
-        <v>#N/A</v>
+      <c r="G1165" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1166">
@@ -45496,17 +45496,17 @@
       <c r="F1166" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1166" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1166" t="e">
-        <v>#N/A</v>
+      <c r="G1166" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1167">
@@ -45528,17 +45528,17 @@
       <c r="F1167" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1167" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1167" t="e">
-        <v>#N/A</v>
+      <c r="G1167" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1168">
@@ -45560,17 +45560,17 @@
       <c r="F1168" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1168" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1168" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1168" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1168" t="e">
-        <v>#N/A</v>
+      <c r="G1168" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1169">
@@ -45592,17 +45592,17 @@
       <c r="F1169" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1169" t="e">
-        <v>#N/A</v>
+      <c r="G1169" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1170">
@@ -45624,17 +45624,17 @@
       <c r="F1170" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1170" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1170" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1170" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1170" t="e">
-        <v>#N/A</v>
+      <c r="G1170" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1171">
@@ -45656,17 +45656,17 @@
       <c r="F1171" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1171" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1171" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1171" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1171" t="e">
-        <v>#N/A</v>
+      <c r="G1171" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1172">
@@ -45688,17 +45688,17 @@
       <c r="F1172" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1172" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1172" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1172" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1172" t="e">
-        <v>#N/A</v>
+      <c r="G1172" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1173">
@@ -45720,17 +45720,17 @@
       <c r="F1173" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1173" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1173" t="e">
-        <v>#N/A</v>
+      <c r="G1173" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1174">
@@ -45752,17 +45752,17 @@
       <c r="F1174" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1174" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1174" t="e">
-        <v>#N/A</v>
+      <c r="G1174" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1175">
@@ -45784,17 +45784,17 @@
       <c r="F1175" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1175" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1175" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1175" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1175" t="e">
-        <v>#N/A</v>
+      <c r="G1175" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1176">
@@ -45816,17 +45816,17 @@
       <c r="F1176" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1176" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1176" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1176" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1176" t="e">
-        <v>#N/A</v>
+      <c r="G1176" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1177">
@@ -45848,17 +45848,17 @@
       <c r="F1177" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1177" t="e">
-        <v>#N/A</v>
+      <c r="G1177" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="1178">
@@ -45880,17 +45880,17 @@
       <c r="F1178" t="n" s="2">
         <v>44465.0</v>
       </c>
-      <c r="G1178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1178" t="e">
-        <v>#N/A</v>
+      <c r="G1178" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1179">
@@ -45912,17 +45912,17 @@
       <c r="F1179" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1179" t="e">
-        <v>#N/A</v>
+      <c r="G1179" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1180">
@@ -45944,17 +45944,17 @@
       <c r="F1180" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1180" t="e">
-        <v>#N/A</v>
+      <c r="G1180" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1181">
@@ -45976,17 +45976,17 @@
       <c r="F1181" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1181" t="e">
-        <v>#N/A</v>
+      <c r="G1181" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1182">
@@ -46008,17 +46008,17 @@
       <c r="F1182" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1182" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1182" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1182" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1182" t="e">
-        <v>#N/A</v>
+      <c r="G1182" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1183">
@@ -46040,17 +46040,17 @@
       <c r="F1183" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1183" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1183" t="e">
-        <v>#N/A</v>
+      <c r="G1183" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1184">
@@ -46072,17 +46072,17 @@
       <c r="F1184" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1184" t="e">
-        <v>#N/A</v>
+      <c r="G1184" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1185">
@@ -46104,17 +46104,17 @@
       <c r="F1185" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1185" t="e">
-        <v>#N/A</v>
+      <c r="G1185" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1186">
@@ -46136,17 +46136,17 @@
       <c r="F1186" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1186" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1186" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1186" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1186" t="e">
-        <v>#N/A</v>
+      <c r="G1186" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1187">
@@ -46168,17 +46168,17 @@
       <c r="F1187" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1187" t="e">
-        <v>#N/A</v>
+      <c r="G1187" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1188">
@@ -46200,17 +46200,17 @@
       <c r="F1188" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1188" t="e">
-        <v>#N/A</v>
+      <c r="G1188" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1189">
@@ -46232,17 +46232,17 @@
       <c r="F1189" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1189" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1189" t="e">
-        <v>#N/A</v>
+      <c r="G1189" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1190">
@@ -46264,17 +46264,17 @@
       <c r="F1190" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1190" t="e">
-        <v>#N/A</v>
+      <c r="G1190" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1191">
@@ -46296,17 +46296,17 @@
       <c r="F1191" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1191" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1191" t="e">
-        <v>#N/A</v>
+      <c r="G1191" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1192">
@@ -46328,17 +46328,17 @@
       <c r="F1192" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1192" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1192" t="e">
-        <v>#N/A</v>
+      <c r="G1192" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1193">
@@ -46360,17 +46360,17 @@
       <c r="F1193" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1193" t="e">
-        <v>#N/A</v>
+      <c r="G1193" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1194">
@@ -46392,17 +46392,17 @@
       <c r="F1194" t="n" s="2">
         <v>44466.0</v>
       </c>
-      <c r="G1194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1194" t="e">
-        <v>#N/A</v>
+      <c r="G1194" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1195">
@@ -46424,17 +46424,17 @@
       <c r="F1195" t="n" s="2">
         <v>44467.0</v>
       </c>
-      <c r="G1195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1195" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1195" t="e">
-        <v>#N/A</v>
+      <c r="G1195" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12891" uniqueCount="3694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13374" uniqueCount="3696">
   <si>
     <t>HT</t>
   </si>
@@ -11094,6 +11094,12 @@
   </si>
   <si>
     <t>7-0</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
   </si>
 </sst>
 </file>
@@ -59869,17 +59875,17 @@
       <c r="F1523" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1523" t="e">
-        <v>#N/A</v>
+      <c r="G1523" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1524">
@@ -59901,17 +59907,17 @@
       <c r="F1524" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1524" t="e">
-        <v>#N/A</v>
+      <c r="G1524" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1525">
@@ -59933,17 +59939,17 @@
       <c r="F1525" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1525" t="e">
-        <v>#N/A</v>
+      <c r="G1525" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>3679</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1526">
@@ -59965,17 +59971,17 @@
       <c r="F1526" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1526" t="e">
-        <v>#N/A</v>
+      <c r="G1526" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>1931</v>
+      </c>
+      <c r="I1526" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1527">
@@ -59997,17 +60003,17 @@
       <c r="F1527" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1527" t="e">
-        <v>#N/A</v>
+      <c r="G1527" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I1527" t="s">
+        <v>3662</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1528">
@@ -60029,17 +60035,17 @@
       <c r="F1528" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1528" t="e">
-        <v>#N/A</v>
+      <c r="G1528" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I1528" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1529">
@@ -60061,17 +60067,17 @@
       <c r="F1529" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1529" t="e">
-        <v>#N/A</v>
+      <c r="G1529" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I1529" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1530">
@@ -60093,17 +60099,17 @@
       <c r="F1530" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1530" t="e">
-        <v>#N/A</v>
+      <c r="G1530" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I1530" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1531">
@@ -60125,17 +60131,17 @@
       <c r="F1531" t="n" s="2">
         <v>44491.0</v>
       </c>
-      <c r="G1531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1531" t="e">
-        <v>#N/A</v>
+      <c r="G1531" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1532">
@@ -60157,17 +60163,17 @@
       <c r="F1532" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1532" t="e">
-        <v>#N/A</v>
+      <c r="G1532" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1533">
@@ -60189,17 +60195,17 @@
       <c r="F1533" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1533" t="e">
-        <v>#N/A</v>
+      <c r="G1533" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1534">
@@ -60221,17 +60227,17 @@
       <c r="F1534" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1534" t="e">
-        <v>#N/A</v>
+      <c r="G1534" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1535">
@@ -60253,17 +60259,17 @@
       <c r="F1535" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1535" t="e">
-        <v>#N/A</v>
+      <c r="G1535" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1536">
@@ -60285,17 +60291,17 @@
       <c r="F1536" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1536" t="e">
-        <v>#N/A</v>
+      <c r="G1536" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1537">
@@ -60317,17 +60323,17 @@
       <c r="F1537" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1537" t="e">
-        <v>#N/A</v>
+      <c r="G1537" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1538">
@@ -60349,17 +60355,17 @@
       <c r="F1538" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1538" t="e">
-        <v>#N/A</v>
+      <c r="G1538" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1539">
@@ -60381,17 +60387,17 @@
       <c r="F1539" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1539" t="e">
-        <v>#N/A</v>
+      <c r="G1539" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>3662</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1540">
@@ -60413,17 +60419,17 @@
       <c r="F1540" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1540" t="e">
-        <v>#N/A</v>
+      <c r="G1540" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I1540" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1541">
@@ -60445,17 +60451,17 @@
       <c r="F1541" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1541" t="e">
-        <v>#N/A</v>
+      <c r="G1541" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1542">
@@ -60477,17 +60483,17 @@
       <c r="F1542" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1542" t="e">
-        <v>#N/A</v>
+      <c r="G1542" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1543">
@@ -60509,17 +60515,17 @@
       <c r="F1543" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1543" t="e">
-        <v>#N/A</v>
+      <c r="G1543" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1544">
@@ -60541,17 +60547,17 @@
       <c r="F1544" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1544" t="e">
-        <v>#N/A</v>
+      <c r="G1544" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1545">
@@ -60573,17 +60579,17 @@
       <c r="F1545" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1545" t="e">
-        <v>#N/A</v>
+      <c r="G1545" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1546">
@@ -60605,17 +60611,17 @@
       <c r="F1546" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1546" t="e">
-        <v>#N/A</v>
+      <c r="G1546" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H1546" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I1546" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1547">
@@ -60637,17 +60643,17 @@
       <c r="F1547" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1547" t="e">
-        <v>#N/A</v>
+      <c r="G1547" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I1547" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1548">
@@ -60669,17 +60675,17 @@
       <c r="F1548" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1548" t="e">
-        <v>#N/A</v>
+      <c r="G1548" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H1548" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1549">
@@ -60701,17 +60707,17 @@
       <c r="F1549" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1549" t="e">
-        <v>#N/A</v>
+      <c r="G1549" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H1549" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I1549" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1550">
@@ -60733,17 +60739,17 @@
       <c r="F1550" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1550" t="e">
-        <v>#N/A</v>
+      <c r="G1550" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H1550" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I1550" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1551">
@@ -60765,17 +60771,17 @@
       <c r="F1551" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1551" t="e">
-        <v>#N/A</v>
+      <c r="G1551" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H1551" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I1551" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1552">
@@ -60797,17 +60803,17 @@
       <c r="F1552" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1552" t="e">
-        <v>#N/A</v>
+      <c r="G1552" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1553">
@@ -60829,17 +60835,17 @@
       <c r="F1553" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1553" t="e">
-        <v>#N/A</v>
+      <c r="G1553" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H1553" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1554">
@@ -60861,17 +60867,17 @@
       <c r="F1554" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1554" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1554" t="e">
-        <v>#N/A</v>
+      <c r="G1554" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1555">
@@ -60893,17 +60899,17 @@
       <c r="F1555" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1555" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1555" t="e">
-        <v>#N/A</v>
+      <c r="G1555" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H1555" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I1555" t="s">
+        <v>3666</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1556">
@@ -60925,17 +60931,17 @@
       <c r="F1556" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1556" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1556" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1556" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1556" t="e">
-        <v>#N/A</v>
+      <c r="G1556" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H1556" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I1556" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1557">
@@ -60957,17 +60963,17 @@
       <c r="F1557" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1557" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1557" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1557" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1557" t="e">
-        <v>#N/A</v>
+      <c r="G1557" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H1557" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I1557" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1558">
@@ -60989,17 +60995,17 @@
       <c r="F1558" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1558" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1558" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1558" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1558" t="e">
-        <v>#N/A</v>
+      <c r="G1558" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1559">
@@ -61021,17 +61027,17 @@
       <c r="F1559" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1559" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1559" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1559" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1559" t="e">
-        <v>#N/A</v>
+      <c r="G1559" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H1559" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>3680</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1560">
@@ -61053,17 +61059,17 @@
       <c r="F1560" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1560" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1560" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1560" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1560" t="e">
-        <v>#N/A</v>
+      <c r="G1560" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1561">
@@ -61085,17 +61091,17 @@
       <c r="F1561" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1561" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1561" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1561" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1561" t="e">
-        <v>#N/A</v>
+      <c r="G1561" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1562">
@@ -61117,17 +61123,17 @@
       <c r="F1562" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1562" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1562" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1562" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1562" t="e">
-        <v>#N/A</v>
+      <c r="G1562" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H1562" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1563">
@@ -61149,17 +61155,17 @@
       <c r="F1563" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1563" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1563" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1563" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1563" t="e">
-        <v>#N/A</v>
+      <c r="G1563" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H1563" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>3661</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1564">
@@ -61181,17 +61187,17 @@
       <c r="F1564" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1564" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1564" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1564" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1564" t="e">
-        <v>#N/A</v>
+      <c r="G1564" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H1564" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>3667</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1565">
@@ -61213,17 +61219,17 @@
       <c r="F1565" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1565" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1565" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1565" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1565" t="e">
-        <v>#N/A</v>
+      <c r="G1565" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1565" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>3662</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1566">
@@ -61245,17 +61251,17 @@
       <c r="F1566" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1566" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1566" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1566" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1566" t="e">
-        <v>#N/A</v>
+      <c r="G1566" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H1566" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1567">
@@ -61277,17 +61283,17 @@
       <c r="F1567" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1567" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1567" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1567" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1567" t="e">
-        <v>#N/A</v>
+      <c r="G1567" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>3673</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1568">
@@ -61309,17 +61315,17 @@
       <c r="F1568" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1568" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1568" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1568" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1568" t="e">
-        <v>#N/A</v>
+      <c r="G1568" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H1568" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I1568" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1569">
@@ -61341,17 +61347,17 @@
       <c r="F1569" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1569" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1569" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1569" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1569" t="e">
-        <v>#N/A</v>
+      <c r="G1569" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H1569" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I1569" t="s">
+        <v>3664</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1570">
@@ -61373,17 +61379,17 @@
       <c r="F1570" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1570" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1570" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1570" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1570" t="e">
-        <v>#N/A</v>
+      <c r="G1570" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H1570" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1571">
@@ -61405,17 +61411,17 @@
       <c r="F1571" t="n" s="2">
         <v>44492.0</v>
       </c>
-      <c r="G1571" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1571" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1571" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1571" t="e">
-        <v>#N/A</v>
+      <c r="G1571" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H1571" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1572">
@@ -61437,17 +61443,17 @@
       <c r="F1572" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1572" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1572" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1572" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1572" t="e">
-        <v>#N/A</v>
+      <c r="G1572" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1573">
@@ -61469,17 +61475,17 @@
       <c r="F1573" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1573" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1573" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1573" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1573" t="e">
-        <v>#N/A</v>
+      <c r="G1573" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H1573" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1574">
@@ -61501,17 +61507,17 @@
       <c r="F1574" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1574" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1574" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1574" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1574" t="e">
-        <v>#N/A</v>
+      <c r="G1574" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H1574" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1575">
@@ -61533,17 +61539,17 @@
       <c r="F1575" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1575" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1575" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1575" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1575" t="e">
-        <v>#N/A</v>
+      <c r="G1575" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H1575" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1576">
@@ -61565,17 +61571,17 @@
       <c r="F1576" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1576" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1576" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1576" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1576" t="e">
-        <v>#N/A</v>
+      <c r="G1576" t="s">
+        <v>1858</v>
+      </c>
+      <c r="H1576" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1577">
@@ -61597,17 +61603,17 @@
       <c r="F1577" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1577" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1577" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1577" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1577" t="e">
-        <v>#N/A</v>
+      <c r="G1577" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H1577" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1578">
@@ -61629,17 +61635,17 @@
       <c r="F1578" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1578" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1578" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1578" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1578" t="e">
-        <v>#N/A</v>
+      <c r="G1578" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H1578" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1579">
@@ -61661,17 +61667,17 @@
       <c r="F1579" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1579" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1579" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1579" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1579" t="e">
-        <v>#N/A</v>
+      <c r="G1579" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H1579" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1580">
@@ -61693,17 +61699,17 @@
       <c r="F1580" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1580" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1580" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1580" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1580" t="e">
-        <v>#N/A</v>
+      <c r="G1580" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H1580" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1581">
@@ -61725,17 +61731,17 @@
       <c r="F1581" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1581" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1581" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1581" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1581" t="e">
-        <v>#N/A</v>
+      <c r="G1581" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H1581" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1582">
@@ -61757,17 +61763,17 @@
       <c r="F1582" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1582" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1582" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1582" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1582" t="e">
-        <v>#N/A</v>
+      <c r="G1582" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1583">
@@ -61789,17 +61795,17 @@
       <c r="F1583" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1583" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1583" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1583" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1583" t="e">
-        <v>#N/A</v>
+      <c r="G1583" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H1583" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1584">
@@ -61821,17 +61827,17 @@
       <c r="F1584" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1584" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1584" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1584" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1584" t="e">
-        <v>#N/A</v>
+      <c r="G1584" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H1584" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1585">
@@ -61853,17 +61859,17 @@
       <c r="F1585" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1585" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1585" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1585" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1585" t="e">
-        <v>#N/A</v>
+      <c r="G1585" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H1585" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1586">
@@ -61885,17 +61891,17 @@
       <c r="F1586" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1586" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1586" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1586" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1586" t="e">
-        <v>#N/A</v>
+      <c r="G1586" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H1586" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1587">
@@ -61917,17 +61923,17 @@
       <c r="F1587" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1587" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1587" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1587" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1587" t="e">
-        <v>#N/A</v>
+      <c r="G1587" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1588">
@@ -61949,17 +61955,17 @@
       <c r="F1588" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1588" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1588" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1588" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1588" t="e">
-        <v>#N/A</v>
+      <c r="G1588" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1589">
@@ -61981,17 +61987,17 @@
       <c r="F1589" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1589" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1589" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1589" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1589" t="e">
-        <v>#N/A</v>
+      <c r="G1589" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1590">
@@ -62013,17 +62019,17 @@
       <c r="F1590" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1590" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1590" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1590" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1590" t="e">
-        <v>#N/A</v>
+      <c r="G1590" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1591">
@@ -62045,17 +62051,17 @@
       <c r="F1591" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1591" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1591" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1591" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1591" t="e">
-        <v>#N/A</v>
+      <c r="G1591" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1592">
@@ -62077,17 +62083,17 @@
       <c r="F1592" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1592" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1592" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1592" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1592" t="e">
-        <v>#N/A</v>
+      <c r="G1592" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1593">
@@ -62109,17 +62115,17 @@
       <c r="F1593" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1593" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1593" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1593" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1593" t="e">
-        <v>#N/A</v>
+      <c r="G1593" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H1593" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1594">
@@ -62141,17 +62147,17 @@
       <c r="F1594" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1594" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1594" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1594" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1594" t="e">
-        <v>#N/A</v>
+      <c r="G1594" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H1594" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I1594" t="s">
+        <v>3662</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1595">
@@ -62173,17 +62179,17 @@
       <c r="F1595" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1595" t="e">
-        <v>#N/A</v>
+      <c r="G1595" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H1595" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1596">
@@ -62205,17 +62211,17 @@
       <c r="F1596" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1596" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1596" t="e">
-        <v>#N/A</v>
+      <c r="G1596" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H1596" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1597">
@@ -62237,17 +62243,17 @@
       <c r="F1597" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1597" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1597" t="e">
-        <v>#N/A</v>
+      <c r="G1597" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H1597" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I1597" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1598">
@@ -62269,17 +62275,17 @@
       <c r="F1598" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1598" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1598" t="e">
-        <v>#N/A</v>
+      <c r="G1598" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H1598" t="s">
+        <v>1903</v>
+      </c>
+      <c r="I1598" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1599">
@@ -62301,17 +62307,17 @@
       <c r="F1599" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1599" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1599" t="e">
-        <v>#N/A</v>
+      <c r="G1599" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H1599" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I1599" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1600">
@@ -62333,17 +62339,17 @@
       <c r="F1600" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1600" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1600" t="e">
-        <v>#N/A</v>
+      <c r="G1600" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H1600" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I1600" t="s">
+        <v>3664</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1601">
@@ -62365,17 +62371,17 @@
       <c r="F1601" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1601" t="e">
-        <v>#N/A</v>
+      <c r="G1601" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H1601" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I1601" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1602">
@@ -62397,17 +62403,17 @@
       <c r="F1602" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1602" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1602" t="e">
-        <v>#N/A</v>
+      <c r="G1602" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H1602" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I1602" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1603">
@@ -62429,17 +62435,17 @@
       <c r="F1603" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1603" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1603" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1603" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1603" t="e">
-        <v>#N/A</v>
+      <c r="G1603" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H1603" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I1603" t="s">
+        <v>3674</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1604">
@@ -62493,17 +62499,17 @@
       <c r="F1605" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1605" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1605" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1605" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1605" t="e">
-        <v>#N/A</v>
+      <c r="G1605" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H1605" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I1605" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1606">
@@ -62525,17 +62531,17 @@
       <c r="F1606" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1606" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1606" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1606" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1606" t="e">
-        <v>#N/A</v>
+      <c r="G1606" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H1606" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I1606" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1607">
@@ -62557,17 +62563,17 @@
       <c r="F1607" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1607" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1607" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1607" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1607" t="e">
-        <v>#N/A</v>
+      <c r="G1607" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I1607" t="s">
+        <v>3676</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="1608">
@@ -62589,17 +62595,17 @@
       <c r="F1608" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1608" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1608" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1608" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1608" t="e">
-        <v>#N/A</v>
+      <c r="G1608" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H1608" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I1608" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1609">
@@ -62621,17 +62627,17 @@
       <c r="F1609" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1609" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1609" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1609" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1609" t="e">
-        <v>#N/A</v>
+      <c r="G1609" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H1609" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I1609" t="s">
+        <v>3682</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="1610">
@@ -62653,17 +62659,17 @@
       <c r="F1610" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1610" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1610" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1610" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1610" t="e">
-        <v>#N/A</v>
+      <c r="G1610" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H1610" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I1610" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1611">
@@ -62685,17 +62691,17 @@
       <c r="F1611" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1611" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1611" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1611" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1611" t="e">
-        <v>#N/A</v>
+      <c r="G1611" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H1611" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I1611" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1612">
@@ -62717,17 +62723,17 @@
       <c r="F1612" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1612" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1612" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1612" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1612" t="e">
-        <v>#N/A</v>
+      <c r="G1612" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I1612" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1613">
@@ -62749,17 +62755,17 @@
       <c r="F1613" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1613" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1613" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1613" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1613" t="e">
-        <v>#N/A</v>
+      <c r="G1613" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H1613" t="s">
+        <v>1822</v>
+      </c>
+      <c r="I1613" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1614">
@@ -62781,17 +62787,17 @@
       <c r="F1614" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1614" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1614" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1614" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1614" t="e">
-        <v>#N/A</v>
+      <c r="G1614" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H1614" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I1614" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1615">
@@ -62813,17 +62819,17 @@
       <c r="F1615" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1615" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1615" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1615" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1615" t="e">
-        <v>#N/A</v>
+      <c r="G1615" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I1615" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1616">
@@ -62845,17 +62851,17 @@
       <c r="F1616" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1616" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1616" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1616" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1616" t="e">
-        <v>#N/A</v>
+      <c r="G1616" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I1616" t="s">
+        <v>3688</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1617">
@@ -62877,17 +62883,17 @@
       <c r="F1617" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1617" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1617" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1617" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1617" t="e">
-        <v>#N/A</v>
+      <c r="G1617" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H1617" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I1617" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1618">
@@ -62909,17 +62915,17 @@
       <c r="F1618" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1618" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1618" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1618" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1618" t="e">
-        <v>#N/A</v>
+      <c r="G1618" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H1618" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I1618" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1619">
@@ -62941,17 +62947,17 @@
       <c r="F1619" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1619" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1619" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1619" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1619" t="e">
-        <v>#N/A</v>
+      <c r="G1619" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H1619" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I1619" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1620">
@@ -62973,17 +62979,17 @@
       <c r="F1620" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1620" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1620" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1620" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1620" t="e">
-        <v>#N/A</v>
+      <c r="G1620" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H1620" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I1620" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1621">
@@ -63005,17 +63011,17 @@
       <c r="F1621" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1621" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1621" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1621" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1621" t="e">
-        <v>#N/A</v>
+      <c r="G1621" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H1621" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I1621" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1622">
@@ -63037,17 +63043,17 @@
       <c r="F1622" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1622" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1622" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1622" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1622" t="e">
-        <v>#N/A</v>
+      <c r="G1622" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H1622" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I1622" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1623">
@@ -63069,17 +63075,17 @@
       <c r="F1623" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1623" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1623" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1623" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1623" t="e">
-        <v>#N/A</v>
+      <c r="G1623" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H1623" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I1623" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1624">
@@ -63101,17 +63107,17 @@
       <c r="F1624" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1624" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1624" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1624" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1624" t="e">
-        <v>#N/A</v>
+      <c r="G1624" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H1624" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I1624" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1625">
@@ -63133,17 +63139,17 @@
       <c r="F1625" t="n" s="2">
         <v>44493.0</v>
       </c>
-      <c r="G1625" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1625" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1625" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1625" t="e">
-        <v>#N/A</v>
+      <c r="G1625" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H1625" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I1625" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1626">
@@ -63165,17 +63171,17 @@
       <c r="F1626" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1626" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1626" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1626" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1626" t="e">
-        <v>#N/A</v>
+      <c r="G1626" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H1626" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I1626" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1627">
@@ -63197,17 +63203,17 @@
       <c r="F1627" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1627" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1627" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1627" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1627" t="e">
-        <v>#N/A</v>
+      <c r="G1627" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1627" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I1627" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1628">
@@ -63229,17 +63235,17 @@
       <c r="F1628" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1628" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1628" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1628" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1628" t="e">
-        <v>#N/A</v>
+      <c r="G1628" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H1628" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I1628" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1629">
@@ -63261,17 +63267,17 @@
       <c r="F1629" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1629" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1629" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1629" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1629" t="e">
-        <v>#N/A</v>
+      <c r="G1629" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H1629" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I1629" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1630">
@@ -63293,17 +63299,17 @@
       <c r="F1630" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1630" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1630" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1630" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1630" t="e">
-        <v>#N/A</v>
+      <c r="G1630" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H1630" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I1630" t="s">
+        <v>3664</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1631">
@@ -63325,17 +63331,17 @@
       <c r="F1631" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1631" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1631" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1631" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1631" t="e">
-        <v>#N/A</v>
+      <c r="G1631" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1631" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I1631" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1632">
@@ -63357,17 +63363,17 @@
       <c r="F1632" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1632" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1632" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1632" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1632" t="e">
-        <v>#N/A</v>
+      <c r="G1632" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H1632" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I1632" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1633">
@@ -63389,17 +63395,17 @@
       <c r="F1633" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1633" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1633" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1633" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1633" t="e">
-        <v>#N/A</v>
+      <c r="G1633" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H1633" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I1633" t="s">
+        <v>3694</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="1634">
@@ -63421,17 +63427,17 @@
       <c r="F1634" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1634" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1634" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1634" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1634" t="e">
-        <v>#N/A</v>
+      <c r="G1634" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H1634" t="s">
+        <v>1892</v>
+      </c>
+      <c r="I1634" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1635">
@@ -63453,17 +63459,17 @@
       <c r="F1635" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1635" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1635" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1635" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1635" t="e">
-        <v>#N/A</v>
+      <c r="G1635" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H1635" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I1635" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1636">
@@ -63485,17 +63491,17 @@
       <c r="F1636" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1636" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1636" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1636" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1636" t="e">
-        <v>#N/A</v>
+      <c r="G1636" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H1636" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I1636" t="s">
+        <v>3685</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="1637">
@@ -63517,17 +63523,17 @@
       <c r="F1637" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1637" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1637" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1637" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1637" t="e">
-        <v>#N/A</v>
+      <c r="G1637" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H1637" t="s">
+        <v>1815</v>
+      </c>
+      <c r="I1637" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1638">
@@ -63549,17 +63555,17 @@
       <c r="F1638" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1638" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1638" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1638" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1638" t="e">
-        <v>#N/A</v>
+      <c r="G1638" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H1638" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1639">
@@ -63581,17 +63587,17 @@
       <c r="F1639" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1639" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1639" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1639" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1639" t="e">
-        <v>#N/A</v>
+      <c r="G1639" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H1639" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I1639" t="s">
+        <v>3666</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1640">
@@ -63613,17 +63619,17 @@
       <c r="F1640" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1640" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1640" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1640" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1640" t="e">
-        <v>#N/A</v>
+      <c r="G1640" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H1640" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I1640" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1641">
@@ -63645,17 +63651,17 @@
       <c r="F1641" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1641" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1641" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1641" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1641" t="e">
-        <v>#N/A</v>
+      <c r="G1641" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H1641" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I1641" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1642">
@@ -63677,17 +63683,17 @@
       <c r="F1642" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1642" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1642" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1642" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1642" t="e">
-        <v>#N/A</v>
+      <c r="G1642" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H1642" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I1642" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1643">
@@ -63709,17 +63715,17 @@
       <c r="F1643" t="n" s="2">
         <v>44494.0</v>
       </c>
-      <c r="G1643" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1643" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1643" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1643" t="e">
-        <v>#N/A</v>
+      <c r="G1643" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H1643" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I1643" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1644">
@@ -63741,17 +63747,17 @@
       <c r="F1644" t="n" s="2">
         <v>44495.0</v>
       </c>
-      <c r="G1644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1644" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1644" t="e">
-        <v>#N/A</v>
+      <c r="G1644" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H1644" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I1644" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1645">
@@ -63773,17 +63779,17 @@
       <c r="F1645" t="n" s="2">
         <v>44495.0</v>
       </c>
-      <c r="G1645" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1645" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1645" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1645" t="e">
-        <v>#N/A</v>
+      <c r="G1645" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H1645" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I1645" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1646">
@@ -63805,17 +63811,17 @@
       <c r="F1646" t="n" s="2">
         <v>44495.0</v>
       </c>
-      <c r="G1646" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1646" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1646" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1646" t="e">
-        <v>#N/A</v>
+      <c r="G1646" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H1646" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I1646" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1647">
@@ -63837,17 +63843,17 @@
       <c r="F1647" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1647" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1647" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1647" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1647" t="e">
-        <v>#N/A</v>
+      <c r="G1647" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H1647" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I1647" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1648">
@@ -63869,17 +63875,17 @@
       <c r="F1648" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1648" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1648" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1648" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1648" t="e">
-        <v>#N/A</v>
+      <c r="G1648" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H1648" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I1648" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1649">
@@ -63901,17 +63907,17 @@
       <c r="F1649" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1649" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1649" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1649" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1649" t="e">
-        <v>#N/A</v>
+      <c r="G1649" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H1649" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I1649" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1650">
@@ -63933,17 +63939,17 @@
       <c r="F1650" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1650" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1650" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1650" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1650" t="e">
-        <v>#N/A</v>
+      <c r="G1650" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H1650" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I1650" t="s">
+        <v>3678</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="1651">
@@ -63965,17 +63971,17 @@
       <c r="F1651" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1651" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1651" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1651" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1651" t="e">
-        <v>#N/A</v>
+      <c r="G1651" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H1651" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I1651" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1652">
@@ -63997,17 +64003,17 @@
       <c r="F1652" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1652" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1652" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1652" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1652" t="e">
-        <v>#N/A</v>
+      <c r="G1652" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H1652" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I1652" t="s">
+        <v>3677</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="1653">
@@ -64029,17 +64035,17 @@
       <c r="F1653" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1653" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1653" t="e">
-        <v>#N/A</v>
+      <c r="G1653" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H1653" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I1653" t="s">
+        <v>3666</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1654">
@@ -64061,17 +64067,17 @@
       <c r="F1654" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1654" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1654" t="e">
-        <v>#N/A</v>
+      <c r="G1654" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1654" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I1654" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1655">
@@ -64093,17 +64099,17 @@
       <c r="F1655" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1655" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1655" t="e">
-        <v>#N/A</v>
+      <c r="G1655" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H1655" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I1655" t="s">
+        <v>3658</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1656">
@@ -64125,17 +64131,17 @@
       <c r="F1656" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1656" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1656" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1656" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1656" t="e">
-        <v>#N/A</v>
+      <c r="G1656" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H1656" t="s">
+        <v>1907</v>
+      </c>
+      <c r="I1656" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1657">
@@ -64157,17 +64163,17 @@
       <c r="F1657" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1657" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1657" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1657" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1657" t="e">
-        <v>#N/A</v>
+      <c r="G1657" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H1657" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I1657" t="s">
+        <v>3675</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1658">
@@ -64189,17 +64195,17 @@
       <c r="F1658" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1658" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1658" t="e">
-        <v>#N/A</v>
+      <c r="G1658" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H1658" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1658" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1659">
@@ -64221,17 +64227,17 @@
       <c r="F1659" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1659" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1659" t="e">
-        <v>#N/A</v>
+      <c r="G1659" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>1941</v>
+      </c>
+      <c r="I1659" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1660">
@@ -64253,17 +64259,17 @@
       <c r="F1660" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1660" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1660" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1660" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1660" t="e">
-        <v>#N/A</v>
+      <c r="G1660" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H1660" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1661">
@@ -64285,17 +64291,17 @@
       <c r="F1661" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1661" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1661" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1661" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1661" t="e">
-        <v>#N/A</v>
+      <c r="G1661" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H1661" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I1661" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1662">
@@ -64317,17 +64323,17 @@
       <c r="F1662" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1662" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1662" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1662" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1662" t="e">
-        <v>#N/A</v>
+      <c r="G1662" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H1662" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I1662" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1663">
@@ -64349,17 +64355,17 @@
       <c r="F1663" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1663" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1663" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1663" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1663" t="e">
-        <v>#N/A</v>
+      <c r="G1663" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H1663" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I1663" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1664">
@@ -64381,17 +64387,17 @@
       <c r="F1664" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1664" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1664" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1664" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1664" t="e">
-        <v>#N/A</v>
+      <c r="G1664" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1664" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I1664" t="s">
+        <v>3659</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1665">
@@ -64413,17 +64419,17 @@
       <c r="F1665" t="n" s="2">
         <v>44496.0</v>
       </c>
-      <c r="G1665" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1665" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1665" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1665" t="e">
-        <v>#N/A</v>
+      <c r="G1665" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H1665" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I1665" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1666">
@@ -64445,17 +64451,17 @@
       <c r="F1666" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1666" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1666" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1666" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1666" t="e">
-        <v>#N/A</v>
+      <c r="G1666" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H1666" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I1666" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1667">
@@ -64477,17 +64483,17 @@
       <c r="F1667" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1667" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1667" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1667" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1667" t="e">
-        <v>#N/A</v>
+      <c r="G1667" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H1667" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1667" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1668">
@@ -64509,17 +64515,17 @@
       <c r="F1668" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1668" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1668" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1668" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1668" t="e">
-        <v>#N/A</v>
+      <c r="G1668" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H1668" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I1668" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1669">
@@ -64541,17 +64547,17 @@
       <c r="F1669" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1669" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1669" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1669" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1669" t="e">
-        <v>#N/A</v>
+      <c r="G1669" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H1669" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I1669" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1670">
@@ -64573,17 +64579,17 @@
       <c r="F1670" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1670" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1670" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1670" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1670" t="e">
-        <v>#N/A</v>
+      <c r="G1670" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H1670" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I1670" t="s">
+        <v>3671</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1671">
@@ -64605,17 +64611,17 @@
       <c r="F1671" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1671" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1671" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1671" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1671" t="e">
-        <v>#N/A</v>
+      <c r="G1671" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H1671" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I1671" t="s">
+        <v>3657</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1672">
@@ -64637,17 +64643,17 @@
       <c r="F1672" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1672" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1672" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1672" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1672" t="e">
-        <v>#N/A</v>
+      <c r="G1672" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H1672" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1673">
@@ -64669,17 +64675,17 @@
       <c r="F1673" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1673" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1673" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1673" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1673" t="e">
-        <v>#N/A</v>
+      <c r="G1673" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1673" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I1673" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1674">
@@ -64701,17 +64707,17 @@
       <c r="F1674" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1674" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1674" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1674" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1674" t="e">
-        <v>#N/A</v>
+      <c r="G1674" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H1674" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1674" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1675">
@@ -64733,17 +64739,17 @@
       <c r="F1675" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1675" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1675" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1675" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1675" t="e">
-        <v>#N/A</v>
+      <c r="G1675" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H1675" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I1675" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="1676">
@@ -64765,17 +64771,17 @@
       <c r="F1676" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1676" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1676" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1676" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1676" t="e">
-        <v>#N/A</v>
+      <c r="G1676" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H1676" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I1676" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1677">
@@ -64797,17 +64803,17 @@
       <c r="F1677" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1677" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1677" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1677" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1677" t="e">
-        <v>#N/A</v>
+      <c r="G1677" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H1677" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>3695</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="1678">
@@ -64829,17 +64835,17 @@
       <c r="F1678" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1678" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1678" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1678" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1678" t="e">
-        <v>#N/A</v>
+      <c r="G1678" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H1678" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I1678" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1679">
@@ -64861,17 +64867,17 @@
       <c r="F1679" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1679" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1679" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1679" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1679" t="e">
-        <v>#N/A</v>
+      <c r="G1679" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H1679" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I1679" t="s">
+        <v>3656</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="1680">
@@ -64893,17 +64899,17 @@
       <c r="F1680" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1680" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1680" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1680" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1680" t="e">
-        <v>#N/A</v>
+      <c r="G1680" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H1680" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I1680" t="s">
+        <v>3668</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1681">
@@ -64925,17 +64931,17 @@
       <c r="F1681" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1681" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1681" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1681" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1681" t="e">
-        <v>#N/A</v>
+      <c r="G1681" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H1681" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I1681" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1682">
@@ -64957,17 +64963,17 @@
       <c r="F1682" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1682" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1682" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1682" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1682" t="e">
-        <v>#N/A</v>
+      <c r="G1682" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H1682" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I1682" t="s">
+        <v>3663</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1683">
@@ -64989,17 +64995,17 @@
       <c r="F1683" t="n" s="2">
         <v>44497.0</v>
       </c>
-      <c r="G1683" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1683" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1683" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1683" t="e">
-        <v>#N/A</v>
+      <c r="G1683" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H1683" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I1683" t="s">
+        <v>3670</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="1684">
@@ -65021,17 +65027,17 @@
       <c r="F1684" t="n" s="2">
         <v>44498.0</v>
       </c>
-      <c r="G1684" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H1684" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I1684" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J1684" t="e">
-        <v>#N/A</v>
+      <c r="G1684" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H1684" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I1684" t="s">
+        <v>3660</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18832" uniqueCount="5133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19018" uniqueCount="5133">
   <si>
     <t>HT</t>
   </si>
@@ -90202,17 +90202,17 @@
       <c r="F2336" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2336" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2336" t="e">
-        <v>#N/A</v>
+      <c r="G2336" t="s">
+        <v>2583</v>
+      </c>
+      <c r="H2336" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I2336" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J2336" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2337">
@@ -90234,17 +90234,17 @@
       <c r="F2337" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2337" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2337" t="e">
-        <v>#N/A</v>
+      <c r="G2337" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H2337" t="s">
+        <v>2437</v>
+      </c>
+      <c r="I2337" t="s">
+        <v>5092</v>
+      </c>
+      <c r="J2337" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2338">
@@ -90266,17 +90266,17 @@
       <c r="F2338" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2338" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2338" t="e">
-        <v>#N/A</v>
+      <c r="G2338" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H2338" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I2338" t="s">
+        <v>5092</v>
+      </c>
+      <c r="J2338" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2339">
@@ -90298,17 +90298,17 @@
       <c r="F2339" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2339" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2339" t="e">
-        <v>#N/A</v>
+      <c r="G2339" t="s">
+        <v>2608</v>
+      </c>
+      <c r="H2339" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I2339" t="s">
+        <v>5089</v>
+      </c>
+      <c r="J2339" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2340">
@@ -90330,17 +90330,17 @@
       <c r="F2340" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2340" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2340" t="e">
-        <v>#N/A</v>
+      <c r="G2340" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H2340" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I2340" t="s">
+        <v>5093</v>
+      </c>
+      <c r="J2340" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2341">
@@ -90362,17 +90362,17 @@
       <c r="F2341" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2341" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2341" t="e">
-        <v>#N/A</v>
+      <c r="G2341" t="s">
+        <v>2641</v>
+      </c>
+      <c r="H2341" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I2341" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2341" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2342">
@@ -90394,17 +90394,17 @@
       <c r="F2342" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2342" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2342" t="e">
-        <v>#N/A</v>
+      <c r="G2342" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H2342" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I2342" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2342" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2343">
@@ -90426,17 +90426,17 @@
       <c r="F2343" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2343" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2343" t="e">
-        <v>#N/A</v>
+      <c r="G2343" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H2343" t="s">
+        <v>2460</v>
+      </c>
+      <c r="I2343" t="s">
+        <v>5128</v>
+      </c>
+      <c r="J2343" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="2344">
@@ -90458,17 +90458,17 @@
       <c r="F2344" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2344" t="e">
-        <v>#N/A</v>
+      <c r="G2344" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H2344" t="s">
+        <v>2679</v>
+      </c>
+      <c r="I2344" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2344" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2345">
@@ -90490,17 +90490,17 @@
       <c r="F2345" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2345" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2345" t="e">
-        <v>#N/A</v>
+      <c r="G2345" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H2345" t="s">
+        <v>2565</v>
+      </c>
+      <c r="I2345" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J2345" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2346">
@@ -90522,17 +90522,17 @@
       <c r="F2346" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2346" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2346" t="e">
-        <v>#N/A</v>
+      <c r="G2346" t="s">
+        <v>2436</v>
+      </c>
+      <c r="H2346" t="s">
+        <v>2564</v>
+      </c>
+      <c r="I2346" t="s">
+        <v>5101</v>
+      </c>
+      <c r="J2346" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2347">
@@ -90554,17 +90554,17 @@
       <c r="F2347" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2347" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2347" t="e">
-        <v>#N/A</v>
+      <c r="G2347" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H2347" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I2347" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2347" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2348">
@@ -90586,17 +90586,17 @@
       <c r="F2348" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2348" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2348" t="e">
-        <v>#N/A</v>
+      <c r="G2348" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H2348" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I2348" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2348" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2349">
@@ -90618,17 +90618,17 @@
       <c r="F2349" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2349" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2349" t="e">
-        <v>#N/A</v>
+      <c r="G2349" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H2349" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I2349" t="s">
+        <v>5096</v>
+      </c>
+      <c r="J2349" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2350">
@@ -90650,17 +90650,17 @@
       <c r="F2350" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2350" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2350" t="e">
-        <v>#N/A</v>
+      <c r="G2350" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H2350" t="s">
+        <v>2536</v>
+      </c>
+      <c r="I2350" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2350" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2351">
@@ -90682,17 +90682,17 @@
       <c r="F2351" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2351" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2351" t="e">
-        <v>#N/A</v>
+      <c r="G2351" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H2351" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I2351" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2351" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2352">
@@ -90714,17 +90714,17 @@
       <c r="F2352" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2352" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2352" t="e">
-        <v>#N/A</v>
+      <c r="G2352" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H2352" t="s">
+        <v>2462</v>
+      </c>
+      <c r="I2352" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2352" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2353">
@@ -90746,17 +90746,17 @@
       <c r="F2353" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2353" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2353" t="e">
-        <v>#N/A</v>
+      <c r="G2353" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H2353" t="s">
+        <v>2423</v>
+      </c>
+      <c r="I2353" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2353" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2354">
@@ -90778,17 +90778,17 @@
       <c r="F2354" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2354" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2354" t="e">
-        <v>#N/A</v>
+      <c r="G2354" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H2354" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I2354" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J2354" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2355">
@@ -90810,17 +90810,17 @@
       <c r="F2355" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2355" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2355" t="e">
-        <v>#N/A</v>
+      <c r="G2355" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H2355" t="s">
+        <v>2503</v>
+      </c>
+      <c r="I2355" t="s">
+        <v>5100</v>
+      </c>
+      <c r="J2355" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2356">
@@ -90842,17 +90842,17 @@
       <c r="F2356" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2356" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2356" t="e">
-        <v>#N/A</v>
+      <c r="G2356" t="s">
+        <v>2411</v>
+      </c>
+      <c r="H2356" t="s">
+        <v>2552</v>
+      </c>
+      <c r="I2356" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2356" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2357">
@@ -90874,17 +90874,17 @@
       <c r="F2357" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2357" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2357" t="e">
-        <v>#N/A</v>
+      <c r="G2357" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H2357" t="s">
+        <v>2584</v>
+      </c>
+      <c r="I2357" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J2357" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2358">
@@ -90906,17 +90906,17 @@
       <c r="F2358" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2358" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2358" t="e">
-        <v>#N/A</v>
+      <c r="G2358" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H2358" t="s">
+        <v>2408</v>
+      </c>
+      <c r="I2358" t="s">
+        <v>5105</v>
+      </c>
+      <c r="J2358" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2359">
@@ -90938,17 +90938,17 @@
       <c r="F2359" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2359" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2359" t="e">
-        <v>#N/A</v>
+      <c r="G2359" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H2359" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I2359" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J2359" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2360">
@@ -90970,17 +90970,17 @@
       <c r="F2360" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2360" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2360" t="e">
-        <v>#N/A</v>
+      <c r="G2360" t="s">
+        <v>2437</v>
+      </c>
+      <c r="H2360" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I2360" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2360" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2361">
@@ -91002,17 +91002,17 @@
       <c r="F2361" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2361" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2361" t="e">
-        <v>#N/A</v>
+      <c r="G2361" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H2361" t="s">
+        <v>2424</v>
+      </c>
+      <c r="I2361" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J2361" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2362">
@@ -91034,17 +91034,17 @@
       <c r="F2362" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2362" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2362" t="e">
-        <v>#N/A</v>
+      <c r="G2362" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H2362" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I2362" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J2362" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2363">
@@ -91066,17 +91066,17 @@
       <c r="F2363" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2363" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2363" t="e">
-        <v>#N/A</v>
+      <c r="G2363" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H2363" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I2363" t="s">
+        <v>5108</v>
+      </c>
+      <c r="J2363" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2364">
@@ -91098,17 +91098,17 @@
       <c r="F2364" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2364" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2364" t="e">
-        <v>#N/A</v>
+      <c r="G2364" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H2364" t="s">
+        <v>2641</v>
+      </c>
+      <c r="I2364" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2364" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2365">
@@ -91130,17 +91130,17 @@
       <c r="F2365" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2365" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2365" t="e">
-        <v>#N/A</v>
+      <c r="G2365" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H2365" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I2365" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2365" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2366">
@@ -91162,17 +91162,17 @@
       <c r="F2366" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2366" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2366" t="e">
-        <v>#N/A</v>
+      <c r="G2366" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H2366" t="s">
+        <v>2529</v>
+      </c>
+      <c r="I2366" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2366" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2367">
@@ -91194,17 +91194,17 @@
       <c r="F2367" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2367" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2367" t="e">
-        <v>#N/A</v>
+      <c r="G2367" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H2367" t="s">
+        <v>2530</v>
+      </c>
+      <c r="I2367" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J2367" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2368">
@@ -91226,17 +91226,17 @@
       <c r="F2368" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2368" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2368" t="e">
-        <v>#N/A</v>
+      <c r="G2368" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H2368" t="s">
+        <v>2435</v>
+      </c>
+      <c r="I2368" t="s">
+        <v>5109</v>
+      </c>
+      <c r="J2368" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2369">
@@ -91258,17 +91258,17 @@
       <c r="F2369" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2369" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2369" t="e">
-        <v>#N/A</v>
+      <c r="G2369" t="s">
+        <v>2566</v>
+      </c>
+      <c r="H2369" t="s">
+        <v>2531</v>
+      </c>
+      <c r="I2369" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2369" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2370">
@@ -91290,17 +91290,17 @@
       <c r="F2370" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2370" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2370" t="e">
-        <v>#N/A</v>
+      <c r="G2370" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H2370" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I2370" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2370" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2371">
@@ -91322,17 +91322,17 @@
       <c r="F2371" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2371" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2371" t="e">
-        <v>#N/A</v>
+      <c r="G2371" t="s">
+        <v>2587</v>
+      </c>
+      <c r="H2371" t="s">
+        <v>2535</v>
+      </c>
+      <c r="I2371" t="s">
+        <v>5096</v>
+      </c>
+      <c r="J2371" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2372">
@@ -91354,17 +91354,17 @@
       <c r="F2372" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2372" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2372" t="e">
-        <v>#N/A</v>
+      <c r="G2372" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H2372" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I2372" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J2372" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2373">
@@ -91386,17 +91386,17 @@
       <c r="F2373" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2373" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2373" t="e">
-        <v>#N/A</v>
+      <c r="G2373" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H2373" t="s">
+        <v>2564</v>
+      </c>
+      <c r="I2373" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2373" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2374">
@@ -91418,17 +91418,17 @@
       <c r="F2374" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2374" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2374" t="e">
-        <v>#N/A</v>
+      <c r="G2374" t="s">
+        <v>2409</v>
+      </c>
+      <c r="H2374" t="s">
+        <v>2565</v>
+      </c>
+      <c r="I2374" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2374" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2375">
@@ -91450,17 +91450,17 @@
       <c r="F2375" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2375" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2375" t="e">
-        <v>#N/A</v>
+      <c r="G2375" t="s">
+        <v>2436</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I2375" t="s">
+        <v>5100</v>
+      </c>
+      <c r="J2375" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2376">
@@ -91482,17 +91482,17 @@
       <c r="F2376" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2376" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2376" t="e">
-        <v>#N/A</v>
+      <c r="G2376" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H2376" t="s">
+        <v>2502</v>
+      </c>
+      <c r="I2376" t="s">
+        <v>5093</v>
+      </c>
+      <c r="J2376" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2377">
@@ -91514,17 +91514,17 @@
       <c r="F2377" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2377" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2377" t="e">
-        <v>#N/A</v>
+      <c r="G2377" t="s">
+        <v>2584</v>
+      </c>
+      <c r="H2377" t="s">
+        <v>2410</v>
+      </c>
+      <c r="I2377" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J2377" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2378">
@@ -91546,17 +91546,17 @@
       <c r="F2378" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2378" t="e">
-        <v>#N/A</v>
+      <c r="G2378" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I2378" t="s">
+        <v>5092</v>
+      </c>
+      <c r="J2378" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2379">
@@ -91578,17 +91578,17 @@
       <c r="F2379" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2379" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2379" t="e">
-        <v>#N/A</v>
+      <c r="G2379" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H2379" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I2379" t="s">
+        <v>5114</v>
+      </c>
+      <c r="J2379" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="2380">
@@ -91610,17 +91610,17 @@
       <c r="F2380" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2380" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2380" t="e">
-        <v>#N/A</v>
+      <c r="G2380" t="s">
+        <v>2536</v>
+      </c>
+      <c r="H2380" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I2380" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J2380" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2381">
@@ -91642,17 +91642,17 @@
       <c r="F2381" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2381" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2381" t="e">
-        <v>#N/A</v>
+      <c r="G2381" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H2381" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I2381" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J2381" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2382">
@@ -91674,17 +91674,17 @@
       <c r="F2382" t="n" s="2">
         <v>44550.0</v>
       </c>
-      <c r="G2382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2382" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2382" t="e">
-        <v>#N/A</v>
+      <c r="G2382" t="s">
+        <v>2503</v>
+      </c>
+      <c r="H2382" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I2382" t="s">
+        <v>5092</v>
+      </c>
+      <c r="J2382" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2383">
@@ -91706,17 +91706,17 @@
       <c r="F2383" t="n" s="2">
         <v>44550.0</v>
       </c>
-      <c r="G2383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2383" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2383" t="e">
-        <v>#N/A</v>
+      <c r="G2383" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H2383" t="s">
+        <v>2474</v>
+      </c>
+      <c r="I2383" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J2383" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2384">
@@ -91738,17 +91738,17 @@
       <c r="F2384" t="n" s="2">
         <v>44551.0</v>
       </c>
-      <c r="G2384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2384" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2384" t="e">
-        <v>#N/A</v>
+      <c r="G2384" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H2384" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I2384" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2384" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2385">
@@ -91770,17 +91770,17 @@
       <c r="F2385" t="n" s="2">
         <v>44551.0</v>
       </c>
-      <c r="G2385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2385" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2385" t="e">
-        <v>#N/A</v>
+      <c r="G2385" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H2385" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I2385" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J2385" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2386">
@@ -91802,17 +91802,17 @@
       <c r="F2386" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2386" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2386" t="e">
-        <v>#N/A</v>
+      <c r="G2386" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H2386" t="s">
+        <v>2423</v>
+      </c>
+      <c r="I2386" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J2386" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2387">
@@ -91834,17 +91834,17 @@
       <c r="F2387" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2387" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2387" t="e">
-        <v>#N/A</v>
+      <c r="G2387" t="s">
+        <v>2575</v>
+      </c>
+      <c r="H2387" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I2387" t="s">
+        <v>5091</v>
+      </c>
+      <c r="J2387" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2388">
@@ -91866,17 +91866,17 @@
       <c r="F2388" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2388" t="e">
-        <v>#N/A</v>
+      <c r="G2388" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H2388" t="s">
+        <v>2461</v>
+      </c>
+      <c r="I2388" t="s">
+        <v>5092</v>
+      </c>
+      <c r="J2388" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2389">
@@ -91898,17 +91898,17 @@
       <c r="F2389" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2389" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2389" t="e">
-        <v>#N/A</v>
+      <c r="G2389" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H2389" t="s">
+        <v>2459</v>
+      </c>
+      <c r="I2389" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2389" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2390">
@@ -91930,17 +91930,17 @@
       <c r="F2390" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2390" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2390" t="e">
-        <v>#N/A</v>
+      <c r="G2390" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H2390" t="s">
+        <v>2460</v>
+      </c>
+      <c r="I2390" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J2390" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="2391">
@@ -91962,17 +91962,17 @@
       <c r="F2391" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2391" t="e">
-        <v>#N/A</v>
+      <c r="G2391" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H2391" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I2391" t="s">
+        <v>5093</v>
+      </c>
+      <c r="J2391" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2392">
@@ -91994,17 +91994,17 @@
       <c r="F2392" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2392" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2392" t="e">
-        <v>#N/A</v>
+      <c r="G2392" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H2392" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I2392" t="s">
+        <v>5093</v>
+      </c>
+      <c r="J2392" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2393">
@@ -92026,17 +92026,17 @@
       <c r="F2393" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2393" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2393" t="e">
-        <v>#N/A</v>
+      <c r="G2393" t="s">
+        <v>2641</v>
+      </c>
+      <c r="H2393" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I2393" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J2393" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2394">
@@ -92058,17 +92058,17 @@
       <c r="F2394" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2394" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2394" t="e">
-        <v>#N/A</v>
+      <c r="G2394" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H2394" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I2394" t="s">
+        <v>5104</v>
+      </c>
+      <c r="J2394" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2395">
@@ -92090,17 +92090,17 @@
       <c r="F2395" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2395" t="e">
-        <v>#N/A</v>
+      <c r="G2395" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H2395" t="s">
+        <v>2423</v>
+      </c>
+      <c r="I2395" t="s">
+        <v>5096</v>
+      </c>
+      <c r="J2395" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2396">
@@ -92122,17 +92122,17 @@
       <c r="F2396" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2396" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2396" t="e">
-        <v>#N/A</v>
+      <c r="G2396" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H2396" t="s">
+        <v>2462</v>
+      </c>
+      <c r="I2396" t="s">
+        <v>5088</v>
+      </c>
+      <c r="J2396" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2397">
@@ -92154,17 +92154,17 @@
       <c r="F2397" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H2397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2397" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2397" t="e">
-        <v>#N/A</v>
+      <c r="G2397" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H2397" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I2397" t="s">
+        <v>5097</v>
+      </c>
+      <c r="J2397" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19018" uniqueCount="5133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18835" uniqueCount="5133">
   <si>
     <t>HT</t>
   </si>
@@ -90202,17 +90202,17 @@
       <c r="F2336" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2336" t="s">
-        <v>2583</v>
-      </c>
-      <c r="H2336" t="s">
-        <v>2471</v>
-      </c>
-      <c r="I2336" t="s">
-        <v>5090</v>
-      </c>
-      <c r="J2336" t="n">
-        <v>4.0</v>
+      <c r="G2336" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2336" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2336" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2336" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2337">
@@ -90234,17 +90234,17 @@
       <c r="F2337" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2337" t="s">
-        <v>2438</v>
-      </c>
-      <c r="H2337" t="s">
-        <v>2437</v>
-      </c>
-      <c r="I2337" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2337" t="n">
-        <v>0.0</v>
+      <c r="G2337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2337" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2337" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2338">
@@ -90266,17 +90266,17 @@
       <c r="F2338" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2338" t="s">
-        <v>2531</v>
-      </c>
-      <c r="H2338" t="s">
-        <v>2532</v>
-      </c>
-      <c r="I2338" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2338" t="n">
-        <v>0.0</v>
+      <c r="G2338" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2338" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2338" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2338" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2339">
@@ -90298,17 +90298,17 @@
       <c r="F2339" t="n" s="2">
         <v>44544.0</v>
       </c>
-      <c r="G2339" t="s">
-        <v>2608</v>
-      </c>
-      <c r="H2339" t="s">
-        <v>2672</v>
-      </c>
-      <c r="I2339" t="s">
-        <v>5089</v>
-      </c>
-      <c r="J2339" t="n">
-        <v>4.0</v>
+      <c r="G2339" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2339" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2339" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2339" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2340">
@@ -90330,17 +90330,17 @@
       <c r="F2340" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2340" t="s">
-        <v>2592</v>
-      </c>
-      <c r="H2340" t="s">
-        <v>2574</v>
-      </c>
-      <c r="I2340" t="s">
-        <v>5093</v>
-      </c>
-      <c r="J2340" t="n">
-        <v>1.0</v>
+      <c r="G2340" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2340" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2340" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2340" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2341">
@@ -90362,17 +90362,17 @@
       <c r="F2341" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2341" t="s">
-        <v>2641</v>
-      </c>
-      <c r="H2341" t="s">
-        <v>2674</v>
-      </c>
-      <c r="I2341" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2341" t="n">
-        <v>2.0</v>
+      <c r="G2341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2341" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2341" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2342">
@@ -90394,17 +90394,17 @@
       <c r="F2342" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2342" t="s">
-        <v>2424</v>
-      </c>
-      <c r="H2342" t="s">
-        <v>2595</v>
-      </c>
-      <c r="I2342" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2342" t="n">
-        <v>2.0</v>
+      <c r="G2342" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2342" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2342" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2342" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2343">
@@ -90426,17 +90426,17 @@
       <c r="F2343" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2343" t="s">
-        <v>2673</v>
-      </c>
-      <c r="H2343" t="s">
-        <v>2460</v>
-      </c>
-      <c r="I2343" t="s">
-        <v>5128</v>
-      </c>
-      <c r="J2343" t="n">
-        <v>7.0</v>
+      <c r="G2343" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2343" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2343" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2343" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2344">
@@ -90490,17 +90490,17 @@
       <c r="F2345" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2345" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H2345" t="s">
-        <v>2565</v>
-      </c>
-      <c r="I2345" t="s">
-        <v>5102</v>
-      </c>
-      <c r="J2345" t="n">
-        <v>3.0</v>
+      <c r="G2345" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2345" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2345" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2345" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2346">
@@ -90522,17 +90522,17 @@
       <c r="F2346" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2346" t="s">
-        <v>2436</v>
-      </c>
-      <c r="H2346" t="s">
-        <v>2564</v>
-      </c>
-      <c r="I2346" t="s">
-        <v>5101</v>
-      </c>
-      <c r="J2346" t="n">
-        <v>4.0</v>
+      <c r="G2346" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2346" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2346" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2346" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2347">
@@ -90554,17 +90554,17 @@
       <c r="F2347" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2347" t="s">
-        <v>2599</v>
-      </c>
-      <c r="H2347" t="s">
-        <v>2566</v>
-      </c>
-      <c r="I2347" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2347" t="n">
-        <v>3.0</v>
+      <c r="G2347" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2347" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2347" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2347" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2348">
@@ -90586,17 +90586,17 @@
       <c r="F2348" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2348" t="s">
-        <v>2410</v>
-      </c>
-      <c r="H2348" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I2348" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2348" t="n">
-        <v>2.0</v>
+      <c r="G2348" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2348" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2348" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2348" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2349">
@@ -90618,17 +90618,17 @@
       <c r="F2349" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2349" t="s">
-        <v>2475</v>
-      </c>
-      <c r="H2349" t="s">
-        <v>2567</v>
-      </c>
-      <c r="I2349" t="s">
-        <v>5096</v>
-      </c>
-      <c r="J2349" t="n">
-        <v>4.0</v>
+      <c r="G2349" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2349" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2349" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2349" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2350">
@@ -90650,17 +90650,17 @@
       <c r="F2350" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2350" t="s">
-        <v>2588</v>
-      </c>
-      <c r="H2350" t="s">
-        <v>2536</v>
-      </c>
-      <c r="I2350" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2350" t="n">
-        <v>2.0</v>
+      <c r="G2350" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2350" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2350" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2350" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2351">
@@ -90682,17 +90682,17 @@
       <c r="F2351" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2351" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H2351" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I2351" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2351" t="n">
-        <v>2.0</v>
+      <c r="G2351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2351" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2351" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2352">
@@ -90714,17 +90714,17 @@
       <c r="F2352" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2352" t="s">
-        <v>2422</v>
-      </c>
-      <c r="H2352" t="s">
-        <v>2462</v>
-      </c>
-      <c r="I2352" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2352" t="n">
-        <v>3.0</v>
+      <c r="G2352" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2352" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2352" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2352" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2353">
@@ -90746,17 +90746,17 @@
       <c r="F2353" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2353" t="s">
-        <v>2459</v>
-      </c>
-      <c r="H2353" t="s">
-        <v>2423</v>
-      </c>
-      <c r="I2353" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2353" t="n">
-        <v>2.0</v>
+      <c r="G2353" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2353" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2353" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2353" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2354">
@@ -90778,17 +90778,17 @@
       <c r="F2354" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2354" t="s">
-        <v>2461</v>
-      </c>
-      <c r="H2354" t="s">
-        <v>2425</v>
-      </c>
-      <c r="I2354" t="s">
-        <v>5088</v>
-      </c>
-      <c r="J2354" t="n">
-        <v>1.0</v>
+      <c r="G2354" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2354" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2354" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2354" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2355">
@@ -90810,17 +90810,17 @@
       <c r="F2355" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2355" t="s">
-        <v>2502</v>
-      </c>
-      <c r="H2355" t="s">
-        <v>2503</v>
-      </c>
-      <c r="I2355" t="s">
-        <v>5100</v>
-      </c>
-      <c r="J2355" t="n">
-        <v>3.0</v>
+      <c r="G2355" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2355" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2355" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2355" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2356">
@@ -90842,17 +90842,17 @@
       <c r="F2356" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2356" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H2356" t="s">
-        <v>2552</v>
-      </c>
-      <c r="I2356" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2356" t="n">
-        <v>3.0</v>
+      <c r="G2356" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2356" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2356" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2356" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2357">
@@ -90874,17 +90874,17 @@
       <c r="F2357" t="n" s="2">
         <v>44546.0</v>
       </c>
-      <c r="G2357" t="s">
-        <v>2474</v>
-      </c>
-      <c r="H2357" t="s">
-        <v>2584</v>
-      </c>
-      <c r="I2357" t="s">
-        <v>5094</v>
-      </c>
-      <c r="J2357" t="n">
-        <v>2.0</v>
+      <c r="G2357" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2357" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2357" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2357" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2358">
@@ -90906,17 +90906,17 @@
       <c r="F2358" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2358" t="s">
-        <v>2501</v>
-      </c>
-      <c r="H2358" t="s">
-        <v>2408</v>
-      </c>
-      <c r="I2358" t="s">
-        <v>5105</v>
-      </c>
-      <c r="J2358" t="n">
-        <v>3.0</v>
+      <c r="G2358" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2358" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2358" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2358" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2359">
@@ -90938,17 +90938,17 @@
       <c r="F2359" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2359" t="s">
-        <v>2637</v>
-      </c>
-      <c r="H2359" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I2359" t="s">
-        <v>5088</v>
-      </c>
-      <c r="J2359" t="n">
-        <v>1.0</v>
+      <c r="G2359" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2359" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2359" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2359" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2360">
@@ -90970,17 +90970,17 @@
       <c r="F2360" t="n" s="2">
         <v>44547.0</v>
       </c>
-      <c r="G2360" t="s">
-        <v>2437</v>
-      </c>
-      <c r="H2360" t="s">
-        <v>2532</v>
-      </c>
-      <c r="I2360" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2360" t="n">
-        <v>3.0</v>
+      <c r="G2360" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2360" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2360" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2360" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2361">
@@ -91002,17 +91002,17 @@
       <c r="F2361" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2361" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H2361" t="s">
-        <v>2424</v>
-      </c>
-      <c r="I2361" t="s">
-        <v>5102</v>
-      </c>
-      <c r="J2361" t="n">
-        <v>3.0</v>
+      <c r="G2361" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2361" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2361" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2361" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2362">
@@ -91034,17 +91034,17 @@
       <c r="F2362" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2362" t="s">
-        <v>2674</v>
-      </c>
-      <c r="H2362" t="s">
-        <v>2673</v>
-      </c>
-      <c r="I2362" t="s">
-        <v>5102</v>
-      </c>
-      <c r="J2362" t="n">
-        <v>3.0</v>
+      <c r="G2362" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2362" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2362" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2362" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2363">
@@ -91066,17 +91066,17 @@
       <c r="F2363" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2363" t="s">
-        <v>2595</v>
-      </c>
-      <c r="H2363" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I2363" t="s">
-        <v>5108</v>
-      </c>
-      <c r="J2363" t="n">
-        <v>5.0</v>
+      <c r="G2363" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2363" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2363" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2363" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2364">
@@ -91098,17 +91098,17 @@
       <c r="F2364" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2364" t="s">
-        <v>2460</v>
-      </c>
-      <c r="H2364" t="s">
-        <v>2641</v>
-      </c>
-      <c r="I2364" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2364" t="n">
-        <v>2.0</v>
+      <c r="G2364" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2364" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2364" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2364" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2365">
@@ -91130,17 +91130,17 @@
       <c r="F2365" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2365" t="s">
-        <v>2471</v>
-      </c>
-      <c r="H2365" t="s">
-        <v>2582</v>
-      </c>
-      <c r="I2365" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2365" t="n">
-        <v>2.0</v>
+      <c r="G2365" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2365" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2365" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2365" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2366">
@@ -91162,17 +91162,17 @@
       <c r="F2366" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2366" t="s">
-        <v>2473</v>
-      </c>
-      <c r="H2366" t="s">
-        <v>2529</v>
-      </c>
-      <c r="I2366" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2366" t="n">
-        <v>2.0</v>
+      <c r="G2366" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2366" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2366" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2366" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2367">
@@ -91194,17 +91194,17 @@
       <c r="F2367" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2367" t="s">
-        <v>2472</v>
-      </c>
-      <c r="H2367" t="s">
-        <v>2530</v>
-      </c>
-      <c r="I2367" t="s">
-        <v>5094</v>
-      </c>
-      <c r="J2367" t="n">
-        <v>2.0</v>
+      <c r="G2367" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2367" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2367" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2367" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2368">
@@ -91226,17 +91226,17 @@
       <c r="F2368" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2368" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H2368" t="s">
-        <v>2435</v>
-      </c>
-      <c r="I2368" t="s">
-        <v>5109</v>
-      </c>
-      <c r="J2368" t="n">
-        <v>5.0</v>
+      <c r="G2368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2368" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2369">
@@ -91258,17 +91258,17 @@
       <c r="F2369" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2369" t="s">
-        <v>2566</v>
-      </c>
-      <c r="H2369" t="s">
-        <v>2531</v>
-      </c>
-      <c r="I2369" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2369" t="n">
-        <v>2.0</v>
+      <c r="G2369" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2369" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2369" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2369" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2370">
@@ -91290,17 +91290,17 @@
       <c r="F2370" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2370" t="s">
-        <v>2567</v>
-      </c>
-      <c r="H2370" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I2370" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2370" t="n">
-        <v>2.0</v>
+      <c r="G2370" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2370" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2370" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2370" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2371">
@@ -91322,17 +91322,17 @@
       <c r="F2371" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2371" t="s">
-        <v>2587</v>
-      </c>
-      <c r="H2371" t="s">
-        <v>2535</v>
-      </c>
-      <c r="I2371" t="s">
-        <v>5096</v>
-      </c>
-      <c r="J2371" t="n">
-        <v>4.0</v>
+      <c r="G2371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2371" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2372">
@@ -91354,17 +91354,17 @@
       <c r="F2372" t="n" s="2">
         <v>44548.0</v>
       </c>
-      <c r="G2372" t="s">
-        <v>2444</v>
-      </c>
-      <c r="H2372" t="s">
-        <v>2537</v>
-      </c>
-      <c r="I2372" t="s">
-        <v>5094</v>
-      </c>
-      <c r="J2372" t="n">
-        <v>2.0</v>
+      <c r="G2372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2372" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2373">
@@ -91386,17 +91386,17 @@
       <c r="F2373" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2373" t="s">
-        <v>2434</v>
-      </c>
-      <c r="H2373" t="s">
-        <v>2564</v>
-      </c>
-      <c r="I2373" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2373" t="n">
-        <v>3.0</v>
+      <c r="G2373" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2373" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2373" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2373" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2374">
@@ -91418,17 +91418,17 @@
       <c r="F2374" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2374" t="s">
-        <v>2409</v>
-      </c>
-      <c r="H2374" t="s">
-        <v>2565</v>
-      </c>
-      <c r="I2374" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2374" t="n">
-        <v>3.0</v>
+      <c r="G2374" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2374" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2374" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2374" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2375">
@@ -91450,17 +91450,17 @@
       <c r="F2375" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2375" t="s">
-        <v>2436</v>
-      </c>
-      <c r="H2375" t="s">
-        <v>2583</v>
-      </c>
-      <c r="I2375" t="s">
-        <v>5100</v>
-      </c>
-      <c r="J2375" t="n">
-        <v>3.0</v>
+      <c r="G2375" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2375" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2375" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2375" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2376">
@@ -91482,17 +91482,17 @@
       <c r="F2376" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2376" t="s">
-        <v>2438</v>
-      </c>
-      <c r="H2376" t="s">
-        <v>2502</v>
-      </c>
-      <c r="I2376" t="s">
-        <v>5093</v>
-      </c>
-      <c r="J2376" t="n">
-        <v>1.0</v>
+      <c r="G2376" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2376" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2376" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2376" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2377">
@@ -91514,17 +91514,17 @@
       <c r="F2377" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2377" t="s">
-        <v>2584</v>
-      </c>
-      <c r="H2377" t="s">
-        <v>2410</v>
-      </c>
-      <c r="I2377" t="s">
-        <v>5088</v>
-      </c>
-      <c r="J2377" t="n">
-        <v>1.0</v>
+      <c r="G2377" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2377" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2377" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2377" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2378">
@@ -91546,17 +91546,17 @@
       <c r="F2378" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2378" t="s">
-        <v>2551</v>
-      </c>
-      <c r="H2378" t="s">
-        <v>2475</v>
-      </c>
-      <c r="I2378" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2378" t="n">
-        <v>0.0</v>
+      <c r="G2378" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2378" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2378" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2378" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2379">
@@ -91578,17 +91578,17 @@
       <c r="F2379" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2379" t="s">
-        <v>2482</v>
-      </c>
-      <c r="H2379" t="s">
-        <v>2588</v>
-      </c>
-      <c r="I2379" t="s">
-        <v>5114</v>
-      </c>
-      <c r="J2379" t="n">
-        <v>5.0</v>
+      <c r="G2379" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2379" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2379" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2379" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2380">
@@ -91610,17 +91610,17 @@
       <c r="F2380" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2380" t="s">
-        <v>2536</v>
-      </c>
-      <c r="H2380" t="s">
-        <v>2483</v>
-      </c>
-      <c r="I2380" t="s">
-        <v>5090</v>
-      </c>
-      <c r="J2380" t="n">
-        <v>4.0</v>
+      <c r="G2380" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2380" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2380" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2380" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2381">
@@ -91642,17 +91642,17 @@
       <c r="F2381" t="n" s="2">
         <v>44549.0</v>
       </c>
-      <c r="G2381" t="s">
-        <v>2484</v>
-      </c>
-      <c r="H2381" t="s">
-        <v>2445</v>
-      </c>
-      <c r="I2381" t="s">
-        <v>5097</v>
-      </c>
-      <c r="J2381" t="n">
-        <v>2.0</v>
+      <c r="G2381" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2381" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2381" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2381" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2382">
@@ -91674,17 +91674,17 @@
       <c r="F2382" t="n" s="2">
         <v>44550.0</v>
       </c>
-      <c r="G2382" t="s">
-        <v>2503</v>
-      </c>
-      <c r="H2382" t="s">
-        <v>2411</v>
-      </c>
-      <c r="I2382" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2382" t="n">
-        <v>0.0</v>
+      <c r="G2382" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2382" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2382" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2382" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2383">
@@ -91706,17 +91706,17 @@
       <c r="F2383" t="n" s="2">
         <v>44550.0</v>
       </c>
-      <c r="G2383" t="s">
-        <v>2552</v>
-      </c>
-      <c r="H2383" t="s">
-        <v>2474</v>
-      </c>
-      <c r="I2383" t="s">
-        <v>5094</v>
-      </c>
-      <c r="J2383" t="n">
-        <v>2.0</v>
+      <c r="G2383" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2383" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2383" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2383" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2384">
@@ -91738,17 +91738,17 @@
       <c r="F2384" t="n" s="2">
         <v>44551.0</v>
       </c>
-      <c r="G2384" t="s">
-        <v>2424</v>
-      </c>
-      <c r="H2384" t="s">
-        <v>2674</v>
-      </c>
-      <c r="I2384" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2384" t="n">
-        <v>3.0</v>
+      <c r="G2384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2384" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2385">
@@ -91770,17 +91770,17 @@
       <c r="F2385" t="n" s="2">
         <v>44551.0</v>
       </c>
-      <c r="G2385" t="s">
-        <v>2673</v>
-      </c>
-      <c r="H2385" t="s">
-        <v>2574</v>
-      </c>
-      <c r="I2385" t="s">
-        <v>5102</v>
-      </c>
-      <c r="J2385" t="n">
-        <v>3.0</v>
+      <c r="G2385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2385" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2386">
@@ -91802,17 +91802,17 @@
       <c r="F2386" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2386" t="s">
-        <v>2462</v>
-      </c>
-      <c r="H2386" t="s">
-        <v>2423</v>
-      </c>
-      <c r="I2386" t="s">
-        <v>5090</v>
-      </c>
-      <c r="J2386" t="n">
-        <v>4.0</v>
+      <c r="G2386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2386" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2387">
@@ -91834,17 +91834,17 @@
       <c r="F2387" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2387" t="s">
-        <v>2575</v>
-      </c>
-      <c r="H2387" t="s">
-        <v>2425</v>
-      </c>
-      <c r="I2387" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2387" t="n">
-        <v>2.0</v>
+      <c r="G2387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2387" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2388">
@@ -91866,17 +91866,17 @@
       <c r="F2388" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2388" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H2388" t="s">
-        <v>2461</v>
-      </c>
-      <c r="I2388" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2388" t="n">
-        <v>0.0</v>
+      <c r="G2388" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2388" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2388" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2388" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2389">
@@ -91898,17 +91898,17 @@
       <c r="F2389" t="n" s="2">
         <v>44552.0</v>
       </c>
-      <c r="G2389" t="s">
-        <v>2422</v>
-      </c>
-      <c r="H2389" t="s">
-        <v>2459</v>
-      </c>
-      <c r="I2389" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2389" t="n">
-        <v>3.0</v>
+      <c r="G2389" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2389" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2389" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2389" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2390">
@@ -91930,17 +91930,17 @@
       <c r="F2390" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2390" t="s">
-        <v>2424</v>
-      </c>
-      <c r="H2390" t="s">
-        <v>2460</v>
-      </c>
-      <c r="I2390" t="s">
-        <v>5097</v>
-      </c>
-      <c r="J2390" t="n">
-        <v>2.0</v>
+      <c r="G2390" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2390" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2390" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2390" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2391">
@@ -91962,17 +91962,17 @@
       <c r="F2391" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2391" t="s">
-        <v>2673</v>
-      </c>
-      <c r="H2391" t="s">
-        <v>2595</v>
-      </c>
-      <c r="I2391" t="s">
-        <v>5093</v>
-      </c>
-      <c r="J2391" t="n">
-        <v>1.0</v>
+      <c r="G2391" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2391" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2391" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2391" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2392">
@@ -91994,17 +91994,17 @@
       <c r="F2392" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2392" t="s">
-        <v>2592</v>
-      </c>
-      <c r="H2392" t="s">
-        <v>2674</v>
-      </c>
-      <c r="I2392" t="s">
-        <v>5093</v>
-      </c>
-      <c r="J2392" t="n">
-        <v>1.0</v>
+      <c r="G2392" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2392" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2392" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2392" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2393">
@@ -92026,17 +92026,17 @@
       <c r="F2393" t="n" s="2">
         <v>44555.0</v>
       </c>
-      <c r="G2393" t="s">
-        <v>2641</v>
-      </c>
-      <c r="H2393" t="s">
-        <v>2574</v>
-      </c>
-      <c r="I2393" t="s">
-        <v>5088</v>
-      </c>
-      <c r="J2393" t="n">
-        <v>1.0</v>
+      <c r="G2393" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2393" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2393" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2393" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2394">
@@ -92058,17 +92058,17 @@
       <c r="F2394" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2394" t="s">
-        <v>2459</v>
-      </c>
-      <c r="H2394" t="s">
-        <v>2425</v>
-      </c>
-      <c r="I2394" t="s">
-        <v>5104</v>
-      </c>
-      <c r="J2394" t="n">
-        <v>3.0</v>
+      <c r="G2394" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2394" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2394" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2394" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2395">
@@ -92090,17 +92090,17 @@
       <c r="F2395" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2395" t="s">
-        <v>2461</v>
-      </c>
-      <c r="H2395" t="s">
-        <v>2423</v>
-      </c>
-      <c r="I2395" t="s">
-        <v>5096</v>
-      </c>
-      <c r="J2395" t="n">
-        <v>4.0</v>
+      <c r="G2395" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2395" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2395" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2395" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2396">
@@ -92122,17 +92122,17 @@
       <c r="F2396" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2396" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H2396" t="s">
-        <v>2462</v>
-      </c>
-      <c r="I2396" t="s">
-        <v>5088</v>
-      </c>
-      <c r="J2396" t="n">
-        <v>1.0</v>
+      <c r="G2396" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2396" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2396" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2396" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2397">
@@ -92154,17 +92154,17 @@
       <c r="F2397" t="n" s="2">
         <v>44556.0</v>
       </c>
-      <c r="G2397" t="s">
-        <v>2422</v>
-      </c>
-      <c r="H2397" t="s">
-        <v>2575</v>
-      </c>
-      <c r="I2397" t="s">
-        <v>5097</v>
-      </c>
-      <c r="J2397" t="n">
-        <v>2.0</v>
+      <c r="G2397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2397" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2397" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/finalscore_newleagues.xlsx
+++ b/finalscore_newleagues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18835" uniqueCount="5133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18832" uniqueCount="5133">
   <si>
     <t>HT</t>
   </si>
@@ -90458,17 +90458,17 @@
       <c r="F2344" t="n" s="2">
         <v>44545.0</v>
       </c>
-      <c r="G2344" t="s">
-        <v>2656</v>
-      </c>
-      <c r="H2344" t="s">
-        <v>2679</v>
-      </c>
-      <c r="I2344" t="s">
-        <v>5091</v>
-      </c>
-      <c r="J2344" t="n">
-        <v>2.0</v>
+      <c r="G2344" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2344" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2344" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2344" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2345">
